--- a/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
+++ b/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rotem_NY/Google_Drive/my_research/my_papers/NARPS_main_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotembot/Google_Drive/my_research/my_papers/NARPS_main_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A2B75-E3E9-FE44-8A4C-62223EFB9489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7EF6A5-AFE2-F046-9892-D6428EB516C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8468,24 +8468,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8694,6 +8676,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9031,22 +9031,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS69" sqref="AS69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9" style="86" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.5" style="86" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="86" customWidth="1"/>
-    <col min="6" max="6" width="46" style="86" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" style="86" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="87" customWidth="1"/>
-    <col min="9" max="9" width="53.1640625" style="87" customWidth="1"/>
+    <col min="1" max="1" width="9" style="80" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5" style="80" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="46" style="80" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="80" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="53.1640625" style="81" customWidth="1"/>
     <col min="10" max="10" width="16" style="15" customWidth="1"/>
     <col min="11" max="11" width="68.6640625" style="15" customWidth="1"/>
     <col min="12" max="12" width="28.1640625" style="15" customWidth="1"/>
@@ -9073,85 +9073,85 @@
     <col min="35" max="35" width="33" style="4" customWidth="1"/>
     <col min="36" max="37" width="32.33203125" style="4" customWidth="1"/>
     <col min="38" max="38" width="49.1640625" style="4" customWidth="1"/>
-    <col min="39" max="39" width="48.83203125" style="86" customWidth="1"/>
-    <col min="40" max="40" width="26.1640625" style="88" customWidth="1"/>
-    <col min="41" max="41" width="29.1640625" style="88" customWidth="1"/>
-    <col min="42" max="42" width="30.83203125" style="88" customWidth="1"/>
-    <col min="43" max="43" width="17.83203125" style="88" customWidth="1"/>
-    <col min="44" max="44" width="24.83203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.83203125" style="88" customWidth="1"/>
-    <col min="46" max="47" width="17.83203125" style="88" customWidth="1"/>
-    <col min="48" max="48" width="18.83203125" style="88" customWidth="1"/>
-    <col min="49" max="49" width="19.33203125" style="88" customWidth="1"/>
-    <col min="50" max="50" width="10.83203125" style="37"/>
-    <col min="51" max="51" width="12.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="53" max="68" width="10.83203125" style="37"/>
-    <col min="69" max="16384" width="10.83203125" style="89"/>
+    <col min="39" max="39" width="48.83203125" style="80" customWidth="1"/>
+    <col min="40" max="40" width="26.1640625" style="82" customWidth="1"/>
+    <col min="41" max="41" width="29.1640625" style="82" customWidth="1"/>
+    <col min="42" max="42" width="30.83203125" style="82" customWidth="1"/>
+    <col min="43" max="43" width="17.83203125" style="82" customWidth="1"/>
+    <col min="44" max="44" width="24.83203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.83203125" style="82" customWidth="1"/>
+    <col min="46" max="47" width="17.83203125" style="82" customWidth="1"/>
+    <col min="48" max="48" width="18.83203125" style="82" customWidth="1"/>
+    <col min="49" max="49" width="19.33203125" style="82" customWidth="1"/>
+    <col min="50" max="50" width="10.83203125" style="31"/>
+    <col min="51" max="51" width="12.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="53" max="68" width="10.83203125" style="31"/>
+    <col min="69" max="16384" width="10.83203125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="22" customFormat="1" ht="34" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="100" t="s">
         <v>1848</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="99" t="s">
         <v>1849</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="103" t="s">
         <v>1851</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32" t="s">
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="102" t="s">
         <v>1852</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="103" t="s">
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="97" t="s">
         <v>1848</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AN1" s="98" t="s">
         <v>1850</v>
       </c>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="92"/>
       <c r="AX1" s="23"/>
       <c r="AY1" s="23"/>
       <c r="AZ1" s="23"/>
@@ -9172,8 +9172,8 @@
       <c r="BO1" s="23"/>
       <c r="BP1" s="23"/>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" ht="60">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:68" s="1" customFormat="1" ht="40">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -9317,7 +9317,7 @@
       <c r="AV2" s="19" t="s">
         <v>1713</v>
       </c>
-      <c r="AW2" s="99" t="s">
+      <c r="AW2" s="93" t="s">
         <v>1856</v>
       </c>
       <c r="AX2" s="24"/>
@@ -9341,10 +9341,10 @@
       <c r="BP2" s="24"/>
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="221">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>1776</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -9485,34 +9485,34 @@
       <c r="AV3" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW3" s="100" t="s">
+      <c r="AW3" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="31"/>
+      <c r="BO3" s="31"/>
+      <c r="BP3" s="31"/>
     </row>
     <row r="4" spans="1:68" s="3" customFormat="1" ht="281" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>1777</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -9590,7 +9590,7 @@
       <c r="AA4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AB4" s="32" t="s">
         <v>140</v>
       </c>
       <c r="AC4" s="2" t="s">
@@ -9653,34 +9653,34 @@
       <c r="AV4" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW4" s="100" t="s">
+      <c r="AW4" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="272">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>1778</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -9692,7 +9692,7 @@
       <c r="E5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="33" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -9701,7 +9701,7 @@
       <c r="H5" s="13">
         <v>104</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="34" t="s">
         <v>151</v>
       </c>
       <c r="J5" s="26" t="s">
@@ -9710,7 +9710,7 @@
       <c r="K5" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="35" t="s">
         <v>154</v>
       </c>
       <c r="M5" s="16" t="s">
@@ -9728,34 +9728,34 @@
       <c r="Q5" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="V5" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="X5" s="43" t="s">
+      <c r="X5" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="41" t="s">
+      <c r="Y5" s="35" t="s">
         <v>160</v>
       </c>
       <c r="Z5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="38" t="s">
         <v>161</v>
       </c>
       <c r="AB5" s="6" t="s">
@@ -9764,10 +9764,10 @@
       <c r="AC5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AD5" s="44" t="s">
+      <c r="AD5" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AE5" s="45" t="s">
+      <c r="AE5" s="39" t="s">
         <v>143</v>
       </c>
       <c r="AF5" s="8" t="s">
@@ -9792,13 +9792,13 @@
         <v>171</v>
       </c>
       <c r="AM5" s="25"/>
-      <c r="AN5" s="46" t="s">
+      <c r="AN5" s="40" t="s">
         <v>1716</v>
       </c>
-      <c r="AO5" s="46" t="s">
+      <c r="AO5" s="40" t="s">
         <v>1716</v>
       </c>
-      <c r="AP5" s="46" t="s">
+      <c r="AP5" s="40" t="s">
         <v>1716</v>
       </c>
       <c r="AQ5" s="21" t="s">
@@ -9807,10 +9807,10 @@
       <c r="AR5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS5" s="46">
+      <c r="AS5" s="40">
         <v>5</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="41" t="s">
         <v>970</v>
       </c>
       <c r="AU5" s="21" t="s">
@@ -9819,34 +9819,34 @@
       <c r="AV5" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW5" s="100" t="s">
+      <c r="AW5" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="31"/>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="31"/>
+      <c r="BK5" s="31"/>
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="31"/>
+      <c r="BP5" s="31"/>
     </row>
     <row r="6" spans="1:68" s="3" customFormat="1" ht="255">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="30" t="s">
         <v>1779</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -9867,13 +9867,13 @@
       <c r="H6" s="13">
         <v>108</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="42" t="s">
         <v>174</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="43" t="s">
         <v>175</v>
       </c>
       <c r="L6" s="26" t="s">
@@ -9930,7 +9930,7 @@
       <c r="AC6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" s="50" t="s">
+      <c r="AD6" s="44" t="s">
         <v>183</v>
       </c>
       <c r="AE6" s="2" t="s">
@@ -9954,10 +9954,10 @@
       <c r="AK6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AL6" s="50" t="s">
+      <c r="AL6" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="AM6" s="51"/>
+      <c r="AM6" s="45"/>
       <c r="AN6" s="20" t="s">
         <v>1671</v>
       </c>
@@ -9985,34 +9985,34 @@
       <c r="AV6" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW6" s="100" t="s">
+      <c r="AW6" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="37"/>
-      <c r="BJ6" s="37"/>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="37"/>
-      <c r="BM6" s="37"/>
-      <c r="BN6" s="37"/>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
+      <c r="BP6" s="31"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="30" t="s">
         <v>1780</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -10030,7 +10030,7 @@
       <c r="G7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="42">
         <v>103</v>
       </c>
       <c r="I7" s="13" t="s">
@@ -10039,7 +10039,7 @@
       <c r="J7" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="43" t="s">
         <v>195</v>
       </c>
       <c r="L7" s="26" t="s">
@@ -10084,19 +10084,19 @@
       <c r="Y7" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="Z7" s="49" t="s">
+      <c r="Z7" s="43" t="s">
         <v>206</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AB7" s="38" t="s">
+      <c r="AB7" s="32" t="s">
         <v>162</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AD7" s="50" t="s">
+      <c r="AD7" s="44" t="s">
         <v>209</v>
       </c>
       <c r="AE7" s="2" t="s">
@@ -10108,13 +10108,13 @@
       <c r="AG7" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH7" s="38" t="s">
+      <c r="AH7" s="32" t="s">
         <v>146</v>
       </c>
       <c r="AI7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AJ7" s="38" t="s">
+      <c r="AJ7" s="32" t="s">
         <v>213</v>
       </c>
       <c r="AK7" s="2" t="s">
@@ -10153,34 +10153,34 @@
       <c r="AV7" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW7" s="100" t="s">
+      <c r="AW7" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="37"/>
-      <c r="BH7" s="37"/>
-      <c r="BI7" s="37"/>
-      <c r="BJ7" s="37"/>
-      <c r="BK7" s="37"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="37"/>
-      <c r="BN7" s="37"/>
-      <c r="BO7" s="37"/>
-      <c r="BP7" s="37"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="31"/>
+      <c r="BC7" s="31"/>
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
     </row>
     <row r="8" spans="1:68" s="3" customFormat="1" ht="404">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>1781</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -10321,34 +10321,34 @@
       <c r="AV8" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW8" s="100" t="s">
+      <c r="AW8" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
-      <c r="BJ8" s="37"/>
-      <c r="BK8" s="37"/>
-      <c r="BL8" s="37"/>
-      <c r="BM8" s="37"/>
-      <c r="BN8" s="37"/>
-      <c r="BO8" s="37"/>
-      <c r="BP8" s="37"/>
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="31"/>
+      <c r="BC8" s="31"/>
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="31"/>
+      <c r="BF8" s="31"/>
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="31"/>
+      <c r="BI8" s="31"/>
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="31"/>
+      <c r="BL8" s="31"/>
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="31"/>
+      <c r="BO8" s="31"/>
+      <c r="BP8" s="31"/>
     </row>
     <row r="9" spans="1:68" s="4" customFormat="1" ht="255">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>1782</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -10366,16 +10366,16 @@
       <c r="G9" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="42">
         <v>108</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="42" t="s">
         <v>230</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="47" t="s">
         <v>231</v>
       </c>
       <c r="L9" s="26" t="s">
@@ -10426,16 +10426,16 @@
       <c r="AA9" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AB9" s="38" t="s">
+      <c r="AB9" s="32" t="s">
         <v>239</v>
       </c>
       <c r="AC9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AD9" s="50" t="s">
+      <c r="AD9" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="AE9" s="38" t="s">
+      <c r="AE9" s="32" t="s">
         <v>223</v>
       </c>
       <c r="AF9" s="5" t="s">
@@ -10444,7 +10444,7 @@
       <c r="AG9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AH9" s="38" t="s">
+      <c r="AH9" s="32" t="s">
         <v>244</v>
       </c>
       <c r="AI9" s="2" t="s">
@@ -10487,34 +10487,34 @@
       <c r="AV9" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW9" s="100" t="s">
+      <c r="AW9" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX9" s="37"/>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37"/>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37"/>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37"/>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31"/>
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
     </row>
     <row r="10" spans="1:68" s="3" customFormat="1" ht="408" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>1783</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -10541,7 +10541,7 @@
       <c r="J10" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="43" t="s">
         <v>251</v>
       </c>
       <c r="L10" s="26" t="s">
@@ -10553,10 +10553,10 @@
       <c r="N10" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="48">
         <v>6</v>
       </c>
       <c r="Q10" s="26" t="s">
@@ -10571,13 +10571,13 @@
       <c r="T10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="U10" s="55" t="s">
+      <c r="U10" s="49" t="s">
         <v>261</v>
       </c>
       <c r="V10" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="W10" s="56" t="s">
+      <c r="W10" s="50" t="s">
         <v>263</v>
       </c>
       <c r="X10" s="26" t="s">
@@ -10586,7 +10586,7 @@
       <c r="Y10" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="Z10" s="49" t="s">
+      <c r="Z10" s="43" t="s">
         <v>266</v>
       </c>
       <c r="AA10" s="2" t="s">
@@ -10598,7 +10598,7 @@
       <c r="AC10" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="AD10" s="57" t="s">
+      <c r="AD10" s="51" t="s">
         <v>1662</v>
       </c>
       <c r="AE10" s="2" t="s">
@@ -10622,10 +10622,10 @@
       <c r="AK10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AL10" s="50" t="s">
+      <c r="AL10" s="44" t="s">
         <v>1663</v>
       </c>
-      <c r="AM10" s="58" t="s">
+      <c r="AM10" s="52" t="s">
         <v>275</v>
       </c>
       <c r="AN10" s="21" t="s">
@@ -10653,34 +10653,34 @@
       <c r="AV10" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW10" s="100" t="s">
+      <c r="AW10" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="37"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="37"/>
-      <c r="BK10" s="37"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="37"/>
-      <c r="BN10" s="37"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="31"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="31"/>
+      <c r="BK10" s="31"/>
+      <c r="BL10" s="31"/>
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="31"/>
+      <c r="BO10" s="31"/>
+      <c r="BP10" s="31"/>
     </row>
     <row r="11" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>1784</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -10707,7 +10707,7 @@
       <c r="J11" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="53" t="s">
         <v>279</v>
       </c>
       <c r="L11" s="26" t="s">
@@ -10719,25 +10719,25 @@
       <c r="N11" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="O11" s="54" t="s">
+      <c r="O11" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="48">
         <v>6</v>
       </c>
       <c r="Q11" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="S11" s="55" t="s">
+      <c r="S11" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="T11" s="60" t="s">
+      <c r="T11" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="U11" s="55" t="s">
+      <c r="U11" s="49" t="s">
         <v>288</v>
       </c>
       <c r="V11" s="26" t="s">
@@ -10764,13 +10764,13 @@
       <c r="AC11" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AD11" s="50" t="s">
+      <c r="AD11" s="44" t="s">
         <v>296</v>
       </c>
       <c r="AE11" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AF11" s="38" t="s">
+      <c r="AF11" s="32" t="s">
         <v>298</v>
       </c>
       <c r="AG11" s="2" t="s">
@@ -10821,34 +10821,34 @@
       <c r="AV11" s="21" t="s">
         <v>1860</v>
       </c>
-      <c r="AW11" s="100" t="s">
+      <c r="AW11" s="94" t="s">
         <v>1859</v>
       </c>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="37"/>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="37"/>
-      <c r="BI11" s="37"/>
-      <c r="BJ11" s="37"/>
-      <c r="BK11" s="37"/>
-      <c r="BL11" s="37"/>
-      <c r="BM11" s="37"/>
-      <c r="BN11" s="37"/>
-      <c r="BO11" s="37"/>
-      <c r="BP11" s="37"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
     </row>
     <row r="12" spans="1:68" s="3" customFormat="1" ht="136">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="30" t="s">
         <v>1785</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -10866,10 +10866,10 @@
       <c r="G12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="42">
         <v>108</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="42" t="s">
         <v>305</v>
       </c>
       <c r="J12" s="26" t="s">
@@ -10920,7 +10920,7 @@
       <c r="Y12" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="Z12" s="49" t="s">
+      <c r="Z12" s="43" t="s">
         <v>307</v>
       </c>
       <c r="AA12" s="2" t="s">
@@ -10932,10 +10932,10 @@
       <c r="AC12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AD12" s="50" t="s">
+      <c r="AD12" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="AE12" s="61" t="s">
+      <c r="AE12" s="55" t="s">
         <v>223</v>
       </c>
       <c r="AF12" s="2" t="s">
@@ -10989,31 +10989,31 @@
       <c r="AV12" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW12" s="100" t="s">
+      <c r="AW12" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="37"/>
-      <c r="BE12" s="37"/>
-      <c r="BF12" s="37"/>
-      <c r="BG12" s="37"/>
-      <c r="BH12" s="37"/>
-      <c r="BI12" s="37"/>
-      <c r="BJ12" s="37"/>
-      <c r="BK12" s="37"/>
-      <c r="BL12" s="37"/>
-      <c r="BM12" s="37"/>
-      <c r="BN12" s="37"/>
-      <c r="BO12" s="37"/>
-      <c r="BP12" s="37"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
     </row>
     <row r="13" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -11031,7 +11031,7 @@
       <c r="F13" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="46" t="s">
         <v>322</v>
       </c>
       <c r="H13" s="13">
@@ -11043,7 +11043,7 @@
       <c r="J13" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="43" t="s">
         <v>321</v>
       </c>
       <c r="L13" s="26" t="s">
@@ -11100,10 +11100,10 @@
       <c r="AC13" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="AD13" s="50" t="s">
+      <c r="AD13" s="44" t="s">
         <v>1656</v>
       </c>
-      <c r="AE13" s="38" t="s">
+      <c r="AE13" s="32" t="s">
         <v>337</v>
       </c>
       <c r="AF13" s="5" t="s">
@@ -11124,10 +11124,10 @@
       <c r="AK13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AL13" s="50" t="s">
+      <c r="AL13" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="AM13" s="58" t="s">
+      <c r="AM13" s="52" t="s">
         <v>345</v>
       </c>
       <c r="AN13" s="21" t="s">
@@ -11139,10 +11139,10 @@
       <c r="AP13" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ13" s="62" t="s">
+      <c r="AQ13" s="56" t="s">
         <v>1668</v>
       </c>
-      <c r="AR13" s="62" t="s">
+      <c r="AR13" s="56" t="s">
         <v>1690</v>
       </c>
       <c r="AS13" s="21">
@@ -11157,34 +11157,34 @@
       <c r="AV13" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AW13" s="100" t="s">
+      <c r="AW13" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="37"/>
-      <c r="BF13" s="37"/>
-      <c r="BG13" s="37"/>
-      <c r="BH13" s="37"/>
-      <c r="BI13" s="37"/>
-      <c r="BJ13" s="37"/>
-      <c r="BK13" s="37"/>
-      <c r="BL13" s="37"/>
-      <c r="BM13" s="37"/>
-      <c r="BN13" s="37"/>
-      <c r="BO13" s="37"/>
-      <c r="BP13" s="37"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="31"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
     </row>
     <row r="14" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>1787</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -11211,7 +11211,7 @@
       <c r="J14" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="43" t="s">
         <v>351</v>
       </c>
       <c r="L14" s="26" t="s">
@@ -11245,10 +11245,10 @@
       <c r="V14" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="W14" s="55" t="s">
+      <c r="W14" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="X14" s="54" t="s">
+      <c r="X14" s="48" t="s">
         <v>355</v>
       </c>
       <c r="Y14" s="26" t="s">
@@ -11260,7 +11260,7 @@
       <c r="AA14" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="AB14" s="38" t="s">
+      <c r="AB14" s="32" t="s">
         <v>162</v>
       </c>
       <c r="AC14" s="2" t="s">
@@ -11269,7 +11269,7 @@
       <c r="AD14" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AE14" s="38" t="s">
+      <c r="AE14" s="32" t="s">
         <v>143</v>
       </c>
       <c r="AF14" s="2" t="s">
@@ -11318,35 +11318,35 @@
         <v>1670</v>
       </c>
       <c r="AU14" s="21"/>
-      <c r="AV14" s="63" t="s">
+      <c r="AV14" s="57" t="s">
         <v>1855</v>
       </c>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="37"/>
-      <c r="BA14" s="37"/>
-      <c r="BB14" s="37"/>
-      <c r="BC14" s="37"/>
-      <c r="BD14" s="37"/>
-      <c r="BE14" s="37"/>
-      <c r="BF14" s="37"/>
-      <c r="BG14" s="37"/>
-      <c r="BH14" s="37"/>
-      <c r="BI14" s="37"/>
-      <c r="BJ14" s="37"/>
-      <c r="BK14" s="37"/>
-      <c r="BL14" s="37"/>
-      <c r="BM14" s="37"/>
-      <c r="BN14" s="37"/>
-      <c r="BO14" s="37"/>
-      <c r="BP14" s="37"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="31"/>
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="31"/>
+      <c r="BC14" s="31"/>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="31"/>
+      <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
     </row>
     <row r="15" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="30" t="s">
         <v>1788</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -11373,7 +11373,7 @@
       <c r="J15" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="58" t="s">
         <v>370</v>
       </c>
       <c r="L15" s="26" t="s">
@@ -11482,37 +11482,37 @@
       <c r="AU15" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV15" s="63" t="s">
+      <c r="AV15" s="57" t="s">
         <v>1855</v>
       </c>
-      <c r="AW15" s="100" t="s">
+      <c r="AW15" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="37"/>
-      <c r="BG15" s="37"/>
-      <c r="BH15" s="37"/>
-      <c r="BI15" s="37"/>
-      <c r="BJ15" s="37"/>
-      <c r="BK15" s="37"/>
-      <c r="BL15" s="37"/>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
     </row>
     <row r="16" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>1789</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -11651,34 +11651,34 @@
       <c r="AV16" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW16" s="100" t="s">
+      <c r="AW16" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX16" s="37"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="37"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="37"/>
-      <c r="BE16" s="37"/>
-      <c r="BF16" s="37"/>
-      <c r="BG16" s="37"/>
-      <c r="BH16" s="37"/>
-      <c r="BI16" s="37"/>
-      <c r="BJ16" s="37"/>
-      <c r="BK16" s="37"/>
-      <c r="BL16" s="37"/>
-      <c r="BM16" s="37"/>
-      <c r="BN16" s="37"/>
-      <c r="BO16" s="37"/>
-      <c r="BP16" s="37"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="31"/>
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="31"/>
+      <c r="BC16" s="31"/>
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="31"/>
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="31"/>
+      <c r="BI16" s="31"/>
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="31"/>
+      <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
     </row>
     <row r="17" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="30" t="s">
         <v>1790</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -11813,32 +11813,32 @@
       <c r="AV17" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW17" s="100"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="37"/>
-      <c r="BA17" s="37"/>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="37"/>
-      <c r="BF17" s="37"/>
-      <c r="BG17" s="37"/>
-      <c r="BH17" s="37"/>
-      <c r="BI17" s="37"/>
-      <c r="BJ17" s="37"/>
-      <c r="BK17" s="37"/>
-      <c r="BL17" s="37"/>
-      <c r="BM17" s="37"/>
-      <c r="BN17" s="37"/>
-      <c r="BO17" s="37"/>
-      <c r="BP17" s="37"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="31"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="31"/>
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="31"/>
+      <c r="BI17" s="31"/>
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="31"/>
+      <c r="BL17" s="31"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="31"/>
+      <c r="BO17" s="31"/>
+      <c r="BP17" s="31"/>
     </row>
     <row r="18" spans="1:68" s="3" customFormat="1" ht="255">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="30" t="s">
         <v>1791</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -11923,7 +11923,7 @@
       <c r="AD18" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AE18" s="38" t="s">
+      <c r="AE18" s="32" t="s">
         <v>143</v>
       </c>
       <c r="AF18" s="2" t="s">
@@ -11947,7 +11947,7 @@
       <c r="AL18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AM18" s="58"/>
+      <c r="AM18" s="52"/>
       <c r="AN18" s="21" t="s">
         <v>1716</v>
       </c>
@@ -11975,34 +11975,34 @@
       <c r="AV18" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW18" s="100" t="s">
+      <c r="AW18" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="37"/>
-      <c r="BH18" s="37"/>
-      <c r="BI18" s="37"/>
-      <c r="BJ18" s="37"/>
-      <c r="BK18" s="37"/>
-      <c r="BL18" s="37"/>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
     </row>
     <row r="19" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>1792</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -12141,34 +12141,34 @@
       <c r="AV19" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW19" s="100" t="s">
+      <c r="AW19" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="37"/>
-      <c r="BC19" s="37"/>
-      <c r="BD19" s="37"/>
-      <c r="BE19" s="37"/>
-      <c r="BF19" s="37"/>
-      <c r="BG19" s="37"/>
-      <c r="BH19" s="37"/>
-      <c r="BI19" s="37"/>
-      <c r="BJ19" s="37"/>
-      <c r="BK19" s="37"/>
-      <c r="BL19" s="37"/>
-      <c r="BM19" s="37"/>
-      <c r="BN19" s="37"/>
-      <c r="BO19" s="37"/>
-      <c r="BP19" s="37"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="31"/>
+      <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
     </row>
     <row r="20" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="30" t="s">
         <v>1793</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -12305,32 +12305,32 @@
       <c r="AV20" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW20" s="100"/>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="37"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="37"/>
-      <c r="BH20" s="37"/>
-      <c r="BI20" s="37"/>
-      <c r="BJ20" s="37"/>
-      <c r="BK20" s="37"/>
-      <c r="BL20" s="37"/>
-      <c r="BM20" s="37"/>
-      <c r="BN20" s="37"/>
-      <c r="BO20" s="37"/>
-      <c r="BP20" s="37"/>
+      <c r="AW20" s="94"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="31"/>
+      <c r="BL20" s="31"/>
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="31"/>
+      <c r="BO20" s="31"/>
+      <c r="BP20" s="31"/>
     </row>
     <row r="21" spans="1:68" s="4" customFormat="1" ht="136">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>1794</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -12469,34 +12469,34 @@
       <c r="AV21" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW21" s="100" t="s">
+      <c r="AW21" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37"/>
-      <c r="BA21" s="37"/>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="37"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="37"/>
-      <c r="BH21" s="37"/>
-      <c r="BI21" s="37"/>
-      <c r="BJ21" s="37"/>
-      <c r="BK21" s="37"/>
-      <c r="BL21" s="37"/>
-      <c r="BM21" s="37"/>
-      <c r="BN21" s="37"/>
-      <c r="BO21" s="37"/>
-      <c r="BP21" s="37"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="31"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
+      <c r="BP21" s="31"/>
     </row>
     <row r="22" spans="1:68" s="3" customFormat="1" ht="340">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>1795</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -12505,7 +12505,7 @@
       <c r="D22" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="59" t="s">
         <v>538</v>
       </c>
       <c r="F22" s="11" t="s">
@@ -12514,7 +12514,7 @@
       <c r="G22" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="42">
         <v>106</v>
       </c>
       <c r="I22" s="13" t="s">
@@ -12572,7 +12572,7 @@
       <c r="AA22" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="AB22" s="38" t="s">
+      <c r="AB22" s="32" t="s">
         <v>548</v>
       </c>
       <c r="AC22" s="2" t="s">
@@ -12605,7 +12605,7 @@
       <c r="AL22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AM22" s="66" t="s">
+      <c r="AM22" s="60" t="s">
         <v>557</v>
       </c>
       <c r="AN22" s="21" t="s">
@@ -12635,37 +12635,37 @@
       <c r="AV22" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW22" s="100" t="s">
+      <c r="AW22" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="37"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="37"/>
-      <c r="BD22" s="37"/>
-      <c r="BE22" s="37"/>
-      <c r="BF22" s="37"/>
-      <c r="BG22" s="37"/>
-      <c r="BH22" s="37"/>
-      <c r="BI22" s="37"/>
-      <c r="BJ22" s="37"/>
-      <c r="BK22" s="37"/>
-      <c r="BL22" s="37"/>
-      <c r="BM22" s="37"/>
-      <c r="BN22" s="37"/>
-      <c r="BO22" s="37"/>
-      <c r="BP22" s="37"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="31"/>
     </row>
     <row r="23" spans="1:68" s="4" customFormat="1" ht="323">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="30" t="s">
         <v>1796</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="61" t="s">
         <v>558</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -12683,7 +12683,7 @@
       <c r="H23" s="13">
         <v>108</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="62" t="s">
         <v>560</v>
       </c>
       <c r="J23" s="26" t="s">
@@ -12720,7 +12720,7 @@
       <c r="U23" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="V23" s="69" t="s">
+      <c r="V23" s="63" t="s">
         <v>570</v>
       </c>
       <c r="W23" s="26" t="s">
@@ -12801,34 +12801,34 @@
       <c r="AV23" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AW23" s="100" t="s">
+      <c r="AW23" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="37"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="37"/>
-      <c r="BF23" s="37"/>
-      <c r="BG23" s="37"/>
-      <c r="BH23" s="37"/>
-      <c r="BI23" s="37"/>
-      <c r="BJ23" s="37"/>
-      <c r="BK23" s="37"/>
-      <c r="BL23" s="37"/>
-      <c r="BM23" s="37"/>
-      <c r="BN23" s="37"/>
-      <c r="BO23" s="37"/>
-      <c r="BP23" s="37"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="31"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+      <c r="BD23" s="31"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="31"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
     </row>
     <row r="24" spans="1:68" s="3" customFormat="1" ht="372">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="30" t="s">
         <v>1797</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -12846,7 +12846,7 @@
       <c r="G24" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="42">
         <v>106</v>
       </c>
       <c r="I24" s="13" t="s">
@@ -12965,34 +12965,34 @@
       <c r="AV24" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW24" s="100" t="s">
+      <c r="AW24" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="37"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="37"/>
-      <c r="BC24" s="37"/>
-      <c r="BD24" s="37"/>
-      <c r="BE24" s="37"/>
-      <c r="BF24" s="37"/>
-      <c r="BG24" s="37"/>
-      <c r="BH24" s="37"/>
-      <c r="BI24" s="37"/>
-      <c r="BJ24" s="37"/>
-      <c r="BK24" s="37"/>
-      <c r="BL24" s="37"/>
-      <c r="BM24" s="37"/>
-      <c r="BN24" s="37"/>
-      <c r="BO24" s="37"/>
-      <c r="BP24" s="37"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="31"/>
+      <c r="BA24" s="31"/>
+      <c r="BB24" s="31"/>
+      <c r="BC24" s="31"/>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BI24" s="31"/>
+      <c r="BJ24" s="31"/>
+      <c r="BK24" s="31"/>
+      <c r="BL24" s="31"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="31"/>
     </row>
     <row r="25" spans="1:68" s="4" customFormat="1" ht="294" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="30" t="s">
         <v>1798</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -13104,13 +13104,13 @@
       <c r="AM25" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="AN25" s="70" t="s">
+      <c r="AN25" s="64" t="s">
         <v>1853</v>
       </c>
-      <c r="AO25" s="70" t="s">
+      <c r="AO25" s="64" t="s">
         <v>1741</v>
       </c>
-      <c r="AP25" s="70" t="s">
+      <c r="AP25" s="64" t="s">
         <v>1741</v>
       </c>
       <c r="AQ25" s="21" t="s">
@@ -13131,34 +13131,34 @@
       <c r="AV25" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW25" s="100" t="s">
+      <c r="AW25" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX25" s="37"/>
-      <c r="AY25" s="37"/>
-      <c r="AZ25" s="37"/>
-      <c r="BA25" s="37"/>
-      <c r="BB25" s="37"/>
-      <c r="BC25" s="37"/>
-      <c r="BD25" s="37"/>
-      <c r="BE25" s="37"/>
-      <c r="BF25" s="37"/>
-      <c r="BG25" s="37"/>
-      <c r="BH25" s="37"/>
-      <c r="BI25" s="37"/>
-      <c r="BJ25" s="37"/>
-      <c r="BK25" s="37"/>
-      <c r="BL25" s="37"/>
-      <c r="BM25" s="37"/>
-      <c r="BN25" s="37"/>
-      <c r="BO25" s="37"/>
-      <c r="BP25" s="37"/>
+      <c r="AX25" s="31"/>
+      <c r="AY25" s="31"/>
+      <c r="AZ25" s="31"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="31"/>
+      <c r="BC25" s="31"/>
+      <c r="BD25" s="31"/>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="31"/>
+      <c r="BG25" s="31"/>
+      <c r="BH25" s="31"/>
+      <c r="BI25" s="31"/>
+      <c r="BJ25" s="31"/>
+      <c r="BK25" s="31"/>
+      <c r="BL25" s="31"/>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
     </row>
     <row r="26" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="30" t="s">
         <v>1799</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -13293,32 +13293,32 @@
       <c r="AV26" s="21" t="s">
         <v>1679</v>
       </c>
-      <c r="AW26" s="100"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="37"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="37"/>
-      <c r="BC26" s="37"/>
-      <c r="BD26" s="37"/>
-      <c r="BE26" s="37"/>
-      <c r="BF26" s="37"/>
-      <c r="BG26" s="37"/>
-      <c r="BH26" s="37"/>
-      <c r="BI26" s="37"/>
-      <c r="BJ26" s="37"/>
-      <c r="BK26" s="37"/>
-      <c r="BL26" s="37"/>
-      <c r="BM26" s="37"/>
-      <c r="BN26" s="37"/>
-      <c r="BO26" s="37"/>
-      <c r="BP26" s="37"/>
+      <c r="AW26" s="94"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="31"/>
+      <c r="AZ26" s="31"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="31"/>
+      <c r="BH26" s="31"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="31"/>
+      <c r="BK26" s="31"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="31"/>
+      <c r="BP26" s="31"/>
     </row>
     <row r="27" spans="1:68" s="4" customFormat="1" ht="170">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="30" t="s">
         <v>1800</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -13455,34 +13455,34 @@
       <c r="AV27" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW27" s="100" t="s">
+      <c r="AW27" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
-      <c r="AZ27" s="37"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="37"/>
-      <c r="BD27" s="37"/>
-      <c r="BE27" s="37"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="37"/>
-      <c r="BH27" s="37"/>
-      <c r="BI27" s="37"/>
-      <c r="BJ27" s="37"/>
-      <c r="BK27" s="37"/>
-      <c r="BL27" s="37"/>
-      <c r="BM27" s="37"/>
-      <c r="BN27" s="37"/>
-      <c r="BO27" s="37"/>
-      <c r="BP27" s="37"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="31"/>
+      <c r="BH27" s="31"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="31"/>
+      <c r="BP27" s="31"/>
     </row>
     <row r="28" spans="1:68" s="3" customFormat="1" ht="356">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="30" t="s">
         <v>1801</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -13619,34 +13619,34 @@
       <c r="AV28" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW28" s="100" t="s">
+      <c r="AW28" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="37"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="37"/>
-      <c r="BK28" s="37"/>
-      <c r="BL28" s="37"/>
-      <c r="BM28" s="37"/>
-      <c r="BN28" s="37"/>
-      <c r="BO28" s="37"/>
-      <c r="BP28" s="37"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="31"/>
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="31"/>
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="31"/>
+      <c r="BN28" s="31"/>
+      <c r="BO28" s="31"/>
+      <c r="BP28" s="31"/>
     </row>
     <row r="29" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>1802</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -13783,29 +13783,29 @@
       <c r="AV29" s="21" t="s">
         <v>1677</v>
       </c>
-      <c r="AW29" s="100"/>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="37"/>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="37"/>
-      <c r="BO29" s="37"/>
-      <c r="BP29" s="37"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="31"/>
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+      <c r="BA29" s="31"/>
+      <c r="BB29" s="31"/>
+      <c r="BC29" s="31"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="31"/>
+      <c r="BG29" s="31"/>
+      <c r="BH29" s="31"/>
+      <c r="BI29" s="31"/>
+      <c r="BJ29" s="31"/>
+      <c r="BK29" s="31"/>
+      <c r="BL29" s="31"/>
+      <c r="BM29" s="31"/>
+      <c r="BN29" s="31"/>
+      <c r="BO29" s="31"/>
+      <c r="BP29" s="31"/>
     </row>
     <row r="30" spans="1:68" s="3" customFormat="1" ht="272">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -13945,34 +13945,34 @@
       <c r="AV30" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AW30" s="100" t="s">
+      <c r="AW30" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX30" s="37"/>
-      <c r="AY30" s="37"/>
-      <c r="AZ30" s="37"/>
-      <c r="BA30" s="37"/>
-      <c r="BB30" s="37"/>
-      <c r="BC30" s="37"/>
-      <c r="BD30" s="37"/>
-      <c r="BE30" s="37"/>
-      <c r="BF30" s="37"/>
-      <c r="BG30" s="37"/>
-      <c r="BH30" s="37"/>
-      <c r="BI30" s="37"/>
-      <c r="BJ30" s="37"/>
-      <c r="BK30" s="37"/>
-      <c r="BL30" s="37"/>
-      <c r="BM30" s="37"/>
-      <c r="BN30" s="37"/>
-      <c r="BO30" s="37"/>
-      <c r="BP30" s="37"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="31"/>
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
     </row>
     <row r="31" spans="1:68" s="4" customFormat="1" ht="404">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>1804</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -14109,196 +14109,196 @@
       <c r="AV31" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW31" s="100"/>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="37"/>
-      <c r="BC31" s="37"/>
-      <c r="BD31" s="37"/>
-      <c r="BE31" s="37"/>
-      <c r="BF31" s="37"/>
-      <c r="BG31" s="37"/>
-      <c r="BH31" s="37"/>
-      <c r="BI31" s="37"/>
-      <c r="BJ31" s="37"/>
-      <c r="BK31" s="37"/>
-      <c r="BL31" s="37"/>
-      <c r="BM31" s="37"/>
-      <c r="BN31" s="37"/>
-      <c r="BO31" s="37"/>
-      <c r="BP31" s="37"/>
+      <c r="AW31" s="94"/>
+      <c r="AX31" s="31"/>
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+      <c r="BA31" s="31"/>
+      <c r="BB31" s="31"/>
+      <c r="BC31" s="31"/>
+      <c r="BD31" s="31"/>
+      <c r="BE31" s="31"/>
+      <c r="BF31" s="31"/>
+      <c r="BG31" s="31"/>
+      <c r="BH31" s="31"/>
+      <c r="BI31" s="31"/>
+      <c r="BJ31" s="31"/>
+      <c r="BK31" s="31"/>
+      <c r="BL31" s="31"/>
+      <c r="BM31" s="31"/>
+      <c r="BN31" s="31"/>
+      <c r="BO31" s="31"/>
+      <c r="BP31" s="31"/>
     </row>
-    <row r="32" spans="1:68" s="75" customFormat="1" ht="409.6">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:68" s="69" customFormat="1" ht="409.6">
+      <c r="A32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="30" t="s">
         <v>1805</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="52" t="s">
         <v>764</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="58" t="s">
+      <c r="E32" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="52" t="s">
         <v>765</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="52" t="s">
         <v>767</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="66">
         <v>108</v>
       </c>
-      <c r="I32" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="49" t="s">
+      <c r="I32" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="K32" s="49" t="s">
+      <c r="K32" s="43" t="s">
         <v>766</v>
       </c>
-      <c r="L32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="O32" s="49" t="s">
+      <c r="L32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49" t="s">
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43" t="s">
         <v>769</v>
       </c>
-      <c r="R32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T32" s="49" t="s">
+      <c r="R32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="S32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="T32" s="43" t="s">
         <v>770</v>
       </c>
-      <c r="U32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="X32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y32" s="49" t="s">
+      <c r="U32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="V32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="W32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="X32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="Z32" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA32" s="50" t="s">
+      <c r="Z32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA32" s="44" t="s">
         <v>772</v>
       </c>
-      <c r="AB32" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC32" s="50" t="s">
+      <c r="AB32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC32" s="44" t="s">
         <v>773</v>
       </c>
-      <c r="AD32" s="50" t="s">
+      <c r="AD32" s="44" t="s">
         <v>774</v>
       </c>
-      <c r="AE32" s="50" t="s">
+      <c r="AE32" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="AF32" s="50" t="s">
+      <c r="AF32" s="44" t="s">
         <v>775</v>
       </c>
-      <c r="AG32" s="50" t="s">
+      <c r="AG32" s="44" t="s">
         <v>776</v>
       </c>
-      <c r="AH32" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI32" s="50" t="s">
+      <c r="AH32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI32" s="44" t="s">
         <v>777</v>
       </c>
-      <c r="AJ32" s="50" t="s">
+      <c r="AJ32" s="44" t="s">
         <v>778</v>
       </c>
-      <c r="AK32" s="50" t="s">
+      <c r="AK32" s="44" t="s">
         <v>779</v>
       </c>
-      <c r="AL32" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM32" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN32" s="73" t="s">
+      <c r="AL32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM32" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN32" s="67" t="s">
         <v>1728</v>
       </c>
-      <c r="AO32" s="73" t="s">
+      <c r="AO32" s="67" t="s">
         <v>1723</v>
       </c>
-      <c r="AP32" s="73" t="s">
+      <c r="AP32" s="67" t="s">
         <v>1728</v>
       </c>
-      <c r="AQ32" s="73" t="s">
+      <c r="AQ32" s="67" t="s">
         <v>1667</v>
       </c>
-      <c r="AR32" s="73" t="s">
+      <c r="AR32" s="67" t="s">
         <v>1508</v>
       </c>
-      <c r="AS32" s="73">
+      <c r="AS32" s="67">
         <v>8</v>
       </c>
-      <c r="AT32" s="73" t="s">
+      <c r="AT32" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="AU32" s="73"/>
+      <c r="AU32" s="67"/>
       <c r="AV32" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW32" s="100" t="s">
+      <c r="AW32" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX32" s="74"/>
-      <c r="AY32" s="74"/>
-      <c r="AZ32" s="74"/>
-      <c r="BA32" s="74"/>
-      <c r="BB32" s="74"/>
-      <c r="BC32" s="74"/>
-      <c r="BD32" s="74"/>
-      <c r="BE32" s="74"/>
-      <c r="BF32" s="74"/>
-      <c r="BG32" s="74"/>
-      <c r="BH32" s="74"/>
-      <c r="BI32" s="74"/>
-      <c r="BJ32" s="74"/>
-      <c r="BK32" s="74"/>
-      <c r="BL32" s="74"/>
-      <c r="BM32" s="74"/>
-      <c r="BN32" s="74"/>
-      <c r="BO32" s="74"/>
-      <c r="BP32" s="74"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="68"/>
+      <c r="BG32" s="68"/>
+      <c r="BH32" s="68"/>
+      <c r="BI32" s="68"/>
+      <c r="BJ32" s="68"/>
+      <c r="BK32" s="68"/>
+      <c r="BL32" s="68"/>
+      <c r="BM32" s="68"/>
+      <c r="BN32" s="68"/>
+      <c r="BO32" s="68"/>
+      <c r="BP32" s="68"/>
     </row>
     <row r="33" spans="1:68" s="4" customFormat="1" ht="204">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="30" t="s">
         <v>1806</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -14428,39 +14428,39 @@
       <c r="AS33" s="21">
         <v>5</v>
       </c>
-      <c r="AT33" s="73" t="s">
+      <c r="AT33" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="AU33" s="73"/>
+      <c r="AU33" s="67"/>
       <c r="AV33" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW33" s="100"/>
-      <c r="AX33" s="37"/>
-      <c r="AY33" s="37"/>
-      <c r="AZ33" s="37"/>
-      <c r="BA33" s="37"/>
-      <c r="BB33" s="37"/>
-      <c r="BC33" s="37"/>
-      <c r="BD33" s="37"/>
-      <c r="BE33" s="37"/>
-      <c r="BF33" s="37"/>
-      <c r="BG33" s="37"/>
-      <c r="BH33" s="37"/>
-      <c r="BI33" s="37"/>
-      <c r="BJ33" s="37"/>
-      <c r="BK33" s="37"/>
-      <c r="BL33" s="37"/>
-      <c r="BM33" s="37"/>
-      <c r="BN33" s="37"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="37"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="31"/>
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="31"/>
+      <c r="BM33" s="31"/>
+      <c r="BN33" s="31"/>
+      <c r="BO33" s="31"/>
+      <c r="BP33" s="31"/>
     </row>
     <row r="34" spans="1:68" s="3" customFormat="1" ht="136">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="30" t="s">
         <v>1807</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -14569,7 +14569,7 @@
       <c r="AL34" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="AM34" s="58" t="s">
+      <c r="AM34" s="52" t="s">
         <v>822</v>
       </c>
       <c r="AN34" s="21" t="s">
@@ -14599,31 +14599,31 @@
       <c r="AV34" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW34" s="100" t="s">
+      <c r="AW34" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="37"/>
-      <c r="BL34" s="37"/>
-      <c r="BM34" s="37"/>
-      <c r="BN34" s="37"/>
-      <c r="BO34" s="37"/>
-      <c r="BP34" s="37"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31"/>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31"/>
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31"/>
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
     </row>
     <row r="35" spans="1:68" s="4" customFormat="1" ht="221">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -14765,34 +14765,34 @@
       <c r="AV35" s="21" t="s">
         <v>1866</v>
       </c>
-      <c r="AW35" s="100" t="s">
+      <c r="AW35" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="37"/>
-      <c r="BF35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BH35" s="37"/>
-      <c r="BI35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BK35" s="37"/>
-      <c r="BL35" s="37"/>
-      <c r="BM35" s="37"/>
-      <c r="BN35" s="37"/>
-      <c r="BO35" s="37"/>
-      <c r="BP35" s="37"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="31"/>
+      <c r="BJ35" s="31"/>
+      <c r="BK35" s="31"/>
+      <c r="BL35" s="31"/>
+      <c r="BM35" s="31"/>
+      <c r="BN35" s="31"/>
+      <c r="BO35" s="31"/>
+      <c r="BP35" s="31"/>
     </row>
     <row r="36" spans="1:68" s="3" customFormat="1" ht="340">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="30" t="s">
         <v>1809</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -14819,7 +14819,7 @@
       <c r="J36" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K36" s="49" t="s">
+      <c r="K36" s="43" t="s">
         <v>852</v>
       </c>
       <c r="L36" s="26" t="s">
@@ -14850,7 +14850,7 @@
       <c r="U36" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="V36" s="56" t="s">
+      <c r="V36" s="50" t="s">
         <v>71</v>
       </c>
       <c r="W36" s="26" t="s">
@@ -14929,34 +14929,34 @@
       <c r="AV36" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW36" s="100" t="s">
+      <c r="AW36" s="94" t="s">
         <v>1867</v>
       </c>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="37"/>
-      <c r="BD36" s="37"/>
-      <c r="BE36" s="37"/>
-      <c r="BF36" s="37"/>
-      <c r="BG36" s="37"/>
-      <c r="BH36" s="37"/>
-      <c r="BI36" s="37"/>
-      <c r="BJ36" s="37"/>
-      <c r="BK36" s="37"/>
-      <c r="BL36" s="37"/>
-      <c r="BM36" s="37"/>
-      <c r="BN36" s="37"/>
-      <c r="BO36" s="37"/>
-      <c r="BP36" s="37"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="31"/>
+      <c r="AZ36" s="31"/>
+      <c r="BA36" s="31"/>
+      <c r="BB36" s="31"/>
+      <c r="BC36" s="31"/>
+      <c r="BD36" s="31"/>
+      <c r="BE36" s="31"/>
+      <c r="BF36" s="31"/>
+      <c r="BG36" s="31"/>
+      <c r="BH36" s="31"/>
+      <c r="BI36" s="31"/>
+      <c r="BJ36" s="31"/>
+      <c r="BK36" s="31"/>
+      <c r="BL36" s="31"/>
+      <c r="BM36" s="31"/>
+      <c r="BN36" s="31"/>
+      <c r="BO36" s="31"/>
+      <c r="BP36" s="31"/>
     </row>
     <row r="37" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="30" t="s">
         <v>1810</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -15005,7 +15005,7 @@
       <c r="R37" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="S37" s="43" t="s">
+      <c r="S37" s="37" t="s">
         <v>875</v>
       </c>
       <c r="T37" s="26" t="s">
@@ -15056,7 +15056,7 @@
       <c r="AI37" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="AJ37" s="44" t="s">
+      <c r="AJ37" s="38" t="s">
         <v>888</v>
       </c>
       <c r="AK37" s="2" t="s">
@@ -15093,32 +15093,32 @@
       <c r="AV37" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW37" s="100"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BE37" s="37"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BH37" s="37"/>
-      <c r="BI37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BK37" s="37"/>
-      <c r="BL37" s="37"/>
-      <c r="BM37" s="37"/>
-      <c r="BN37" s="37"/>
-      <c r="BO37" s="37"/>
-      <c r="BP37" s="37"/>
+      <c r="AW37" s="94"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+      <c r="BK37" s="31"/>
+      <c r="BL37" s="31"/>
+      <c r="BM37" s="31"/>
+      <c r="BN37" s="31"/>
+      <c r="BO37" s="31"/>
+      <c r="BP37" s="31"/>
     </row>
     <row r="38" spans="1:68" s="3" customFormat="1" ht="221">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="30" t="s">
         <v>1811</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -15139,7 +15139,7 @@
       <c r="H38" s="13">
         <v>108</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="42" t="s">
         <v>890</v>
       </c>
       <c r="J38" s="26" t="s">
@@ -15257,34 +15257,34 @@
       <c r="AV38" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW38" s="100" t="s">
+      <c r="AW38" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX38" s="37"/>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BB38" s="37"/>
-      <c r="BC38" s="37"/>
-      <c r="BD38" s="37"/>
-      <c r="BE38" s="37"/>
-      <c r="BF38" s="37"/>
-      <c r="BG38" s="37"/>
-      <c r="BH38" s="37"/>
-      <c r="BI38" s="37"/>
-      <c r="BJ38" s="37"/>
-      <c r="BK38" s="37"/>
-      <c r="BL38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BN38" s="37"/>
-      <c r="BO38" s="37"/>
-      <c r="BP38" s="37"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+      <c r="BM38" s="31"/>
+      <c r="BN38" s="31"/>
+      <c r="BO38" s="31"/>
+      <c r="BP38" s="31"/>
     </row>
     <row r="39" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="30" t="s">
         <v>1812</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -15421,34 +15421,34 @@
       <c r="AV39" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW39" s="100" t="s">
+      <c r="AW39" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX39" s="37"/>
-      <c r="AY39" s="37"/>
-      <c r="AZ39" s="37"/>
-      <c r="BA39" s="37"/>
-      <c r="BB39" s="37"/>
-      <c r="BC39" s="37"/>
-      <c r="BD39" s="37"/>
-      <c r="BE39" s="37"/>
-      <c r="BF39" s="37"/>
-      <c r="BG39" s="37"/>
-      <c r="BH39" s="37"/>
-      <c r="BI39" s="37"/>
-      <c r="BJ39" s="37"/>
-      <c r="BK39" s="37"/>
-      <c r="BL39" s="37"/>
-      <c r="BM39" s="37"/>
-      <c r="BN39" s="37"/>
-      <c r="BO39" s="37"/>
-      <c r="BP39" s="37"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="31"/>
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="31"/>
+      <c r="BG39" s="31"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="31"/>
+      <c r="BM39" s="31"/>
+      <c r="BN39" s="31"/>
+      <c r="BO39" s="31"/>
+      <c r="BP39" s="31"/>
     </row>
     <row r="40" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="30" t="s">
         <v>1813</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -15585,34 +15585,34 @@
       <c r="AV40" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW40" s="100" t="s">
+      <c r="AW40" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX40" s="37"/>
-      <c r="AY40" s="37"/>
-      <c r="AZ40" s="37"/>
-      <c r="BA40" s="37"/>
-      <c r="BB40" s="37"/>
-      <c r="BC40" s="37"/>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
-      <c r="BI40" s="37"/>
-      <c r="BJ40" s="37"/>
-      <c r="BK40" s="37"/>
-      <c r="BL40" s="37"/>
-      <c r="BM40" s="37"/>
-      <c r="BN40" s="37"/>
-      <c r="BO40" s="37"/>
-      <c r="BP40" s="37"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+      <c r="BP40" s="31"/>
     </row>
     <row r="41" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="30" t="s">
         <v>1814</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -15645,7 +15645,7 @@
       <c r="L41" s="26" t="s">
         <v>955</v>
       </c>
-      <c r="M41" s="41" t="s">
+      <c r="M41" s="35" t="s">
         <v>956</v>
       </c>
       <c r="N41" s="26" t="s">
@@ -15749,34 +15749,34 @@
       <c r="AV41" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW41" s="100" t="s">
+      <c r="AW41" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX41" s="37"/>
-      <c r="AY41" s="37"/>
-      <c r="AZ41" s="37"/>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="37"/>
-      <c r="BC41" s="37"/>
-      <c r="BD41" s="37"/>
-      <c r="BE41" s="37"/>
-      <c r="BF41" s="37"/>
-      <c r="BG41" s="37"/>
-      <c r="BH41" s="37"/>
-      <c r="BI41" s="37"/>
-      <c r="BJ41" s="37"/>
-      <c r="BK41" s="37"/>
-      <c r="BL41" s="37"/>
-      <c r="BM41" s="37"/>
-      <c r="BN41" s="37"/>
-      <c r="BO41" s="37"/>
-      <c r="BP41" s="37"/>
+      <c r="AX41" s="31"/>
+      <c r="AY41" s="31"/>
+      <c r="AZ41" s="31"/>
+      <c r="BA41" s="31"/>
+      <c r="BB41" s="31"/>
+      <c r="BC41" s="31"/>
+      <c r="BD41" s="31"/>
+      <c r="BE41" s="31"/>
+      <c r="BF41" s="31"/>
+      <c r="BG41" s="31"/>
+      <c r="BH41" s="31"/>
+      <c r="BI41" s="31"/>
+      <c r="BJ41" s="31"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="31"/>
+      <c r="BN41" s="31"/>
+      <c r="BO41" s="31"/>
+      <c r="BP41" s="31"/>
     </row>
-    <row r="42" spans="1:68" s="76" customFormat="1" ht="372">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:68" s="70" customFormat="1" ht="372">
+      <c r="A42" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="30" t="s">
         <v>1815</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -15915,34 +15915,34 @@
       <c r="AV42" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW42" s="100" t="s">
+      <c r="AW42" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX42" s="37"/>
-      <c r="AY42" s="37"/>
-      <c r="AZ42" s="37"/>
-      <c r="BA42" s="37"/>
-      <c r="BB42" s="37"/>
-      <c r="BC42" s="37"/>
-      <c r="BD42" s="37"/>
-      <c r="BE42" s="37"/>
-      <c r="BF42" s="37"/>
-      <c r="BG42" s="37"/>
-      <c r="BH42" s="37"/>
-      <c r="BI42" s="37"/>
-      <c r="BJ42" s="37"/>
-      <c r="BK42" s="37"/>
-      <c r="BL42" s="37"/>
-      <c r="BM42" s="37"/>
-      <c r="BN42" s="37"/>
-      <c r="BO42" s="37"/>
-      <c r="BP42" s="37"/>
+      <c r="AX42" s="31"/>
+      <c r="AY42" s="31"/>
+      <c r="AZ42" s="31"/>
+      <c r="BA42" s="31"/>
+      <c r="BB42" s="31"/>
+      <c r="BC42" s="31"/>
+      <c r="BD42" s="31"/>
+      <c r="BE42" s="31"/>
+      <c r="BF42" s="31"/>
+      <c r="BG42" s="31"/>
+      <c r="BH42" s="31"/>
+      <c r="BI42" s="31"/>
+      <c r="BJ42" s="31"/>
+      <c r="BK42" s="31"/>
+      <c r="BL42" s="31"/>
+      <c r="BM42" s="31"/>
+      <c r="BN42" s="31"/>
+      <c r="BO42" s="31"/>
+      <c r="BP42" s="31"/>
     </row>
     <row r="43" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="30" t="s">
         <v>1816</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -16081,34 +16081,34 @@
       <c r="AV43" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW43" s="100" t="s">
+      <c r="AW43" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX43" s="37"/>
-      <c r="AY43" s="37"/>
-      <c r="AZ43" s="37"/>
-      <c r="BA43" s="37"/>
-      <c r="BB43" s="37"/>
-      <c r="BC43" s="37"/>
-      <c r="BD43" s="37"/>
-      <c r="BE43" s="37"/>
-      <c r="BF43" s="37"/>
-      <c r="BG43" s="37"/>
-      <c r="BH43" s="37"/>
-      <c r="BI43" s="37"/>
-      <c r="BJ43" s="37"/>
-      <c r="BK43" s="37"/>
-      <c r="BL43" s="37"/>
-      <c r="BM43" s="37"/>
-      <c r="BN43" s="37"/>
-      <c r="BO43" s="37"/>
-      <c r="BP43" s="37"/>
+      <c r="AX43" s="31"/>
+      <c r="AY43" s="31"/>
+      <c r="AZ43" s="31"/>
+      <c r="BA43" s="31"/>
+      <c r="BB43" s="31"/>
+      <c r="BC43" s="31"/>
+      <c r="BD43" s="31"/>
+      <c r="BE43" s="31"/>
+      <c r="BF43" s="31"/>
+      <c r="BG43" s="31"/>
+      <c r="BH43" s="31"/>
+      <c r="BI43" s="31"/>
+      <c r="BJ43" s="31"/>
+      <c r="BK43" s="31"/>
+      <c r="BL43" s="31"/>
+      <c r="BM43" s="31"/>
+      <c r="BN43" s="31"/>
+      <c r="BO43" s="31"/>
+      <c r="BP43" s="31"/>
     </row>
     <row r="44" spans="1:68" s="3" customFormat="1" ht="356">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="30" t="s">
         <v>1817</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -16247,34 +16247,34 @@
       <c r="AV44" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW44" s="100" t="s">
+      <c r="AW44" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX44" s="37"/>
-      <c r="AY44" s="37"/>
-      <c r="AZ44" s="37"/>
-      <c r="BA44" s="37"/>
-      <c r="BB44" s="37"/>
-      <c r="BC44" s="37"/>
-      <c r="BD44" s="37"/>
-      <c r="BE44" s="37"/>
-      <c r="BF44" s="37"/>
-      <c r="BG44" s="37"/>
-      <c r="BH44" s="37"/>
-      <c r="BI44" s="37"/>
-      <c r="BJ44" s="37"/>
-      <c r="BK44" s="37"/>
-      <c r="BL44" s="37"/>
-      <c r="BM44" s="37"/>
-      <c r="BN44" s="37"/>
-      <c r="BO44" s="37"/>
-      <c r="BP44" s="37"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="31"/>
+      <c r="BC44" s="31"/>
+      <c r="BD44" s="31"/>
+      <c r="BE44" s="31"/>
+      <c r="BF44" s="31"/>
+      <c r="BG44" s="31"/>
+      <c r="BH44" s="31"/>
+      <c r="BI44" s="31"/>
+      <c r="BJ44" s="31"/>
+      <c r="BK44" s="31"/>
+      <c r="BL44" s="31"/>
+      <c r="BM44" s="31"/>
+      <c r="BN44" s="31"/>
+      <c r="BO44" s="31"/>
+      <c r="BP44" s="31"/>
     </row>
     <row r="45" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="30" t="s">
         <v>1818</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -16411,34 +16411,34 @@
       <c r="AV45" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW45" s="100" t="s">
+      <c r="AW45" s="94" t="s">
         <v>1868</v>
       </c>
-      <c r="AX45" s="37"/>
-      <c r="AY45" s="37"/>
-      <c r="AZ45" s="37"/>
-      <c r="BA45" s="37"/>
-      <c r="BB45" s="37"/>
-      <c r="BC45" s="37"/>
-      <c r="BD45" s="37"/>
-      <c r="BE45" s="37"/>
-      <c r="BF45" s="37"/>
-      <c r="BG45" s="37"/>
-      <c r="BH45" s="37"/>
-      <c r="BI45" s="37"/>
-      <c r="BJ45" s="37"/>
-      <c r="BK45" s="37"/>
-      <c r="BL45" s="37"/>
-      <c r="BM45" s="37"/>
-      <c r="BN45" s="37"/>
-      <c r="BO45" s="37"/>
-      <c r="BP45" s="37"/>
+      <c r="AX45" s="31"/>
+      <c r="AY45" s="31"/>
+      <c r="AZ45" s="31"/>
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="31"/>
+      <c r="BC45" s="31"/>
+      <c r="BD45" s="31"/>
+      <c r="BE45" s="31"/>
+      <c r="BF45" s="31"/>
+      <c r="BG45" s="31"/>
+      <c r="BH45" s="31"/>
+      <c r="BI45" s="31"/>
+      <c r="BJ45" s="31"/>
+      <c r="BK45" s="31"/>
+      <c r="BL45" s="31"/>
+      <c r="BM45" s="31"/>
+      <c r="BN45" s="31"/>
+      <c r="BO45" s="31"/>
+      <c r="BP45" s="31"/>
     </row>
     <row r="46" spans="1:68" s="3" customFormat="1" ht="340">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="30" t="s">
         <v>1819</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -16577,34 +16577,34 @@
       <c r="AV46" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW46" s="100" t="s">
+      <c r="AW46" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX46" s="37"/>
-      <c r="AY46" s="37"/>
-      <c r="AZ46" s="37"/>
-      <c r="BA46" s="37"/>
-      <c r="BB46" s="37"/>
-      <c r="BC46" s="37"/>
-      <c r="BD46" s="37"/>
-      <c r="BE46" s="37"/>
-      <c r="BF46" s="37"/>
-      <c r="BG46" s="37"/>
-      <c r="BH46" s="37"/>
-      <c r="BI46" s="37"/>
-      <c r="BJ46" s="37"/>
-      <c r="BK46" s="37"/>
-      <c r="BL46" s="37"/>
-      <c r="BM46" s="37"/>
-      <c r="BN46" s="37"/>
-      <c r="BO46" s="37"/>
-      <c r="BP46" s="37"/>
+      <c r="AX46" s="31"/>
+      <c r="AY46" s="31"/>
+      <c r="AZ46" s="31"/>
+      <c r="BA46" s="31"/>
+      <c r="BB46" s="31"/>
+      <c r="BC46" s="31"/>
+      <c r="BD46" s="31"/>
+      <c r="BE46" s="31"/>
+      <c r="BF46" s="31"/>
+      <c r="BG46" s="31"/>
+      <c r="BH46" s="31"/>
+      <c r="BI46" s="31"/>
+      <c r="BJ46" s="31"/>
+      <c r="BK46" s="31"/>
+      <c r="BL46" s="31"/>
+      <c r="BM46" s="31"/>
+      <c r="BN46" s="31"/>
+      <c r="BO46" s="31"/>
+      <c r="BP46" s="31"/>
     </row>
     <row r="47" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="30" t="s">
         <v>1820</v>
       </c>
       <c r="C47" s="11"/>
@@ -16739,32 +16739,32 @@
       <c r="AV47" s="21" t="s">
         <v>1677</v>
       </c>
-      <c r="AW47" s="100"/>
-      <c r="AX47" s="37"/>
-      <c r="AY47" s="37"/>
-      <c r="AZ47" s="37"/>
-      <c r="BA47" s="37"/>
-      <c r="BB47" s="37"/>
-      <c r="BC47" s="37"/>
-      <c r="BD47" s="37"/>
-      <c r="BE47" s="37"/>
-      <c r="BF47" s="37"/>
-      <c r="BG47" s="37"/>
-      <c r="BH47" s="37"/>
-      <c r="BI47" s="37"/>
-      <c r="BJ47" s="37"/>
-      <c r="BK47" s="37"/>
-      <c r="BL47" s="37"/>
-      <c r="BM47" s="37"/>
-      <c r="BN47" s="37"/>
-      <c r="BO47" s="37"/>
-      <c r="BP47" s="37"/>
+      <c r="AW47" s="94"/>
+      <c r="AX47" s="31"/>
+      <c r="AY47" s="31"/>
+      <c r="AZ47" s="31"/>
+      <c r="BA47" s="31"/>
+      <c r="BB47" s="31"/>
+      <c r="BC47" s="31"/>
+      <c r="BD47" s="31"/>
+      <c r="BE47" s="31"/>
+      <c r="BF47" s="31"/>
+      <c r="BG47" s="31"/>
+      <c r="BH47" s="31"/>
+      <c r="BI47" s="31"/>
+      <c r="BJ47" s="31"/>
+      <c r="BK47" s="31"/>
+      <c r="BL47" s="31"/>
+      <c r="BM47" s="31"/>
+      <c r="BN47" s="31"/>
+      <c r="BO47" s="31"/>
+      <c r="BP47" s="31"/>
     </row>
     <row r="48" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="30" t="s">
         <v>1821</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -16903,32 +16903,32 @@
       <c r="AV48" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AW48" s="100"/>
-      <c r="AX48" s="37"/>
-      <c r="AY48" s="37"/>
-      <c r="AZ48" s="37"/>
-      <c r="BA48" s="37"/>
-      <c r="BB48" s="37"/>
-      <c r="BC48" s="37"/>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="BI48" s="37"/>
-      <c r="BJ48" s="37"/>
-      <c r="BK48" s="37"/>
-      <c r="BL48" s="37"/>
-      <c r="BM48" s="37"/>
-      <c r="BN48" s="37"/>
-      <c r="BO48" s="37"/>
-      <c r="BP48" s="37"/>
+      <c r="AW48" s="94"/>
+      <c r="AX48" s="31"/>
+      <c r="AY48" s="31"/>
+      <c r="AZ48" s="31"/>
+      <c r="BA48" s="31"/>
+      <c r="BB48" s="31"/>
+      <c r="BC48" s="31"/>
+      <c r="BD48" s="31"/>
+      <c r="BE48" s="31"/>
+      <c r="BF48" s="31"/>
+      <c r="BG48" s="31"/>
+      <c r="BH48" s="31"/>
+      <c r="BI48" s="31"/>
+      <c r="BJ48" s="31"/>
+      <c r="BK48" s="31"/>
+      <c r="BL48" s="31"/>
+      <c r="BM48" s="31"/>
+      <c r="BN48" s="31"/>
+      <c r="BO48" s="31"/>
+      <c r="BP48" s="31"/>
     </row>
     <row r="49" spans="1:68" s="4" customFormat="1" ht="323">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="30" t="s">
         <v>1822</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -17037,7 +17037,7 @@
       <c r="AL49" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="AM49" s="58"/>
+      <c r="AM49" s="52"/>
       <c r="AN49" s="21" t="s">
         <v>1718</v>
       </c>
@@ -17065,34 +17065,34 @@
       <c r="AV49" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW49" s="100" t="s">
+      <c r="AW49" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX49" s="37"/>
-      <c r="AY49" s="37"/>
-      <c r="AZ49" s="37"/>
-      <c r="BA49" s="37"/>
-      <c r="BB49" s="37"/>
-      <c r="BC49" s="37"/>
-      <c r="BD49" s="37"/>
-      <c r="BE49" s="37"/>
-      <c r="BF49" s="37"/>
-      <c r="BG49" s="37"/>
-      <c r="BH49" s="37"/>
-      <c r="BI49" s="37"/>
-      <c r="BJ49" s="37"/>
-      <c r="BK49" s="37"/>
-      <c r="BL49" s="37"/>
-      <c r="BM49" s="37"/>
-      <c r="BN49" s="37"/>
-      <c r="BO49" s="37"/>
-      <c r="BP49" s="37"/>
+      <c r="AX49" s="31"/>
+      <c r="AY49" s="31"/>
+      <c r="AZ49" s="31"/>
+      <c r="BA49" s="31"/>
+      <c r="BB49" s="31"/>
+      <c r="BC49" s="31"/>
+      <c r="BD49" s="31"/>
+      <c r="BE49" s="31"/>
+      <c r="BF49" s="31"/>
+      <c r="BG49" s="31"/>
+      <c r="BH49" s="31"/>
+      <c r="BI49" s="31"/>
+      <c r="BJ49" s="31"/>
+      <c r="BK49" s="31"/>
+      <c r="BL49" s="31"/>
+      <c r="BM49" s="31"/>
+      <c r="BN49" s="31"/>
+      <c r="BO49" s="31"/>
+      <c r="BP49" s="31"/>
     </row>
     <row r="50" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="30" t="s">
         <v>1823</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -17101,7 +17101,7 @@
       <c r="D50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="71" t="s">
         <v>1136</v>
       </c>
       <c r="F50" s="11" t="s">
@@ -17229,34 +17229,34 @@
       <c r="AV50" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW50" s="100" t="s">
+      <c r="AW50" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX50" s="37"/>
-      <c r="AY50" s="37"/>
-      <c r="AZ50" s="37"/>
-      <c r="BA50" s="37"/>
-      <c r="BB50" s="37"/>
-      <c r="BC50" s="37"/>
-      <c r="BD50" s="37"/>
-      <c r="BE50" s="37"/>
-      <c r="BF50" s="37"/>
-      <c r="BG50" s="37"/>
-      <c r="BH50" s="37"/>
-      <c r="BI50" s="37"/>
-      <c r="BJ50" s="37"/>
-      <c r="BK50" s="37"/>
-      <c r="BL50" s="37"/>
-      <c r="BM50" s="37"/>
-      <c r="BN50" s="37"/>
-      <c r="BO50" s="37"/>
-      <c r="BP50" s="37"/>
+      <c r="AX50" s="31"/>
+      <c r="AY50" s="31"/>
+      <c r="AZ50" s="31"/>
+      <c r="BA50" s="31"/>
+      <c r="BB50" s="31"/>
+      <c r="BC50" s="31"/>
+      <c r="BD50" s="31"/>
+      <c r="BE50" s="31"/>
+      <c r="BF50" s="31"/>
+      <c r="BG50" s="31"/>
+      <c r="BH50" s="31"/>
+      <c r="BI50" s="31"/>
+      <c r="BJ50" s="31"/>
+      <c r="BK50" s="31"/>
+      <c r="BL50" s="31"/>
+      <c r="BM50" s="31"/>
+      <c r="BN50" s="31"/>
+      <c r="BO50" s="31"/>
+      <c r="BP50" s="31"/>
     </row>
     <row r="51" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="30" t="s">
         <v>1824</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -17393,34 +17393,34 @@
       <c r="AV51" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW51" s="100" t="s">
+      <c r="AW51" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX51" s="37"/>
-      <c r="AY51" s="37"/>
-      <c r="AZ51" s="37"/>
-      <c r="BA51" s="37"/>
-      <c r="BB51" s="37"/>
-      <c r="BC51" s="37"/>
-      <c r="BD51" s="37"/>
-      <c r="BE51" s="37"/>
-      <c r="BF51" s="37"/>
-      <c r="BG51" s="37"/>
-      <c r="BH51" s="37"/>
-      <c r="BI51" s="37"/>
-      <c r="BJ51" s="37"/>
-      <c r="BK51" s="37"/>
-      <c r="BL51" s="37"/>
-      <c r="BM51" s="37"/>
-      <c r="BN51" s="37"/>
-      <c r="BO51" s="37"/>
-      <c r="BP51" s="37"/>
+      <c r="AX51" s="31"/>
+      <c r="AY51" s="31"/>
+      <c r="AZ51" s="31"/>
+      <c r="BA51" s="31"/>
+      <c r="BB51" s="31"/>
+      <c r="BC51" s="31"/>
+      <c r="BD51" s="31"/>
+      <c r="BE51" s="31"/>
+      <c r="BF51" s="31"/>
+      <c r="BG51" s="31"/>
+      <c r="BH51" s="31"/>
+      <c r="BI51" s="31"/>
+      <c r="BJ51" s="31"/>
+      <c r="BK51" s="31"/>
+      <c r="BL51" s="31"/>
+      <c r="BM51" s="31"/>
+      <c r="BN51" s="31"/>
+      <c r="BO51" s="31"/>
+      <c r="BP51" s="31"/>
     </row>
     <row r="52" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="30" t="s">
         <v>1825</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -17557,32 +17557,32 @@
       <c r="AV52" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AW52" s="100"/>
-      <c r="AX52" s="37"/>
-      <c r="AY52" s="37"/>
-      <c r="AZ52" s="37"/>
-      <c r="BA52" s="37"/>
-      <c r="BB52" s="37"/>
-      <c r="BC52" s="37"/>
-      <c r="BD52" s="37"/>
-      <c r="BE52" s="37"/>
-      <c r="BF52" s="37"/>
-      <c r="BG52" s="37"/>
-      <c r="BH52" s="37"/>
-      <c r="BI52" s="37"/>
-      <c r="BJ52" s="37"/>
-      <c r="BK52" s="37"/>
-      <c r="BL52" s="37"/>
-      <c r="BM52" s="37"/>
-      <c r="BN52" s="37"/>
-      <c r="BO52" s="37"/>
-      <c r="BP52" s="37"/>
+      <c r="AW52" s="94"/>
+      <c r="AX52" s="31"/>
+      <c r="AY52" s="31"/>
+      <c r="AZ52" s="31"/>
+      <c r="BA52" s="31"/>
+      <c r="BB52" s="31"/>
+      <c r="BC52" s="31"/>
+      <c r="BD52" s="31"/>
+      <c r="BE52" s="31"/>
+      <c r="BF52" s="31"/>
+      <c r="BG52" s="31"/>
+      <c r="BH52" s="31"/>
+      <c r="BI52" s="31"/>
+      <c r="BJ52" s="31"/>
+      <c r="BK52" s="31"/>
+      <c r="BL52" s="31"/>
+      <c r="BM52" s="31"/>
+      <c r="BN52" s="31"/>
+      <c r="BO52" s="31"/>
+      <c r="BP52" s="31"/>
     </row>
     <row r="53" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="30" t="s">
         <v>1826</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -17721,34 +17721,34 @@
       <c r="AV53" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AW53" s="100" t="s">
+      <c r="AW53" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX53" s="37"/>
-      <c r="AY53" s="37"/>
-      <c r="AZ53" s="37"/>
-      <c r="BA53" s="37"/>
-      <c r="BB53" s="37"/>
-      <c r="BC53" s="37"/>
-      <c r="BD53" s="37"/>
-      <c r="BE53" s="37"/>
-      <c r="BF53" s="37"/>
-      <c r="BG53" s="37"/>
-      <c r="BH53" s="37"/>
-      <c r="BI53" s="37"/>
-      <c r="BJ53" s="37"/>
-      <c r="BK53" s="37"/>
-      <c r="BL53" s="37"/>
-      <c r="BM53" s="37"/>
-      <c r="BN53" s="37"/>
-      <c r="BO53" s="37"/>
-      <c r="BP53" s="37"/>
+      <c r="AX53" s="31"/>
+      <c r="AY53" s="31"/>
+      <c r="AZ53" s="31"/>
+      <c r="BA53" s="31"/>
+      <c r="BB53" s="31"/>
+      <c r="BC53" s="31"/>
+      <c r="BD53" s="31"/>
+      <c r="BE53" s="31"/>
+      <c r="BF53" s="31"/>
+      <c r="BG53" s="31"/>
+      <c r="BH53" s="31"/>
+      <c r="BI53" s="31"/>
+      <c r="BJ53" s="31"/>
+      <c r="BK53" s="31"/>
+      <c r="BL53" s="31"/>
+      <c r="BM53" s="31"/>
+      <c r="BN53" s="31"/>
+      <c r="BO53" s="31"/>
+      <c r="BP53" s="31"/>
     </row>
     <row r="54" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="30" t="s">
         <v>1827</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -17887,34 +17887,34 @@
       <c r="AV54" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW54" s="100" t="s">
+      <c r="AW54" s="94" t="s">
         <v>1869</v>
       </c>
-      <c r="AX54" s="37"/>
-      <c r="AY54" s="37"/>
-      <c r="AZ54" s="37"/>
-      <c r="BA54" s="37"/>
-      <c r="BB54" s="37"/>
-      <c r="BC54" s="37"/>
-      <c r="BD54" s="37"/>
-      <c r="BE54" s="37"/>
-      <c r="BF54" s="37"/>
-      <c r="BG54" s="37"/>
-      <c r="BH54" s="37"/>
-      <c r="BI54" s="37"/>
-      <c r="BJ54" s="37"/>
-      <c r="BK54" s="37"/>
-      <c r="BL54" s="37"/>
-      <c r="BM54" s="37"/>
-      <c r="BN54" s="37"/>
-      <c r="BO54" s="37"/>
-      <c r="BP54" s="37"/>
+      <c r="AX54" s="31"/>
+      <c r="AY54" s="31"/>
+      <c r="AZ54" s="31"/>
+      <c r="BA54" s="31"/>
+      <c r="BB54" s="31"/>
+      <c r="BC54" s="31"/>
+      <c r="BD54" s="31"/>
+      <c r="BE54" s="31"/>
+      <c r="BF54" s="31"/>
+      <c r="BG54" s="31"/>
+      <c r="BH54" s="31"/>
+      <c r="BI54" s="31"/>
+      <c r="BJ54" s="31"/>
+      <c r="BK54" s="31"/>
+      <c r="BL54" s="31"/>
+      <c r="BM54" s="31"/>
+      <c r="BN54" s="31"/>
+      <c r="BO54" s="31"/>
+      <c r="BP54" s="31"/>
     </row>
     <row r="55" spans="1:68" s="4" customFormat="1" ht="404">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="30" t="s">
         <v>1828</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -18023,7 +18023,7 @@
       <c r="AL55" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="AM55" s="58"/>
+      <c r="AM55" s="52"/>
       <c r="AN55" s="21" t="s">
         <v>1716</v>
       </c>
@@ -18051,32 +18051,32 @@
       <c r="AV55" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW55" s="100"/>
-      <c r="AX55" s="37"/>
-      <c r="AY55" s="37"/>
-      <c r="AZ55" s="37"/>
-      <c r="BA55" s="37"/>
-      <c r="BB55" s="37"/>
-      <c r="BC55" s="37"/>
-      <c r="BD55" s="37"/>
-      <c r="BE55" s="37"/>
-      <c r="BF55" s="37"/>
-      <c r="BG55" s="37"/>
-      <c r="BH55" s="37"/>
-      <c r="BI55" s="37"/>
-      <c r="BJ55" s="37"/>
-      <c r="BK55" s="37"/>
-      <c r="BL55" s="37"/>
-      <c r="BM55" s="37"/>
-      <c r="BN55" s="37"/>
-      <c r="BO55" s="37"/>
-      <c r="BP55" s="37"/>
+      <c r="AW55" s="94"/>
+      <c r="AX55" s="31"/>
+      <c r="AY55" s="31"/>
+      <c r="AZ55" s="31"/>
+      <c r="BA55" s="31"/>
+      <c r="BB55" s="31"/>
+      <c r="BC55" s="31"/>
+      <c r="BD55" s="31"/>
+      <c r="BE55" s="31"/>
+      <c r="BF55" s="31"/>
+      <c r="BG55" s="31"/>
+      <c r="BH55" s="31"/>
+      <c r="BI55" s="31"/>
+      <c r="BJ55" s="31"/>
+      <c r="BK55" s="31"/>
+      <c r="BL55" s="31"/>
+      <c r="BM55" s="31"/>
+      <c r="BN55" s="31"/>
+      <c r="BO55" s="31"/>
+      <c r="BP55" s="31"/>
     </row>
     <row r="56" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="30" t="s">
         <v>1829</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -18215,177 +18215,177 @@
       <c r="AV56" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW56" s="100" t="s">
+      <c r="AW56" s="94" t="s">
         <v>1870</v>
       </c>
-      <c r="AX56" s="37"/>
-      <c r="AY56" s="37"/>
-      <c r="AZ56" s="37"/>
-      <c r="BA56" s="37"/>
-      <c r="BB56" s="37"/>
-      <c r="BC56" s="37"/>
-      <c r="BD56" s="37"/>
-      <c r="BE56" s="37"/>
-      <c r="BF56" s="37"/>
-      <c r="BG56" s="37"/>
-      <c r="BH56" s="37"/>
-      <c r="BI56" s="37"/>
-      <c r="BJ56" s="37"/>
-      <c r="BK56" s="37"/>
-      <c r="BL56" s="37"/>
-      <c r="BM56" s="37"/>
-      <c r="BN56" s="37"/>
-      <c r="BO56" s="37"/>
-      <c r="BP56" s="37"/>
+      <c r="AX56" s="31"/>
+      <c r="AY56" s="31"/>
+      <c r="AZ56" s="31"/>
+      <c r="BA56" s="31"/>
+      <c r="BB56" s="31"/>
+      <c r="BC56" s="31"/>
+      <c r="BD56" s="31"/>
+      <c r="BE56" s="31"/>
+      <c r="BF56" s="31"/>
+      <c r="BG56" s="31"/>
+      <c r="BH56" s="31"/>
+      <c r="BI56" s="31"/>
+      <c r="BJ56" s="31"/>
+      <c r="BK56" s="31"/>
+      <c r="BL56" s="31"/>
+      <c r="BM56" s="31"/>
+      <c r="BN56" s="31"/>
+      <c r="BO56" s="31"/>
+      <c r="BP56" s="31"/>
     </row>
-    <row r="57" spans="1:68" s="96" customFormat="1" ht="255">
-      <c r="A57" s="90" t="s">
+    <row r="57" spans="1:68" s="90" customFormat="1" ht="255">
+      <c r="A57" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="85" t="s">
         <v>1830</v>
       </c>
-      <c r="C57" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="92" t="s">
+      <c r="C57" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="93" t="s">
+      <c r="E57" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="87" t="s">
         <v>1284</v>
       </c>
-      <c r="G57" s="92" t="s">
+      <c r="G57" s="86" t="s">
         <v>1286</v>
       </c>
-      <c r="H57" s="92">
+      <c r="H57" s="86">
         <v>108</v>
       </c>
-      <c r="I57" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" s="92" t="s">
+      <c r="I57" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="K57" s="92" t="s">
+      <c r="K57" s="86" t="s">
         <v>1285</v>
       </c>
-      <c r="L57" s="92" t="s">
+      <c r="L57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="M57" s="92" t="s">
+      <c r="M57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="N57" s="92" t="s">
+      <c r="N57" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="O57" s="92" t="s">
+      <c r="O57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="P57" s="92"/>
-      <c r="Q57" s="92" t="s">
+      <c r="P57" s="86"/>
+      <c r="Q57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="R57" s="92" t="s">
+      <c r="R57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="S57" s="92" t="s">
+      <c r="S57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="T57" s="92" t="s">
+      <c r="T57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="U57" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="V57" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="W57" s="92" t="s">
+      <c r="U57" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="V57" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="W57" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="X57" s="92" t="s">
+      <c r="X57" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="Y57" s="92" t="s">
+      <c r="Y57" s="86" t="s">
         <v>1288</v>
       </c>
-      <c r="Z57" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA57" s="92" t="s">
+      <c r="Z57" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA57" s="86" t="s">
         <v>1289</v>
       </c>
-      <c r="AB57" s="94" t="s">
+      <c r="AB57" s="88" t="s">
         <v>1774</v>
       </c>
-      <c r="AC57" s="92" t="s">
+      <c r="AC57" s="86" t="s">
         <v>1290</v>
       </c>
-      <c r="AD57" s="92" t="s">
+      <c r="AD57" s="86" t="s">
         <v>1291</v>
       </c>
-      <c r="AE57" s="92" t="s">
+      <c r="AE57" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="AF57" s="92" t="s">
+      <c r="AF57" s="86" t="s">
         <v>1292</v>
       </c>
-      <c r="AG57" s="92" t="s">
+      <c r="AG57" s="86" t="s">
         <v>1293</v>
       </c>
-      <c r="AH57" s="92" t="s">
+      <c r="AH57" s="86" t="s">
         <v>1294</v>
       </c>
-      <c r="AI57" s="92" t="s">
+      <c r="AI57" s="86" t="s">
         <v>1775</v>
       </c>
-      <c r="AJ57" s="92" t="s">
+      <c r="AJ57" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="AK57" s="97" t="s">
+      <c r="AK57" s="91" t="s">
         <v>1295</v>
       </c>
-      <c r="AL57" s="92"/>
-      <c r="AM57" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN57" s="92" t="s">
+      <c r="AL57" s="86"/>
+      <c r="AM57" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN57" s="86" t="s">
         <v>1671</v>
       </c>
-      <c r="AO57" s="92" t="s">
+      <c r="AO57" s="86" t="s">
         <v>1671</v>
       </c>
-      <c r="AP57" s="92" t="s">
+      <c r="AP57" s="86" t="s">
         <v>1671</v>
       </c>
-      <c r="AQ57" s="92" t="s">
+      <c r="AQ57" s="86" t="s">
         <v>1667</v>
       </c>
-      <c r="AR57" s="92" t="s">
+      <c r="AR57" s="86" t="s">
         <v>1508</v>
       </c>
-      <c r="AS57" s="92">
+      <c r="AS57" s="86">
         <v>5</v>
       </c>
-      <c r="AT57" s="92" t="s">
+      <c r="AT57" s="86" t="s">
         <v>970</v>
       </c>
-      <c r="AU57" s="92"/>
-      <c r="AV57" s="92" t="s">
+      <c r="AU57" s="86"/>
+      <c r="AV57" s="86" t="s">
         <v>1742</v>
       </c>
-      <c r="AW57" s="95" t="s">
+      <c r="AW57" s="89" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="58" spans="1:68" s="3" customFormat="1" ht="306">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="30" t="s">
         <v>1831</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -18397,7 +18397,7 @@
       <c r="E58" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="46" t="s">
         <v>1762</v>
       </c>
       <c r="G58" s="11" t="s">
@@ -18522,32 +18522,32 @@
       <c r="AV58" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW58" s="100"/>
-      <c r="AX58" s="37"/>
-      <c r="AY58" s="37"/>
-      <c r="AZ58" s="37"/>
-      <c r="BA58" s="37"/>
-      <c r="BB58" s="37"/>
-      <c r="BC58" s="37"/>
-      <c r="BD58" s="37"/>
-      <c r="BE58" s="37"/>
-      <c r="BF58" s="37"/>
-      <c r="BG58" s="37"/>
-      <c r="BH58" s="37"/>
-      <c r="BI58" s="37"/>
-      <c r="BJ58" s="37"/>
-      <c r="BK58" s="37"/>
-      <c r="BL58" s="37"/>
-      <c r="BM58" s="37"/>
-      <c r="BN58" s="37"/>
-      <c r="BO58" s="37"/>
-      <c r="BP58" s="37"/>
+      <c r="AW58" s="94"/>
+      <c r="AX58" s="31"/>
+      <c r="AY58" s="31"/>
+      <c r="AZ58" s="31"/>
+      <c r="BA58" s="31"/>
+      <c r="BB58" s="31"/>
+      <c r="BC58" s="31"/>
+      <c r="BD58" s="31"/>
+      <c r="BE58" s="31"/>
+      <c r="BF58" s="31"/>
+      <c r="BG58" s="31"/>
+      <c r="BH58" s="31"/>
+      <c r="BI58" s="31"/>
+      <c r="BJ58" s="31"/>
+      <c r="BK58" s="31"/>
+      <c r="BL58" s="31"/>
+      <c r="BM58" s="31"/>
+      <c r="BN58" s="31"/>
+      <c r="BO58" s="31"/>
+      <c r="BP58" s="31"/>
     </row>
     <row r="59" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="30" t="s">
         <v>1832</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -18556,10 +18556,10 @@
       <c r="D59" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="59" t="s">
         <v>1325</v>
       </c>
-      <c r="F59" s="52" t="s">
+      <c r="F59" s="46" t="s">
         <v>1763</v>
       </c>
       <c r="G59" s="11" t="s">
@@ -18684,34 +18684,34 @@
       <c r="AV59" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW59" s="100" t="s">
+      <c r="AW59" s="94" t="s">
         <v>1871</v>
       </c>
-      <c r="AX59" s="37"/>
-      <c r="AY59" s="37"/>
-      <c r="AZ59" s="37"/>
-      <c r="BA59" s="37"/>
-      <c r="BB59" s="37"/>
-      <c r="BC59" s="37"/>
-      <c r="BD59" s="37"/>
-      <c r="BE59" s="37"/>
-      <c r="BF59" s="37"/>
-      <c r="BG59" s="37"/>
-      <c r="BH59" s="37"/>
-      <c r="BI59" s="37"/>
-      <c r="BJ59" s="37"/>
-      <c r="BK59" s="37"/>
-      <c r="BL59" s="37"/>
-      <c r="BM59" s="37"/>
-      <c r="BN59" s="37"/>
-      <c r="BO59" s="37"/>
-      <c r="BP59" s="37"/>
+      <c r="AX59" s="31"/>
+      <c r="AY59" s="31"/>
+      <c r="AZ59" s="31"/>
+      <c r="BA59" s="31"/>
+      <c r="BB59" s="31"/>
+      <c r="BC59" s="31"/>
+      <c r="BD59" s="31"/>
+      <c r="BE59" s="31"/>
+      <c r="BF59" s="31"/>
+      <c r="BG59" s="31"/>
+      <c r="BH59" s="31"/>
+      <c r="BI59" s="31"/>
+      <c r="BJ59" s="31"/>
+      <c r="BK59" s="31"/>
+      <c r="BL59" s="31"/>
+      <c r="BM59" s="31"/>
+      <c r="BN59" s="31"/>
+      <c r="BO59" s="31"/>
+      <c r="BP59" s="31"/>
     </row>
     <row r="60" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="30" t="s">
         <v>1833</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -18723,7 +18723,7 @@
       <c r="E60" s="11" t="s">
         <v>1349</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="46" t="s">
         <v>1764</v>
       </c>
       <c r="G60" s="11" t="s">
@@ -18848,35 +18848,35 @@
       <c r="AV60" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AW60" s="100"/>
-      <c r="AX60" s="37"/>
-      <c r="AY60" s="37"/>
-      <c r="AZ60" s="37"/>
-      <c r="BA60" s="37"/>
-      <c r="BB60" s="37"/>
-      <c r="BC60" s="37"/>
-      <c r="BD60" s="37"/>
-      <c r="BE60" s="37"/>
-      <c r="BF60" s="37"/>
-      <c r="BG60" s="37"/>
-      <c r="BH60" s="37"/>
-      <c r="BI60" s="37"/>
-      <c r="BJ60" s="37"/>
-      <c r="BK60" s="37"/>
-      <c r="BL60" s="37"/>
-      <c r="BM60" s="37"/>
-      <c r="BN60" s="37"/>
-      <c r="BO60" s="37"/>
-      <c r="BP60" s="37"/>
+      <c r="AW60" s="94"/>
+      <c r="AX60" s="31"/>
+      <c r="AY60" s="31"/>
+      <c r="AZ60" s="31"/>
+      <c r="BA60" s="31"/>
+      <c r="BB60" s="31"/>
+      <c r="BC60" s="31"/>
+      <c r="BD60" s="31"/>
+      <c r="BE60" s="31"/>
+      <c r="BF60" s="31"/>
+      <c r="BG60" s="31"/>
+      <c r="BH60" s="31"/>
+      <c r="BI60" s="31"/>
+      <c r="BJ60" s="31"/>
+      <c r="BK60" s="31"/>
+      <c r="BL60" s="31"/>
+      <c r="BM60" s="31"/>
+      <c r="BN60" s="31"/>
+      <c r="BO60" s="31"/>
+      <c r="BP60" s="31"/>
     </row>
     <row r="61" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="30" t="s">
         <v>1834</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="33" t="s">
         <v>1373</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -19010,34 +19010,34 @@
       <c r="AV61" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW61" s="100" t="s">
+      <c r="AW61" s="94" t="s">
         <v>1872</v>
       </c>
-      <c r="AX61" s="37"/>
-      <c r="AY61" s="37"/>
-      <c r="AZ61" s="37"/>
-      <c r="BA61" s="37"/>
-      <c r="BB61" s="37"/>
-      <c r="BC61" s="37"/>
-      <c r="BD61" s="37"/>
-      <c r="BE61" s="37"/>
-      <c r="BF61" s="37"/>
-      <c r="BG61" s="37"/>
-      <c r="BH61" s="37"/>
-      <c r="BI61" s="37"/>
-      <c r="BJ61" s="37"/>
-      <c r="BK61" s="37"/>
-      <c r="BL61" s="37"/>
-      <c r="BM61" s="37"/>
-      <c r="BN61" s="37"/>
-      <c r="BO61" s="37"/>
-      <c r="BP61" s="37"/>
+      <c r="AX61" s="31"/>
+      <c r="AY61" s="31"/>
+      <c r="AZ61" s="31"/>
+      <c r="BA61" s="31"/>
+      <c r="BB61" s="31"/>
+      <c r="BC61" s="31"/>
+      <c r="BD61" s="31"/>
+      <c r="BE61" s="31"/>
+      <c r="BF61" s="31"/>
+      <c r="BG61" s="31"/>
+      <c r="BH61" s="31"/>
+      <c r="BI61" s="31"/>
+      <c r="BJ61" s="31"/>
+      <c r="BK61" s="31"/>
+      <c r="BL61" s="31"/>
+      <c r="BM61" s="31"/>
+      <c r="BN61" s="31"/>
+      <c r="BO61" s="31"/>
+      <c r="BP61" s="31"/>
     </row>
-    <row r="62" spans="1:68" s="78" customFormat="1" ht="409.6">
-      <c r="A62" s="35" t="s">
+    <row r="62" spans="1:68" s="72" customFormat="1" ht="409.6">
+      <c r="A62" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="30" t="s">
         <v>1835</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -19176,34 +19176,34 @@
       <c r="AV62" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW62" s="100" t="s">
+      <c r="AW62" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX62" s="37"/>
-      <c r="AY62" s="37"/>
-      <c r="AZ62" s="37"/>
-      <c r="BA62" s="37"/>
-      <c r="BB62" s="37"/>
-      <c r="BC62" s="37"/>
-      <c r="BD62" s="37"/>
-      <c r="BE62" s="37"/>
-      <c r="BF62" s="37"/>
-      <c r="BG62" s="37"/>
-      <c r="BH62" s="37"/>
-      <c r="BI62" s="37"/>
-      <c r="BJ62" s="37"/>
-      <c r="BK62" s="37"/>
-      <c r="BL62" s="37"/>
-      <c r="BM62" s="37"/>
-      <c r="BN62" s="37"/>
-      <c r="BO62" s="37"/>
-      <c r="BP62" s="37"/>
+      <c r="AX62" s="31"/>
+      <c r="AY62" s="31"/>
+      <c r="AZ62" s="31"/>
+      <c r="BA62" s="31"/>
+      <c r="BB62" s="31"/>
+      <c r="BC62" s="31"/>
+      <c r="BD62" s="31"/>
+      <c r="BE62" s="31"/>
+      <c r="BF62" s="31"/>
+      <c r="BG62" s="31"/>
+      <c r="BH62" s="31"/>
+      <c r="BI62" s="31"/>
+      <c r="BJ62" s="31"/>
+      <c r="BK62" s="31"/>
+      <c r="BL62" s="31"/>
+      <c r="BM62" s="31"/>
+      <c r="BN62" s="31"/>
+      <c r="BO62" s="31"/>
+      <c r="BP62" s="31"/>
     </row>
     <row r="63" spans="1:68" s="4" customFormat="1" ht="68">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="30" t="s">
         <v>1836</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -19340,34 +19340,34 @@
       <c r="AV63" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW63" s="100" t="s">
+      <c r="AW63" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX63" s="37"/>
-      <c r="AY63" s="37"/>
-      <c r="AZ63" s="37"/>
-      <c r="BA63" s="37"/>
-      <c r="BB63" s="37"/>
-      <c r="BC63" s="37"/>
-      <c r="BD63" s="37"/>
-      <c r="BE63" s="37"/>
-      <c r="BF63" s="37"/>
-      <c r="BG63" s="37"/>
-      <c r="BH63" s="37"/>
-      <c r="BI63" s="37"/>
-      <c r="BJ63" s="37"/>
-      <c r="BK63" s="37"/>
-      <c r="BL63" s="37"/>
-      <c r="BM63" s="37"/>
-      <c r="BN63" s="37"/>
-      <c r="BO63" s="37"/>
-      <c r="BP63" s="37"/>
+      <c r="AX63" s="31"/>
+      <c r="AY63" s="31"/>
+      <c r="AZ63" s="31"/>
+      <c r="BA63" s="31"/>
+      <c r="BB63" s="31"/>
+      <c r="BC63" s="31"/>
+      <c r="BD63" s="31"/>
+      <c r="BE63" s="31"/>
+      <c r="BF63" s="31"/>
+      <c r="BG63" s="31"/>
+      <c r="BH63" s="31"/>
+      <c r="BI63" s="31"/>
+      <c r="BJ63" s="31"/>
+      <c r="BK63" s="31"/>
+      <c r="BL63" s="31"/>
+      <c r="BM63" s="31"/>
+      <c r="BN63" s="31"/>
+      <c r="BO63" s="31"/>
+      <c r="BP63" s="31"/>
     </row>
     <row r="64" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="30" t="s">
         <v>1837</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -19506,32 +19506,32 @@
       <c r="AV64" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW64" s="100"/>
-      <c r="AX64" s="37"/>
-      <c r="AY64" s="37"/>
-      <c r="AZ64" s="37"/>
-      <c r="BA64" s="37"/>
-      <c r="BB64" s="37"/>
-      <c r="BC64" s="37"/>
-      <c r="BD64" s="37"/>
-      <c r="BE64" s="37"/>
-      <c r="BF64" s="37"/>
-      <c r="BG64" s="37"/>
-      <c r="BH64" s="37"/>
-      <c r="BI64" s="37"/>
-      <c r="BJ64" s="37"/>
-      <c r="BK64" s="37"/>
-      <c r="BL64" s="37"/>
-      <c r="BM64" s="37"/>
-      <c r="BN64" s="37"/>
-      <c r="BO64" s="37"/>
-      <c r="BP64" s="37"/>
+      <c r="AW64" s="94"/>
+      <c r="AX64" s="31"/>
+      <c r="AY64" s="31"/>
+      <c r="AZ64" s="31"/>
+      <c r="BA64" s="31"/>
+      <c r="BB64" s="31"/>
+      <c r="BC64" s="31"/>
+      <c r="BD64" s="31"/>
+      <c r="BE64" s="31"/>
+      <c r="BF64" s="31"/>
+      <c r="BG64" s="31"/>
+      <c r="BH64" s="31"/>
+      <c r="BI64" s="31"/>
+      <c r="BJ64" s="31"/>
+      <c r="BK64" s="31"/>
+      <c r="BL64" s="31"/>
+      <c r="BM64" s="31"/>
+      <c r="BN64" s="31"/>
+      <c r="BO64" s="31"/>
+      <c r="BP64" s="31"/>
     </row>
     <row r="65" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="29" t="s">
         <v>1874</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="30" t="s">
         <v>1838</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -19670,32 +19670,32 @@
       <c r="AV65" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW65" s="100"/>
-      <c r="AX65" s="37"/>
-      <c r="AY65" s="37"/>
-      <c r="AZ65" s="37"/>
-      <c r="BA65" s="37"/>
-      <c r="BB65" s="37"/>
-      <c r="BC65" s="37"/>
-      <c r="BD65" s="37"/>
-      <c r="BE65" s="37"/>
-      <c r="BF65" s="37"/>
-      <c r="BG65" s="37"/>
-      <c r="BH65" s="37"/>
-      <c r="BI65" s="37"/>
-      <c r="BJ65" s="37"/>
-      <c r="BK65" s="37"/>
-      <c r="BL65" s="37"/>
-      <c r="BM65" s="37"/>
-      <c r="BN65" s="37"/>
-      <c r="BO65" s="37"/>
-      <c r="BP65" s="37"/>
+      <c r="AW65" s="94"/>
+      <c r="AX65" s="31"/>
+      <c r="AY65" s="31"/>
+      <c r="AZ65" s="31"/>
+      <c r="BA65" s="31"/>
+      <c r="BB65" s="31"/>
+      <c r="BC65" s="31"/>
+      <c r="BD65" s="31"/>
+      <c r="BE65" s="31"/>
+      <c r="BF65" s="31"/>
+      <c r="BG65" s="31"/>
+      <c r="BH65" s="31"/>
+      <c r="BI65" s="31"/>
+      <c r="BJ65" s="31"/>
+      <c r="BK65" s="31"/>
+      <c r="BL65" s="31"/>
+      <c r="BM65" s="31"/>
+      <c r="BN65" s="31"/>
+      <c r="BO65" s="31"/>
+      <c r="BP65" s="31"/>
     </row>
     <row r="66" spans="1:68" s="3" customFormat="1" ht="187">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="30" t="s">
         <v>1839</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -19834,34 +19834,34 @@
       <c r="AV66" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW66" s="100" t="s">
+      <c r="AW66" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX66" s="37"/>
-      <c r="AY66" s="37"/>
-      <c r="AZ66" s="37"/>
-      <c r="BA66" s="37"/>
-      <c r="BB66" s="37"/>
-      <c r="BC66" s="37"/>
-      <c r="BD66" s="37"/>
-      <c r="BE66" s="37"/>
-      <c r="BF66" s="37"/>
-      <c r="BG66" s="37"/>
-      <c r="BH66" s="37"/>
-      <c r="BI66" s="37"/>
-      <c r="BJ66" s="37"/>
-      <c r="BK66" s="37"/>
-      <c r="BL66" s="37"/>
-      <c r="BM66" s="37"/>
-      <c r="BN66" s="37"/>
-      <c r="BO66" s="37"/>
-      <c r="BP66" s="37"/>
+      <c r="AX66" s="31"/>
+      <c r="AY66" s="31"/>
+      <c r="AZ66" s="31"/>
+      <c r="BA66" s="31"/>
+      <c r="BB66" s="31"/>
+      <c r="BC66" s="31"/>
+      <c r="BD66" s="31"/>
+      <c r="BE66" s="31"/>
+      <c r="BF66" s="31"/>
+      <c r="BG66" s="31"/>
+      <c r="BH66" s="31"/>
+      <c r="BI66" s="31"/>
+      <c r="BJ66" s="31"/>
+      <c r="BK66" s="31"/>
+      <c r="BL66" s="31"/>
+      <c r="BM66" s="31"/>
+      <c r="BN66" s="31"/>
+      <c r="BO66" s="31"/>
+      <c r="BP66" s="31"/>
     </row>
     <row r="67" spans="1:68" s="4" customFormat="1" ht="238">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="30" t="s">
         <v>1840</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -20000,34 +20000,34 @@
       <c r="AV67" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW67" s="100" t="s">
+      <c r="AW67" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX67" s="37"/>
-      <c r="AY67" s="37"/>
-      <c r="AZ67" s="37"/>
-      <c r="BA67" s="37"/>
-      <c r="BB67" s="37"/>
-      <c r="BC67" s="37"/>
-      <c r="BD67" s="37"/>
-      <c r="BE67" s="37"/>
-      <c r="BF67" s="37"/>
-      <c r="BG67" s="37"/>
-      <c r="BH67" s="37"/>
-      <c r="BI67" s="37"/>
-      <c r="BJ67" s="37"/>
-      <c r="BK67" s="37"/>
-      <c r="BL67" s="37"/>
-      <c r="BM67" s="37"/>
-      <c r="BN67" s="37"/>
-      <c r="BO67" s="37"/>
-      <c r="BP67" s="37"/>
+      <c r="AX67" s="31"/>
+      <c r="AY67" s="31"/>
+      <c r="AZ67" s="31"/>
+      <c r="BA67" s="31"/>
+      <c r="BB67" s="31"/>
+      <c r="BC67" s="31"/>
+      <c r="BD67" s="31"/>
+      <c r="BE67" s="31"/>
+      <c r="BF67" s="31"/>
+      <c r="BG67" s="31"/>
+      <c r="BH67" s="31"/>
+      <c r="BI67" s="31"/>
+      <c r="BJ67" s="31"/>
+      <c r="BK67" s="31"/>
+      <c r="BL67" s="31"/>
+      <c r="BM67" s="31"/>
+      <c r="BN67" s="31"/>
+      <c r="BO67" s="31"/>
+      <c r="BP67" s="31"/>
     </row>
     <row r="68" spans="1:68" s="3" customFormat="1" ht="388">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="30" t="s">
         <v>1841</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -20166,34 +20166,34 @@
       <c r="AV68" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AW68" s="100" t="s">
+      <c r="AW68" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX68" s="37"/>
-      <c r="AY68" s="37"/>
-      <c r="AZ68" s="37"/>
-      <c r="BA68" s="37"/>
-      <c r="BB68" s="37"/>
-      <c r="BC68" s="37"/>
-      <c r="BD68" s="37"/>
-      <c r="BE68" s="37"/>
-      <c r="BF68" s="37"/>
-      <c r="BG68" s="37"/>
-      <c r="BH68" s="37"/>
-      <c r="BI68" s="37"/>
-      <c r="BJ68" s="37"/>
-      <c r="BK68" s="37"/>
-      <c r="BL68" s="37"/>
-      <c r="BM68" s="37"/>
-      <c r="BN68" s="37"/>
-      <c r="BO68" s="37"/>
-      <c r="BP68" s="37"/>
+      <c r="AX68" s="31"/>
+      <c r="AY68" s="31"/>
+      <c r="AZ68" s="31"/>
+      <c r="BA68" s="31"/>
+      <c r="BB68" s="31"/>
+      <c r="BC68" s="31"/>
+      <c r="BD68" s="31"/>
+      <c r="BE68" s="31"/>
+      <c r="BF68" s="31"/>
+      <c r="BG68" s="31"/>
+      <c r="BH68" s="31"/>
+      <c r="BI68" s="31"/>
+      <c r="BJ68" s="31"/>
+      <c r="BK68" s="31"/>
+      <c r="BL68" s="31"/>
+      <c r="BM68" s="31"/>
+      <c r="BN68" s="31"/>
+      <c r="BO68" s="31"/>
+      <c r="BP68" s="31"/>
     </row>
     <row r="69" spans="1:68" s="4" customFormat="1" ht="409.6">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="30" t="s">
         <v>1842</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -20332,34 +20332,34 @@
       <c r="AV69" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW69" s="100" t="s">
+      <c r="AW69" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX69" s="37"/>
-      <c r="AY69" s="37"/>
-      <c r="AZ69" s="37"/>
-      <c r="BA69" s="37"/>
-      <c r="BB69" s="37"/>
-      <c r="BC69" s="37"/>
-      <c r="BD69" s="37"/>
-      <c r="BE69" s="37"/>
-      <c r="BF69" s="37"/>
-      <c r="BG69" s="37"/>
-      <c r="BH69" s="37"/>
-      <c r="BI69" s="37"/>
-      <c r="BJ69" s="37"/>
-      <c r="BK69" s="37"/>
-      <c r="BL69" s="37"/>
-      <c r="BM69" s="37"/>
-      <c r="BN69" s="37"/>
-      <c r="BO69" s="37"/>
-      <c r="BP69" s="37"/>
+      <c r="AX69" s="31"/>
+      <c r="AY69" s="31"/>
+      <c r="AZ69" s="31"/>
+      <c r="BA69" s="31"/>
+      <c r="BB69" s="31"/>
+      <c r="BC69" s="31"/>
+      <c r="BD69" s="31"/>
+      <c r="BE69" s="31"/>
+      <c r="BF69" s="31"/>
+      <c r="BG69" s="31"/>
+      <c r="BH69" s="31"/>
+      <c r="BI69" s="31"/>
+      <c r="BJ69" s="31"/>
+      <c r="BK69" s="31"/>
+      <c r="BL69" s="31"/>
+      <c r="BM69" s="31"/>
+      <c r="BN69" s="31"/>
+      <c r="BO69" s="31"/>
+      <c r="BP69" s="31"/>
     </row>
     <row r="70" spans="1:68" s="3" customFormat="1" ht="409.6">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="30" t="s">
         <v>1843</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -20498,34 +20498,34 @@
       <c r="AV70" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW70" s="100" t="s">
+      <c r="AW70" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX70" s="37"/>
-      <c r="AY70" s="37"/>
-      <c r="AZ70" s="37"/>
-      <c r="BA70" s="37"/>
-      <c r="BB70" s="37"/>
-      <c r="BC70" s="37"/>
-      <c r="BD70" s="37"/>
-      <c r="BE70" s="37"/>
-      <c r="BF70" s="37"/>
-      <c r="BG70" s="37"/>
-      <c r="BH70" s="37"/>
-      <c r="BI70" s="37"/>
-      <c r="BJ70" s="37"/>
-      <c r="BK70" s="37"/>
-      <c r="BL70" s="37"/>
-      <c r="BM70" s="37"/>
-      <c r="BN70" s="37"/>
-      <c r="BO70" s="37"/>
-      <c r="BP70" s="37"/>
+      <c r="AX70" s="31"/>
+      <c r="AY70" s="31"/>
+      <c r="AZ70" s="31"/>
+      <c r="BA70" s="31"/>
+      <c r="BB70" s="31"/>
+      <c r="BC70" s="31"/>
+      <c r="BD70" s="31"/>
+      <c r="BE70" s="31"/>
+      <c r="BF70" s="31"/>
+      <c r="BG70" s="31"/>
+      <c r="BH70" s="31"/>
+      <c r="BI70" s="31"/>
+      <c r="BJ70" s="31"/>
+      <c r="BK70" s="31"/>
+      <c r="BL70" s="31"/>
+      <c r="BM70" s="31"/>
+      <c r="BN70" s="31"/>
+      <c r="BO70" s="31"/>
+      <c r="BP70" s="31"/>
     </row>
     <row r="71" spans="1:68" s="4" customFormat="1" ht="306">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="30" t="s">
         <v>1844</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -20664,192 +20664,192 @@
       <c r="AV71" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW71" s="100"/>
-      <c r="AX71" s="37"/>
-      <c r="AY71" s="37"/>
-      <c r="AZ71" s="37"/>
-      <c r="BA71" s="37"/>
-      <c r="BB71" s="37"/>
-      <c r="BC71" s="37"/>
-      <c r="BD71" s="37"/>
-      <c r="BE71" s="37"/>
-      <c r="BF71" s="37"/>
-      <c r="BG71" s="37"/>
-      <c r="BH71" s="37"/>
-      <c r="BI71" s="37"/>
-      <c r="BJ71" s="37"/>
-      <c r="BK71" s="37"/>
-      <c r="BL71" s="37"/>
-      <c r="BM71" s="37"/>
-      <c r="BN71" s="37"/>
-      <c r="BO71" s="37"/>
-      <c r="BP71" s="37"/>
+      <c r="AW71" s="94"/>
+      <c r="AX71" s="31"/>
+      <c r="AY71" s="31"/>
+      <c r="AZ71" s="31"/>
+      <c r="BA71" s="31"/>
+      <c r="BB71" s="31"/>
+      <c r="BC71" s="31"/>
+      <c r="BD71" s="31"/>
+      <c r="BE71" s="31"/>
+      <c r="BF71" s="31"/>
+      <c r="BG71" s="31"/>
+      <c r="BH71" s="31"/>
+      <c r="BI71" s="31"/>
+      <c r="BJ71" s="31"/>
+      <c r="BK71" s="31"/>
+      <c r="BL71" s="31"/>
+      <c r="BM71" s="31"/>
+      <c r="BN71" s="31"/>
+      <c r="BO71" s="31"/>
+      <c r="BP71" s="31"/>
     </row>
     <row r="72" spans="1:68" s="3" customFormat="1" ht="409.6" thickBot="1">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="80" t="s">
+      <c r="B72" s="74" t="s">
         <v>1845</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="75" t="s">
         <v>1589</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="D72" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="81" t="s">
+      <c r="E72" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="75" t="s">
         <v>1590</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="75" t="s">
         <v>1636</v>
       </c>
-      <c r="H72" s="82">
+      <c r="H72" s="76">
         <v>104</v>
       </c>
-      <c r="I72" s="82" t="s">
+      <c r="I72" s="76" t="s">
         <v>1591</v>
       </c>
-      <c r="J72" s="83" t="s">
+      <c r="J72" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="K72" s="83" t="s">
+      <c r="K72" s="77" t="s">
         <v>1592</v>
       </c>
-      <c r="L72" s="83" t="s">
+      <c r="L72" s="77" t="s">
         <v>1593</v>
       </c>
-      <c r="M72" s="83" t="s">
+      <c r="M72" s="77" t="s">
         <v>1594</v>
       </c>
-      <c r="N72" s="83" t="s">
+      <c r="N72" s="77" t="s">
         <v>1595</v>
       </c>
-      <c r="O72" s="83" t="s">
+      <c r="O72" s="77" t="s">
         <v>1596</v>
       </c>
-      <c r="P72" s="83"/>
-      <c r="Q72" s="83" t="s">
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77" t="s">
         <v>695</v>
       </c>
-      <c r="R72" s="83" t="s">
+      <c r="R72" s="77" t="s">
         <v>1597</v>
       </c>
-      <c r="S72" s="83" t="s">
+      <c r="S72" s="77" t="s">
         <v>1598</v>
       </c>
-      <c r="T72" s="83" t="s">
+      <c r="T72" s="77" t="s">
         <v>1599</v>
       </c>
-      <c r="U72" s="83" t="s">
+      <c r="U72" s="77" t="s">
         <v>1600</v>
       </c>
-      <c r="V72" s="83" t="s">
+      <c r="V72" s="77" t="s">
         <v>1601</v>
       </c>
-      <c r="W72" s="83" t="s">
+      <c r="W72" s="77" t="s">
         <v>1602</v>
       </c>
-      <c r="X72" s="83" t="s">
+      <c r="X72" s="77" t="s">
         <v>1603</v>
       </c>
-      <c r="Y72" s="83" t="s">
+      <c r="Y72" s="77" t="s">
         <v>1604</v>
       </c>
-      <c r="Z72" s="83" t="s">
+      <c r="Z72" s="77" t="s">
         <v>1605</v>
       </c>
-      <c r="AA72" s="84" t="s">
+      <c r="AA72" s="78" t="s">
         <v>1606</v>
       </c>
-      <c r="AB72" s="84" t="s">
+      <c r="AB72" s="78" t="s">
         <v>1607</v>
       </c>
-      <c r="AC72" s="84" t="s">
+      <c r="AC72" s="78" t="s">
         <v>1608</v>
       </c>
-      <c r="AD72" s="84" t="s">
+      <c r="AD72" s="78" t="s">
         <v>1609</v>
       </c>
-      <c r="AE72" s="84" t="s">
+      <c r="AE72" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="AF72" s="84" t="s">
+      <c r="AF72" s="78" t="s">
         <v>1610</v>
       </c>
-      <c r="AG72" s="84" t="s">
+      <c r="AG72" s="78" t="s">
         <v>1611</v>
       </c>
-      <c r="AH72" s="84" t="s">
+      <c r="AH72" s="78" t="s">
         <v>1612</v>
       </c>
-      <c r="AI72" s="84" t="s">
+      <c r="AI72" s="78" t="s">
         <v>1613</v>
       </c>
-      <c r="AJ72" s="84" t="s">
+      <c r="AJ72" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="AK72" s="84" t="s">
+      <c r="AK72" s="78" t="s">
         <v>1614</v>
       </c>
-      <c r="AL72" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM72" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN72" s="85" t="s">
+      <c r="AL72" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM72" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN72" s="79" t="s">
         <v>1726</v>
       </c>
-      <c r="AO72" s="85" t="s">
+      <c r="AO72" s="79" t="s">
         <v>1726</v>
       </c>
-      <c r="AP72" s="85" t="s">
+      <c r="AP72" s="79" t="s">
         <v>1726</v>
       </c>
-      <c r="AQ72" s="85" t="s">
+      <c r="AQ72" s="79" t="s">
         <v>1667</v>
       </c>
-      <c r="AR72" s="85" t="s">
+      <c r="AR72" s="79" t="s">
         <v>1508</v>
       </c>
-      <c r="AS72" s="85">
+      <c r="AS72" s="79">
         <v>5</v>
       </c>
-      <c r="AT72" s="85" t="s">
+      <c r="AT72" s="79" t="s">
         <v>970</v>
       </c>
-      <c r="AU72" s="85" t="s">
+      <c r="AU72" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="AV72" s="85" t="s">
+      <c r="AV72" s="79" t="s">
         <v>1855</v>
       </c>
-      <c r="AW72" s="102" t="s">
+      <c r="AW72" s="96" t="s">
         <v>1857</v>
       </c>
-      <c r="AX72" s="37"/>
-      <c r="AY72" s="37"/>
-      <c r="AZ72" s="37"/>
-      <c r="BA72" s="37"/>
-      <c r="BB72" s="37"/>
-      <c r="BC72" s="37"/>
-      <c r="BD72" s="37"/>
-      <c r="BE72" s="37"/>
-      <c r="BF72" s="37"/>
-      <c r="BG72" s="37"/>
-      <c r="BH72" s="37"/>
-      <c r="BI72" s="37"/>
-      <c r="BJ72" s="37"/>
-      <c r="BK72" s="37"/>
-      <c r="BL72" s="37"/>
-      <c r="BM72" s="37"/>
-      <c r="BN72" s="37"/>
-      <c r="BO72" s="37"/>
-      <c r="BP72" s="37"/>
+      <c r="AX72" s="31"/>
+      <c r="AY72" s="31"/>
+      <c r="AZ72" s="31"/>
+      <c r="BA72" s="31"/>
+      <c r="BB72" s="31"/>
+      <c r="BC72" s="31"/>
+      <c r="BD72" s="31"/>
+      <c r="BE72" s="31"/>
+      <c r="BF72" s="31"/>
+      <c r="BG72" s="31"/>
+      <c r="BH72" s="31"/>
+      <c r="BI72" s="31"/>
+      <c r="BJ72" s="31"/>
+      <c r="BK72" s="31"/>
+      <c r="BL72" s="31"/>
+      <c r="BM72" s="31"/>
+      <c r="BN72" s="31"/>
+      <c r="BO72" s="31"/>
+      <c r="BP72" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:BP72" xr:uid="{62CCF830-4A99-4042-BE90-52CFFDF00F36}"/>

--- a/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
+++ b/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotembot/Google_Drive/my_research/my_papers/NARPS_main_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poldrack/Dropbox/code/narps/ImageAnalyses/metadata_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7EF6A5-AFE2-F046-9892-D6428EB516C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08BEA89-03EE-EF49-B7C8-25DEA73E20CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__Fieldmark__1618_5564194761" localSheetId="0">Sheet1!$AJ$37</definedName>
+    <definedName name="__Fieldmark__1618_5564194761" localSheetId="0">Sheet1!$AK$37</definedName>
     <definedName name="__Fieldmark__494_9667639611" localSheetId="0">Sheet1!$F$44</definedName>
     <definedName name="__Fieldmark__603_94325256" localSheetId="0">Sheet1!$C$61</definedName>
     <definedName name="__Fieldmark__638_748692601" localSheetId="0">Sheet1!$F$43</definedName>
-    <definedName name="__Fieldmark__828_14068559291" localSheetId="0">Sheet1!$AG$5</definedName>
+    <definedName name="__Fieldmark__828_14068559291" localSheetId="0">Sheet1!$AH$5</definedName>
     <definedName name="__Fieldmark__973_5564194761" localSheetId="0">Sheet1!$S$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BP$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BQ$72</definedName>
     <definedName name="Text111" localSheetId="0">Sheet1!$L$5</definedName>
     <definedName name="Text121" localSheetId="0">Sheet1!$M$5</definedName>
     <definedName name="Text131" localSheetId="0">Sheet1!$N$5</definedName>
@@ -41,14 +41,14 @@
     <definedName name="Text261" localSheetId="0">Sheet1!$AB$5</definedName>
     <definedName name="Text27" localSheetId="0">Sheet1!$AC$5</definedName>
     <definedName name="Text271" localSheetId="0">Sheet1!$AC$9</definedName>
-    <definedName name="Text281" localSheetId="0">Sheet1!$AD$5</definedName>
-    <definedName name="Text291" localSheetId="0">Sheet1!$AE$5</definedName>
-    <definedName name="Text301" localSheetId="0">Sheet1!$AF$5</definedName>
-    <definedName name="Text321" localSheetId="0">Sheet1!$AH$5</definedName>
-    <definedName name="Text331" localSheetId="0">Sheet1!$AI$5</definedName>
-    <definedName name="Text341" localSheetId="0">Sheet1!$AJ$5</definedName>
-    <definedName name="Text351" localSheetId="0">Sheet1!$AK$5</definedName>
-    <definedName name="Text371" localSheetId="0">Sheet1!$AM$5</definedName>
+    <definedName name="Text281" localSheetId="0">Sheet1!$AE$5</definedName>
+    <definedName name="Text291" localSheetId="0">Sheet1!$AF$5</definedName>
+    <definedName name="Text301" localSheetId="0">Sheet1!$AG$5</definedName>
+    <definedName name="Text321" localSheetId="0">Sheet1!$AI$5</definedName>
+    <definedName name="Text331" localSheetId="0">Sheet1!$AJ$5</definedName>
+    <definedName name="Text341" localSheetId="0">Sheet1!$AK$5</definedName>
+    <definedName name="Text351" localSheetId="0">Sheet1!$AL$5</definedName>
+    <definedName name="Text371" localSheetId="0">Sheet1!$AN$5</definedName>
     <definedName name="Text51" localSheetId="0">Sheet1!$I$5</definedName>
     <definedName name="Text71" localSheetId="0">Sheet1!$F$5</definedName>
     <definedName name="Text81" localSheetId="0">Sheet1!$K$5</definedName>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="1877">
   <si>
     <t>teamID</t>
   </si>
@@ -8036,6 +8036,9 @@
   </si>
   <si>
     <t>p&lt;0.01</t>
+  </si>
+  <si>
+    <t>MovementReg</t>
   </si>
 </sst>
 </file>
@@ -9029,11 +9032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS69" sqref="AS69"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD73" sqref="AD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -9064,33 +9067,33 @@
     <col min="25" max="26" width="30.5" style="15" customWidth="1"/>
     <col min="27" max="27" width="27.6640625" style="4" customWidth="1"/>
     <col min="28" max="28" width="27.5" style="4" customWidth="1"/>
-    <col min="29" max="29" width="75.1640625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="62.83203125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="21.1640625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="85.6640625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="81.5" style="4" customWidth="1"/>
-    <col min="34" max="34" width="33.5" style="4" customWidth="1"/>
-    <col min="35" max="35" width="33" style="4" customWidth="1"/>
-    <col min="36" max="37" width="32.33203125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="49.1640625" style="4" customWidth="1"/>
-    <col min="39" max="39" width="48.83203125" style="80" customWidth="1"/>
-    <col min="40" max="40" width="26.1640625" style="82" customWidth="1"/>
-    <col min="41" max="41" width="29.1640625" style="82" customWidth="1"/>
-    <col min="42" max="42" width="30.83203125" style="82" customWidth="1"/>
-    <col min="43" max="43" width="17.83203125" style="82" customWidth="1"/>
-    <col min="44" max="44" width="24.83203125" style="82" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.83203125" style="82" customWidth="1"/>
-    <col min="46" max="47" width="17.83203125" style="82" customWidth="1"/>
-    <col min="48" max="48" width="18.83203125" style="82" customWidth="1"/>
-    <col min="49" max="49" width="19.33203125" style="82" customWidth="1"/>
-    <col min="50" max="50" width="10.83203125" style="31"/>
-    <col min="51" max="51" width="12.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="53" max="68" width="10.83203125" style="31"/>
-    <col min="69" max="16384" width="10.83203125" style="83"/>
+    <col min="29" max="30" width="75.1640625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="62.83203125" style="4" customWidth="1"/>
+    <col min="32" max="32" width="21.1640625" style="4" customWidth="1"/>
+    <col min="33" max="33" width="85.6640625" style="4" customWidth="1"/>
+    <col min="34" max="34" width="81.5" style="4" customWidth="1"/>
+    <col min="35" max="35" width="33.5" style="4" customWidth="1"/>
+    <col min="36" max="36" width="33" style="4" customWidth="1"/>
+    <col min="37" max="38" width="32.33203125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="49.1640625" style="4" customWidth="1"/>
+    <col min="40" max="40" width="48.83203125" style="80" customWidth="1"/>
+    <col min="41" max="41" width="26.1640625" style="82" customWidth="1"/>
+    <col min="42" max="42" width="29.1640625" style="82" customWidth="1"/>
+    <col min="43" max="43" width="30.83203125" style="82" customWidth="1"/>
+    <col min="44" max="44" width="17.83203125" style="82" customWidth="1"/>
+    <col min="45" max="45" width="24.83203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.83203125" style="82" customWidth="1"/>
+    <col min="47" max="48" width="17.83203125" style="82" customWidth="1"/>
+    <col min="49" max="49" width="18.83203125" style="82" customWidth="1"/>
+    <col min="50" max="50" width="19.33203125" style="82" customWidth="1"/>
+    <col min="51" max="51" width="10.83203125" style="31"/>
+    <col min="52" max="52" width="12.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="54" max="69" width="10.83203125" style="31"/>
+    <col min="70" max="16384" width="10.83203125" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="22" customFormat="1" ht="34" customHeight="1">
+    <row r="1" spans="1:69" s="22" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="100" t="s">
         <v>1848</v>
       </c>
@@ -9137,13 +9140,13 @@
       <c r="AJ1" s="102"/>
       <c r="AK1" s="102"/>
       <c r="AL1" s="102"/>
-      <c r="AM1" s="97" t="s">
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="97" t="s">
         <v>1848</v>
       </c>
-      <c r="AN1" s="98" t="s">
+      <c r="AO1" s="98" t="s">
         <v>1850</v>
       </c>
-      <c r="AO1" s="98"/>
       <c r="AP1" s="98"/>
       <c r="AQ1" s="98"/>
       <c r="AR1" s="98"/>
@@ -9151,8 +9154,8 @@
       <c r="AT1" s="98"/>
       <c r="AU1" s="98"/>
       <c r="AV1" s="98"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="23"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="92"/>
       <c r="AY1" s="23"/>
       <c r="AZ1" s="23"/>
       <c r="BA1" s="23"/>
@@ -9171,8 +9174,9 @@
       <c r="BN1" s="23"/>
       <c r="BO1" s="23"/>
       <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" ht="40">
+    <row r="2" spans="1:69" s="1" customFormat="1" ht="40">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -9261,66 +9265,68 @@
         <v>104</v>
       </c>
       <c r="AD2" s="17" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AE2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AH2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AI2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AM2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>1740</v>
       </c>
-      <c r="AN2" s="19" t="s">
+      <c r="AO2" s="19" t="s">
         <v>1719</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AP2" s="19" t="s">
         <v>1720</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>1721</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AR2" s="19" t="s">
         <v>1685</v>
       </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AS2" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AT2" s="19" t="s">
         <v>1684</v>
       </c>
-      <c r="AT2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>1714</v>
       </c>
-      <c r="AU2" s="19" t="s">
+      <c r="AV2" s="19" t="s">
         <v>1854</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="AW2" s="19" t="s">
         <v>1713</v>
       </c>
-      <c r="AW2" s="93" t="s">
+      <c r="AX2" s="93" t="s">
         <v>1856</v>
       </c>
-      <c r="AX2" s="24"/>
       <c r="AY2" s="24"/>
       <c r="AZ2" s="24"/>
       <c r="BA2" s="24"/>
@@ -9339,8 +9345,9 @@
       <c r="BN2" s="24"/>
       <c r="BO2" s="24"/>
       <c r="BP2" s="24"/>
+      <c r="BQ2" s="24"/>
     </row>
-    <row r="3" spans="1:68" s="4" customFormat="1" ht="221">
+    <row r="3" spans="1:69" s="4" customFormat="1" ht="221">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -9428,38 +9435,38 @@
       <c r="AC3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>1717</v>
+      <c r="AM3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>1717</v>
@@ -9468,27 +9475,29 @@
         <v>1717</v>
       </c>
       <c r="AQ3" s="21" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AR3" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AS3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS3" s="21">
+      <c r="AT3" s="21">
         <v>5</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AU3" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="AW3" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW3" s="94" t="s">
+      <c r="AX3" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX3" s="31"/>
       <c r="AY3" s="31"/>
       <c r="AZ3" s="31"/>
       <c r="BA3" s="31"/>
@@ -9507,8 +9516,9 @@
       <c r="BN3" s="31"/>
       <c r="BO3" s="31"/>
       <c r="BP3" s="31"/>
+      <c r="BQ3" s="31"/>
     </row>
-    <row r="4" spans="1:68" s="3" customFormat="1" ht="281" customHeight="1">
+    <row r="4" spans="1:69" s="3" customFormat="1" ht="281" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -9596,67 +9606,69 @@
       <c r="AC4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AH4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AL4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN4" s="21" t="s">
+      <c r="AM4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AO4" s="21" t="s">
+      <c r="AP4" s="21" t="s">
         <v>1717</v>
       </c>
-      <c r="AP4" s="21" t="s">
+      <c r="AQ4" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ4" s="21" t="s">
+      <c r="AR4" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR4" s="21" t="s">
+      <c r="AS4" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AS4" s="21">
+      <c r="AT4" s="21">
         <v>5</v>
       </c>
-      <c r="AT4" s="21" t="s">
+      <c r="AU4" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU4" s="21" t="s">
+      <c r="AV4" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV4" s="21" t="s">
+      <c r="AW4" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW4" s="94" t="s">
+      <c r="AX4" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX4" s="31"/>
       <c r="AY4" s="31"/>
       <c r="AZ4" s="31"/>
       <c r="BA4" s="31"/>
@@ -9675,8 +9687,9 @@
       <c r="BN4" s="31"/>
       <c r="BO4" s="31"/>
       <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
     </row>
-    <row r="5" spans="1:68" s="4" customFormat="1" ht="272">
+    <row r="5" spans="1:69" s="4" customFormat="1" ht="272">
       <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
@@ -9764,65 +9777,67 @@
       <c r="AC5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AD5" s="38" t="s">
+      <c r="AD5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AE5" s="39" t="s">
+      <c r="AF5" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AG5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AH5" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AI5" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AL5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="40" t="s">
-        <v>1716</v>
-      </c>
+      <c r="AN5" s="25"/>
       <c r="AO5" s="40" t="s">
         <v>1716</v>
       </c>
       <c r="AP5" s="40" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ5" s="21" t="s">
+      <c r="AQ5" s="40" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR5" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR5" s="21" t="s">
+      <c r="AS5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS5" s="40">
+      <c r="AT5" s="40">
         <v>5</v>
       </c>
-      <c r="AT5" s="41" t="s">
+      <c r="AU5" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="AU5" s="21" t="s">
+      <c r="AV5" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AV5" s="21" t="s">
+      <c r="AW5" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW5" s="94" t="s">
+      <c r="AX5" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX5" s="31"/>
       <c r="AY5" s="31"/>
       <c r="AZ5" s="31"/>
       <c r="BA5" s="31"/>
@@ -9841,8 +9856,9 @@
       <c r="BN5" s="31"/>
       <c r="BO5" s="31"/>
       <c r="BP5" s="31"/>
+      <c r="BQ5" s="31"/>
     </row>
-    <row r="6" spans="1:68" s="3" customFormat="1" ht="255">
+    <row r="6" spans="1:69" s="3" customFormat="1" ht="255">
       <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
@@ -9930,65 +9946,67 @@
       <c r="AC6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" s="44" t="s">
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AH6" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AL6" s="44" t="s">
+      <c r="AM6" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="20" t="s">
-        <v>1671</v>
-      </c>
+      <c r="AN6" s="45"/>
       <c r="AO6" s="20" t="s">
         <v>1671</v>
       </c>
       <c r="AP6" s="20" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ6" s="21" t="s">
+      <c r="AR6" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR6" s="21" t="s">
+      <c r="AS6" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS6" s="21">
+      <c r="AT6" s="21">
         <v>5</v>
       </c>
-      <c r="AT6" s="21" t="s">
+      <c r="AU6" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU6" s="21" t="s">
+      <c r="AV6" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV6" s="21" t="s">
+      <c r="AW6" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW6" s="94" t="s">
+      <c r="AX6" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX6" s="31"/>
       <c r="AY6" s="31"/>
       <c r="AZ6" s="31"/>
       <c r="BA6" s="31"/>
@@ -10007,8 +10025,9 @@
       <c r="BN6" s="31"/>
       <c r="BO6" s="31"/>
       <c r="BP6" s="31"/>
+      <c r="BQ6" s="31"/>
     </row>
-    <row r="7" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="7" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -10096,67 +10115,69 @@
       <c r="AC7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AD7" s="44" t="s">
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AG7" s="5" t="s">
         <v>1665</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AH7" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AI7" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AJ7" s="32" t="s">
+      <c r="AK7" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AL7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN7" s="21" t="s">
+      <c r="AM7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO7" s="21" t="s">
         <v>1718</v>
-      </c>
-      <c r="AO7" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP7" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AQ7" s="21" t="s">
-        <v>1666</v>
+        <v>1716</v>
       </c>
       <c r="AR7" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS7" s="21">
+      <c r="AS7" s="21" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AT7" s="21">
         <v>5</v>
       </c>
-      <c r="AT7" s="21" t="s">
+      <c r="AU7" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU7" s="21" t="s">
+      <c r="AV7" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV7" s="21" t="s">
+      <c r="AW7" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW7" s="94" t="s">
+      <c r="AX7" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX7" s="31"/>
       <c r="AY7" s="31"/>
       <c r="AZ7" s="31"/>
       <c r="BA7" s="31"/>
@@ -10175,8 +10196,9 @@
       <c r="BN7" s="31"/>
       <c r="BO7" s="31"/>
       <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
     </row>
-    <row r="8" spans="1:68" s="3" customFormat="1" ht="404">
+    <row r="8" spans="1:69" s="3" customFormat="1" ht="404">
       <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
@@ -10264,67 +10286,69 @@
       <c r="AC8" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AL8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN8" s="21" t="s">
+      <c r="AM8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO8" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO8" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP8" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AQ8" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR8" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR8" s="21" t="s">
+      <c r="AS8" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS8" s="21">
+      <c r="AT8" s="21">
         <v>8</v>
       </c>
-      <c r="AT8" s="21" t="s">
+      <c r="AU8" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU8" s="21" t="s">
+      <c r="AV8" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV8" s="21" t="s">
+      <c r="AW8" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW8" s="94" t="s">
+      <c r="AX8" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX8" s="31"/>
       <c r="AY8" s="31"/>
       <c r="AZ8" s="31"/>
       <c r="BA8" s="31"/>
@@ -10343,8 +10367,9 @@
       <c r="BN8" s="31"/>
       <c r="BO8" s="31"/>
       <c r="BP8" s="31"/>
+      <c r="BQ8" s="31"/>
     </row>
-    <row r="9" spans="1:68" s="4" customFormat="1" ht="255">
+    <row r="9" spans="1:69" s="4" customFormat="1" ht="255">
       <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
@@ -10432,38 +10457,38 @@
       <c r="AC9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AD9" s="44" t="s">
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="AE9" s="32" t="s">
+      <c r="AF9" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AG9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AH9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AH9" s="32" t="s">
+      <c r="AI9" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AL9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN9" s="21" t="s">
-        <v>1716</v>
+      <c r="AM9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO9" s="21" t="s">
         <v>1716</v>
@@ -10472,25 +10497,27 @@
         <v>1716</v>
       </c>
       <c r="AQ9" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR9" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR9" s="21" t="s">
+      <c r="AS9" s="21" t="s">
         <v>1689</v>
       </c>
-      <c r="AS9" s="21">
+      <c r="AT9" s="21">
         <v>6</v>
       </c>
-      <c r="AT9" s="21" t="s">
+      <c r="AU9" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21" t="s">
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW9" s="94" t="s">
+      <c r="AX9" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX9" s="31"/>
       <c r="AY9" s="31"/>
       <c r="AZ9" s="31"/>
       <c r="BA9" s="31"/>
@@ -10509,8 +10536,9 @@
       <c r="BN9" s="31"/>
       <c r="BO9" s="31"/>
       <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
     </row>
-    <row r="10" spans="1:68" s="3" customFormat="1" ht="408" customHeight="1">
+    <row r="10" spans="1:69" s="3" customFormat="1" ht="408" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
@@ -10598,65 +10626,67 @@
       <c r="AC10" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="AD10" s="51" t="s">
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="51" t="s">
         <v>1662</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AG10" s="5" t="s">
         <v>1661</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AL10" s="44" t="s">
+      <c r="AM10" s="44" t="s">
         <v>1663</v>
       </c>
-      <c r="AM10" s="52" t="s">
+      <c r="AN10" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="AN10" s="21" t="s">
+      <c r="AO10" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO10" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP10" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AQ10" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR10" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR10" s="21" t="s">
+      <c r="AS10" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS10" s="21">
+      <c r="AT10" s="21">
         <v>4</v>
       </c>
-      <c r="AT10" s="21" t="s">
+      <c r="AU10" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21" t="s">
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW10" s="94" t="s">
+      <c r="AX10" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX10" s="31"/>
       <c r="AY10" s="31"/>
       <c r="AZ10" s="31"/>
       <c r="BA10" s="31"/>
@@ -10675,8 +10705,9 @@
       <c r="BN10" s="31"/>
       <c r="BO10" s="31"/>
       <c r="BP10" s="31"/>
+      <c r="BQ10" s="31"/>
     </row>
-    <row r="11" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="11" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
@@ -10764,38 +10795,38 @@
       <c r="AC11" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AD11" s="44" t="s">
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AF11" s="32" t="s">
+      <c r="AG11" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AL11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN11" s="21" t="s">
-        <v>1671</v>
+      <c r="AM11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO11" s="21" t="s">
         <v>1671</v>
@@ -10804,27 +10835,29 @@
         <v>1671</v>
       </c>
       <c r="AQ11" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR11" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR11" s="21" t="s">
+      <c r="AS11" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS11" s="21">
+      <c r="AT11" s="21">
         <v>8</v>
       </c>
-      <c r="AT11" s="21" t="s">
+      <c r="AU11" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU11" s="21" t="s">
+      <c r="AV11" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV11" s="21" t="s">
+      <c r="AW11" s="21" t="s">
         <v>1860</v>
       </c>
-      <c r="AW11" s="94" t="s">
+      <c r="AX11" s="94" t="s">
         <v>1859</v>
       </c>
-      <c r="AX11" s="31"/>
       <c r="AY11" s="31"/>
       <c r="AZ11" s="31"/>
       <c r="BA11" s="31"/>
@@ -10843,8 +10876,9 @@
       <c r="BN11" s="31"/>
       <c r="BO11" s="31"/>
       <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
     </row>
-    <row r="12" spans="1:68" s="3" customFormat="1" ht="136">
+    <row r="12" spans="1:69" s="3" customFormat="1" ht="136">
       <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
@@ -10932,67 +10966,69 @@
       <c r="AC12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AD12" s="44" t="s">
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="AE12" s="55" t="s">
+      <c r="AF12" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AL12" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="AM12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN12" s="21" t="s">
+      <c r="AN12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO12" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO12" s="21" t="s">
-        <v>1722</v>
       </c>
       <c r="AP12" s="21" t="s">
         <v>1722</v>
       </c>
       <c r="AQ12" s="21" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AR12" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR12" s="21" t="s">
+      <c r="AS12" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS12" s="21">
+      <c r="AT12" s="21">
         <v>6</v>
       </c>
-      <c r="AT12" s="21" t="s">
+      <c r="AU12" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU12" s="21" t="s">
+      <c r="AV12" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV12" s="21" t="s">
+      <c r="AW12" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW12" s="94" t="s">
+      <c r="AX12" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX12" s="31"/>
       <c r="AY12" s="31"/>
       <c r="AZ12" s="31"/>
       <c r="BA12" s="31"/>
@@ -11011,8 +11047,9 @@
       <c r="BN12" s="31"/>
       <c r="BO12" s="31"/>
       <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
     </row>
-    <row r="13" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="13" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
@@ -11100,67 +11137,69 @@
       <c r="AC13" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="AD13" s="44" t="s">
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="44" t="s">
         <v>1656</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AF13" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AG13" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="AG13" s="2" t="s">
+      <c r="AH13" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AH13" s="5" t="s">
+      <c r="AI13" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="AJ13" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AK13" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AL13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AL13" s="44" t="s">
+      <c r="AM13" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="AM13" s="52" t="s">
+      <c r="AN13" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="AN13" s="21" t="s">
+      <c r="AO13" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AO13" s="21" t="s">
+      <c r="AP13" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AP13" s="21" t="s">
+      <c r="AQ13" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ13" s="56" t="s">
+      <c r="AR13" s="56" t="s">
         <v>1668</v>
       </c>
-      <c r="AR13" s="56" t="s">
+      <c r="AS13" s="56" t="s">
         <v>1690</v>
       </c>
-      <c r="AS13" s="21">
+      <c r="AT13" s="21">
         <v>5</v>
       </c>
-      <c r="AT13" s="21" t="s">
+      <c r="AU13" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU13" s="21" t="s">
+      <c r="AV13" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV13" s="21" t="s">
+      <c r="AW13" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AW13" s="94" t="s">
+      <c r="AX13" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX13" s="31"/>
       <c r="AY13" s="31"/>
       <c r="AZ13" s="31"/>
       <c r="BA13" s="31"/>
@@ -11179,8 +11218,9 @@
       <c r="BN13" s="31"/>
       <c r="BO13" s="31"/>
       <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
     </row>
-    <row r="14" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="14" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
@@ -11266,38 +11306,38 @@
       <c r="AC14" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AE14" s="32" t="s">
+      <c r="AF14" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AK14" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AL14" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AL14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM14" s="11" t="s">
+      <c r="AM14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN14" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="AN14" s="21" t="s">
-        <v>1671</v>
       </c>
       <c r="AO14" s="21" t="s">
         <v>1671</v>
@@ -11306,23 +11346,25 @@
         <v>1671</v>
       </c>
       <c r="AQ14" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR14" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AR14" s="21" t="s">
+      <c r="AS14" s="21" t="s">
         <v>1693</v>
       </c>
-      <c r="AS14" s="21">
+      <c r="AT14" s="21">
         <v>4</v>
       </c>
-      <c r="AT14" s="21" t="s">
+      <c r="AU14" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="57" t="s">
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="57" t="s">
         <v>1855</v>
       </c>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="31"/>
+      <c r="AX14" s="95"/>
       <c r="AY14" s="31"/>
       <c r="AZ14" s="31"/>
       <c r="BA14" s="31"/>
@@ -11341,8 +11383,9 @@
       <c r="BN14" s="31"/>
       <c r="BO14" s="31"/>
       <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
     </row>
-    <row r="15" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="15" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
@@ -11428,38 +11471,38 @@
       <c r="AC15" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AH15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="AK15" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AL15" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="AL15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN15" s="21" t="s">
-        <v>1724</v>
+      <c r="AM15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO15" s="21" t="s">
         <v>1724</v>
@@ -11468,27 +11511,29 @@
         <v>1724</v>
       </c>
       <c r="AQ15" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AR15" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR15" s="21" t="s">
+      <c r="AS15" s="21" t="s">
         <v>1691</v>
       </c>
-      <c r="AS15" s="21">
+      <c r="AT15" s="21">
         <v>5</v>
       </c>
-      <c r="AT15" s="21" t="s">
+      <c r="AU15" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU15" s="21" t="s">
+      <c r="AV15" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV15" s="57" t="s">
+      <c r="AW15" s="57" t="s">
         <v>1855</v>
       </c>
-      <c r="AW15" s="94" t="s">
+      <c r="AX15" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX15" s="31"/>
       <c r="AY15" s="31"/>
       <c r="AZ15" s="31"/>
       <c r="BA15" s="31"/>
@@ -11507,8 +11552,9 @@
       <c r="BN15" s="31"/>
       <c r="BO15" s="31"/>
       <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
     </row>
-    <row r="16" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="16" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A16" s="29" t="s">
         <v>14</v>
       </c>
@@ -11594,38 +11640,38 @@
       <c r="AC16" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AK16" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AL16" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AM16" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="AM16" s="11" t="s">
+      <c r="AN16" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="AN16" s="21" t="s">
-        <v>1718</v>
       </c>
       <c r="AO16" s="21" t="s">
         <v>1718</v>
@@ -11634,27 +11680,29 @@
         <v>1718</v>
       </c>
       <c r="AQ16" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR16" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AR16" s="21" t="s">
+      <c r="AS16" s="21" t="s">
         <v>1692</v>
       </c>
-      <c r="AS16" s="21">
+      <c r="AT16" s="21">
         <v>4</v>
       </c>
-      <c r="AT16" s="21" t="s">
+      <c r="AU16" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU16" s="21" t="s">
+      <c r="AV16" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV16" s="21" t="s">
+      <c r="AW16" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW16" s="94" t="s">
+      <c r="AX16" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX16" s="31"/>
       <c r="AY16" s="31"/>
       <c r="AZ16" s="31"/>
       <c r="BA16" s="31"/>
@@ -11673,8 +11721,9 @@
       <c r="BN16" s="31"/>
       <c r="BO16" s="31"/>
       <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
     </row>
-    <row r="17" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="17" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A17" s="29" t="s">
         <v>15</v>
       </c>
@@ -11760,37 +11809,37 @@
       <c r="AC17" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AK17" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AK17" s="2" t="s">
+      <c r="AL17" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AL17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="21" t="s">
-        <v>1716</v>
-      </c>
+      <c r="AM17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN17" s="11"/>
       <c r="AO17" s="21" t="s">
         <v>1716</v>
       </c>
@@ -11798,23 +11847,25 @@
         <v>1716</v>
       </c>
       <c r="AQ17" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR17" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR17" s="21" t="s">
+      <c r="AS17" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AS17" s="21">
+      <c r="AT17" s="21">
         <v>0</v>
       </c>
-      <c r="AT17" s="21" t="s">
+      <c r="AU17" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21" t="s">
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="31"/>
+      <c r="AX17" s="94"/>
       <c r="AY17" s="31"/>
       <c r="AZ17" s="31"/>
       <c r="BA17" s="31"/>
@@ -11833,8 +11884,9 @@
       <c r="BN17" s="31"/>
       <c r="BO17" s="31"/>
       <c r="BP17" s="31"/>
+      <c r="BQ17" s="31"/>
     </row>
-    <row r="18" spans="1:68" s="3" customFormat="1" ht="255">
+    <row r="18" spans="1:69" s="3" customFormat="1" ht="255">
       <c r="A18" s="29" t="s">
         <v>16</v>
       </c>
@@ -11920,65 +11972,67 @@
       <c r="AC18" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AE18" s="32" t="s">
+      <c r="AF18" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AG18" s="2" t="s">
+      <c r="AH18" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="AK18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AL18" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AL18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="21" t="s">
+      <c r="AM18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AO18" s="21" t="s">
+      <c r="AP18" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AP18" s="21" t="s">
+      <c r="AQ18" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ18" s="21" t="s">
+      <c r="AR18" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR18" s="21" t="s">
+      <c r="AS18" s="21" t="s">
         <v>1694</v>
       </c>
-      <c r="AS18" s="21">
+      <c r="AT18" s="21">
         <v>5</v>
       </c>
-      <c r="AT18" s="21" t="s">
+      <c r="AU18" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU18" s="21" t="s">
+      <c r="AV18" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV18" s="21" t="s">
+      <c r="AW18" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW18" s="94" t="s">
+      <c r="AX18" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX18" s="31"/>
       <c r="AY18" s="31"/>
       <c r="AZ18" s="31"/>
       <c r="BA18" s="31"/>
@@ -11997,8 +12051,9 @@
       <c r="BN18" s="31"/>
       <c r="BO18" s="31"/>
       <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
     </row>
-    <row r="19" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="19" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
@@ -12084,67 +12139,69 @@
       <c r="AC19" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="AK19" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="AK19" s="2" t="s">
+      <c r="AL19" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="AL19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN19" s="21" t="s">
+      <c r="AM19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO19" s="21" t="s">
         <v>1724</v>
       </c>
-      <c r="AO19" s="21" t="s">
+      <c r="AP19" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AP19" s="21" t="s">
+      <c r="AQ19" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ19" s="21" t="s">
+      <c r="AR19" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR19" s="21" t="s">
+      <c r="AS19" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS19" s="21">
+      <c r="AT19" s="21">
         <v>4</v>
       </c>
-      <c r="AT19" s="21" t="s">
+      <c r="AU19" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU19" s="21" t="s">
+      <c r="AV19" s="21" t="s">
         <v>1863</v>
       </c>
-      <c r="AV19" s="21" t="s">
+      <c r="AW19" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW19" s="94" t="s">
+      <c r="AX19" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX19" s="31"/>
       <c r="AY19" s="31"/>
       <c r="AZ19" s="31"/>
       <c r="BA19" s="31"/>
@@ -12163,8 +12220,9 @@
       <c r="BN19" s="31"/>
       <c r="BO19" s="31"/>
       <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
     </row>
-    <row r="20" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="20" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
@@ -12250,38 +12308,38 @@
       <c r="AC20" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AG20" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AH20" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AI20" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AI20" s="2" t="s">
+      <c r="AJ20" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AJ20" s="2" t="s">
+      <c r="AK20" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AK20" s="2" t="s">
+      <c r="AL20" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AL20" s="2" t="s">
+      <c r="AM20" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="AM20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN20" s="21" t="s">
-        <v>1718</v>
+      <c r="AN20" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO20" s="21" t="s">
         <v>1718</v>
@@ -12290,23 +12348,25 @@
         <v>1718</v>
       </c>
       <c r="AQ20" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR20" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR20" s="21" t="s">
+      <c r="AS20" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS20" s="21">
+      <c r="AT20" s="21">
         <v>4</v>
       </c>
-      <c r="AT20" s="21" t="s">
+      <c r="AU20" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="21" t="s">
+      <c r="AV20" s="21"/>
+      <c r="AW20" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW20" s="94"/>
-      <c r="AX20" s="31"/>
+      <c r="AX20" s="94"/>
       <c r="AY20" s="31"/>
       <c r="AZ20" s="31"/>
       <c r="BA20" s="31"/>
@@ -12325,8 +12385,9 @@
       <c r="BN20" s="31"/>
       <c r="BO20" s="31"/>
       <c r="BP20" s="31"/>
+      <c r="BQ20" s="31"/>
     </row>
-    <row r="21" spans="1:68" s="4" customFormat="1" ht="136">
+    <row r="21" spans="1:69" s="4" customFormat="1" ht="136">
       <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
@@ -12412,38 +12473,38 @@
       <c r="AC21" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AG21" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="AH21" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AJ21" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AK21" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="AK21" s="2" t="s">
+      <c r="AL21" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="AL21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN21" s="21" t="s">
-        <v>1671</v>
+      <c r="AM21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN21" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO21" s="21" t="s">
         <v>1671</v>
@@ -12452,27 +12513,29 @@
         <v>1671</v>
       </c>
       <c r="AQ21" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR21" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR21" s="21" t="s">
+      <c r="AS21" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AS21" s="21">
+      <c r="AT21" s="21">
         <v>5</v>
       </c>
-      <c r="AT21" s="21" t="s">
+      <c r="AU21" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU21" s="21" t="s">
+      <c r="AV21" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AV21" s="21" t="s">
+      <c r="AW21" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW21" s="94" t="s">
+      <c r="AX21" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX21" s="31"/>
       <c r="AY21" s="31"/>
       <c r="AZ21" s="31"/>
       <c r="BA21" s="31"/>
@@ -12491,8 +12554,9 @@
       <c r="BN21" s="31"/>
       <c r="BO21" s="31"/>
       <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
     </row>
-    <row r="22" spans="1:68" s="3" customFormat="1" ht="340">
+    <row r="22" spans="1:69" s="3" customFormat="1" ht="340">
       <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
@@ -12578,38 +12642,38 @@
       <c r="AC22" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AG22" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="AG22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI22" s="2" t="s">
+      <c r="AJ22" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="AJ22" s="2" t="s">
+      <c r="AK22" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="AK22" s="2" t="s">
+      <c r="AL22" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AL22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM22" s="60" t="s">
+      <c r="AM22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN22" s="60" t="s">
         <v>557</v>
-      </c>
-      <c r="AN22" s="21" t="s">
-        <v>1727</v>
       </c>
       <c r="AO22" s="21" t="s">
         <v>1727</v>
@@ -12618,27 +12682,29 @@
         <v>1727</v>
       </c>
       <c r="AQ22" s="21" t="s">
+        <v>1727</v>
+      </c>
+      <c r="AR22" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR22" s="21" t="s">
+      <c r="AS22" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS22" s="21">
+      <c r="AT22" s="21">
         <v>8</v>
       </c>
-      <c r="AT22" s="21" t="s">
+      <c r="AU22" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AU22" s="21" t="s">
+      <c r="AV22" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV22" s="21" t="s">
+      <c r="AW22" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW22" s="94" t="s">
+      <c r="AX22" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX22" s="31"/>
       <c r="AY22" s="31"/>
       <c r="AZ22" s="31"/>
       <c r="BA22" s="31"/>
@@ -12657,8 +12723,9 @@
       <c r="BN22" s="31"/>
       <c r="BO22" s="31"/>
       <c r="BP22" s="31"/>
+      <c r="BQ22" s="31"/>
     </row>
-    <row r="23" spans="1:68" s="4" customFormat="1" ht="323">
+    <row r="23" spans="1:69" s="4" customFormat="1" ht="323">
       <c r="A23" s="29" t="s">
         <v>21</v>
       </c>
@@ -12744,67 +12811,69 @@
       <c r="AC23" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="AD23" s="2" t="s">
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="AG23" s="2" t="s">
+      <c r="AH23" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI23" s="2" t="s">
+      <c r="AJ23" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="AJ23" s="2" t="s">
+      <c r="AK23" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AK23" s="2" t="s">
+      <c r="AL23" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="AL23" s="2" t="s">
+      <c r="AM23" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="AM23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN23" s="21" t="s">
+      <c r="AN23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO23" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO23" s="21" t="s">
-        <v>1725</v>
       </c>
       <c r="AP23" s="21" t="s">
         <v>1725</v>
       </c>
       <c r="AQ23" s="21" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AR23" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR23" s="21" t="s">
+      <c r="AS23" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS23" s="21">
+      <c r="AT23" s="21">
         <v>8</v>
       </c>
-      <c r="AT23" s="21" t="s">
+      <c r="AU23" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU23" s="21" t="s">
+      <c r="AV23" s="21" t="s">
         <v>1864</v>
       </c>
-      <c r="AV23" s="21" t="s">
+      <c r="AW23" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AW23" s="94" t="s">
+      <c r="AX23" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX23" s="31"/>
       <c r="AY23" s="31"/>
       <c r="AZ23" s="31"/>
       <c r="BA23" s="31"/>
@@ -12823,8 +12892,9 @@
       <c r="BN23" s="31"/>
       <c r="BO23" s="31"/>
       <c r="BP23" s="31"/>
+      <c r="BQ23" s="31"/>
     </row>
-    <row r="24" spans="1:68" s="3" customFormat="1" ht="372">
+    <row r="24" spans="1:69" s="3" customFormat="1" ht="372">
       <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
@@ -12910,38 +12980,38 @@
       <c r="AC24" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="AD24" s="2" t="s">
+      <c r="AD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AF24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="AG24" s="2" t="s">
+      <c r="AH24" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="AH24" s="2" t="s">
+      <c r="AI24" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="AI24" s="2" t="s">
+      <c r="AJ24" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="AJ24" s="2" t="s">
+      <c r="AK24" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="AK24" s="2" t="s">
+      <c r="AL24" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="AL24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN24" s="21" t="s">
-        <v>1726</v>
+      <c r="AM24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN24" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO24" s="21" t="s">
         <v>1726</v>
@@ -12950,25 +13020,27 @@
         <v>1726</v>
       </c>
       <c r="AQ24" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AR24" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR24" s="21" t="s">
+      <c r="AS24" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="AS24" s="21">
+      <c r="AT24" s="21">
         <v>5</v>
       </c>
-      <c r="AT24" s="21" t="s">
+      <c r="AU24" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21" t="s">
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW24" s="94" t="s">
+      <c r="AX24" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX24" s="31"/>
       <c r="AY24" s="31"/>
       <c r="AZ24" s="31"/>
       <c r="BA24" s="31"/>
@@ -12987,8 +13059,9 @@
       <c r="BN24" s="31"/>
       <c r="BO24" s="31"/>
       <c r="BP24" s="31"/>
+      <c r="BQ24" s="31"/>
     </row>
-    <row r="25" spans="1:68" s="4" customFormat="1" ht="294" customHeight="1">
+    <row r="25" spans="1:69" s="4" customFormat="1" ht="294" customHeight="1">
       <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
@@ -13074,67 +13147,69 @@
       <c r="AC25" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AF25" s="2" t="s">
+      <c r="AG25" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="AG25" s="2" t="s">
+      <c r="AH25" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="AH25" s="2" t="s">
+      <c r="AI25" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="AI25" s="2" t="s">
+      <c r="AJ25" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="AJ25" s="2" t="s">
+      <c r="AK25" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AK25" s="2" t="s">
+      <c r="AL25" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="AL25" s="2" t="s">
+      <c r="AM25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AM25" s="11" t="s">
+      <c r="AN25" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="AN25" s="64" t="s">
+      <c r="AO25" s="64" t="s">
         <v>1853</v>
-      </c>
-      <c r="AO25" s="64" t="s">
-        <v>1741</v>
       </c>
       <c r="AP25" s="64" t="s">
         <v>1741</v>
       </c>
-      <c r="AQ25" s="21" t="s">
+      <c r="AQ25" s="64" t="s">
+        <v>1741</v>
+      </c>
+      <c r="AR25" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR25" s="21" t="s">
+      <c r="AS25" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS25" s="21">
+      <c r="AT25" s="21">
         <v>4</v>
       </c>
-      <c r="AT25" s="21" t="s">
+      <c r="AU25" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU25" s="21" t="s">
+      <c r="AV25" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV25" s="21" t="s">
+      <c r="AW25" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW25" s="94" t="s">
+      <c r="AX25" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX25" s="31"/>
       <c r="AY25" s="31"/>
       <c r="AZ25" s="31"/>
       <c r="BA25" s="31"/>
@@ -13153,8 +13228,9 @@
       <c r="BN25" s="31"/>
       <c r="BO25" s="31"/>
       <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
     </row>
-    <row r="26" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="26" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A26" s="29" t="s">
         <v>24</v>
       </c>
@@ -13240,61 +13316,63 @@
       <c r="AC26" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AF26" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="AF26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="AG26" s="2" t="s">
+      <c r="AH26" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="AH26" s="2" t="s">
+      <c r="AI26" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="AI26" s="2" t="s">
+      <c r="AJ26" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="AJ26" s="2" t="s">
+      <c r="AK26" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AK26" s="2" t="s">
+      <c r="AL26" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="AL26" s="2" t="s">
+      <c r="AM26" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="21" t="s">
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="21" t="s">
         <v>1717</v>
       </c>
-      <c r="AO26" s="21" t="s">
+      <c r="AP26" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AP26" s="21" t="s">
+      <c r="AQ26" s="21" t="s">
         <v>1716</v>
-      </c>
-      <c r="AQ26" s="21" t="s">
-        <v>1671</v>
       </c>
       <c r="AR26" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AS26" s="21">
+      <c r="AS26" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AT26" s="21">
         <v>2</v>
       </c>
-      <c r="AT26" s="21" t="s">
+      <c r="AU26" s="21" t="s">
         <v>1679</v>
       </c>
-      <c r="AU26" s="21"/>
-      <c r="AV26" s="21" t="s">
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="21" t="s">
         <v>1679</v>
       </c>
-      <c r="AW26" s="94"/>
-      <c r="AX26" s="31"/>
+      <c r="AX26" s="94"/>
       <c r="AY26" s="31"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
@@ -13313,8 +13391,9 @@
       <c r="BN26" s="31"/>
       <c r="BO26" s="31"/>
       <c r="BP26" s="31"/>
+      <c r="BQ26" s="31"/>
     </row>
-    <row r="27" spans="1:68" s="4" customFormat="1" ht="170">
+    <row r="27" spans="1:69" s="4" customFormat="1" ht="170">
       <c r="A27" s="29" t="s">
         <v>25</v>
       </c>
@@ -13400,38 +13479,38 @@
       <c r="AC27" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AD27" s="2" t="s">
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AF27" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AG27" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="AG27" s="2" t="s">
+      <c r="AH27" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="AI27" s="2" t="s">
+      <c r="AJ27" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="AJ27" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AL27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AM27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN27" s="21" t="s">
-        <v>1718</v>
+      <c r="AM27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN27" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO27" s="21" t="s">
         <v>1718</v>
@@ -13440,25 +13519,27 @@
         <v>1718</v>
       </c>
       <c r="AQ27" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR27" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AR27" s="21" t="s">
+      <c r="AS27" s="21" t="s">
         <v>1695</v>
       </c>
-      <c r="AS27" s="21">
+      <c r="AT27" s="21">
         <v>4</v>
       </c>
-      <c r="AT27" s="21" t="s">
+      <c r="AU27" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU27" s="21"/>
-      <c r="AV27" s="21" t="s">
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW27" s="94" t="s">
+      <c r="AX27" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX27" s="31"/>
       <c r="AY27" s="31"/>
       <c r="AZ27" s="31"/>
       <c r="BA27" s="31"/>
@@ -13477,8 +13558,9 @@
       <c r="BN27" s="31"/>
       <c r="BO27" s="31"/>
       <c r="BP27" s="31"/>
+      <c r="BQ27" s="31"/>
     </row>
-    <row r="28" spans="1:68" s="3" customFormat="1" ht="356">
+    <row r="28" spans="1:69" s="3" customFormat="1" ht="356">
       <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
@@ -13564,65 +13646,67 @@
       <c r="AC28" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="AD28" s="2" t="s">
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AF28" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="AF28" s="2" t="s">
+      <c r="AG28" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AG28" s="2" t="s">
+      <c r="AH28" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="AH28" s="2" t="s">
+      <c r="AI28" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="AI28" s="2" t="s">
+      <c r="AJ28" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="AJ28" s="2" t="s">
+      <c r="AK28" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="AK28" s="2" t="s">
+      <c r="AL28" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="AL28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN28" s="21" t="s">
+      <c r="AM28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO28" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AO28" s="21" t="s">
+      <c r="AP28" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AP28" s="21" t="s">
+      <c r="AQ28" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ28" s="21" t="s">
+      <c r="AR28" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR28" s="21" t="s">
+      <c r="AS28" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS28" s="21">
+      <c r="AT28" s="21">
         <v>5</v>
       </c>
-      <c r="AT28" s="21" t="s">
+      <c r="AU28" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21" t="s">
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW28" s="94" t="s">
+      <c r="AX28" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX28" s="31"/>
       <c r="AY28" s="31"/>
       <c r="AZ28" s="31"/>
       <c r="BA28" s="31"/>
@@ -13641,8 +13725,9 @@
       <c r="BN28" s="31"/>
       <c r="BO28" s="31"/>
       <c r="BP28" s="31"/>
+      <c r="BQ28" s="31"/>
     </row>
-    <row r="29" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="29" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
@@ -13728,37 +13813,37 @@
       <c r="AC29" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AF29" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="AF29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="AG29" s="2" t="s">
+      <c r="AH29" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="AH29" s="2" t="s">
+      <c r="AI29" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="AI29" s="2" t="s">
+      <c r="AJ29" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="AJ29" s="2" t="s">
+      <c r="AK29" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="AK29" s="2" t="s">
+      <c r="AL29" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="AL29" s="2" t="s">
+      <c r="AM29" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="21" t="s">
-        <v>1726</v>
-      </c>
+      <c r="AN29" s="11"/>
       <c r="AO29" s="21" t="s">
         <v>1726</v>
       </c>
@@ -13766,25 +13851,27 @@
         <v>1726</v>
       </c>
       <c r="AQ29" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AR29" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR29" s="21" t="s">
+      <c r="AS29" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS29" s="21">
+      <c r="AT29" s="21">
         <v>6</v>
       </c>
-      <c r="AT29" s="21" t="s">
+      <c r="AU29" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU29" s="21" t="s">
+      <c r="AV29" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV29" s="21" t="s">
+      <c r="AW29" s="21" t="s">
         <v>1677</v>
       </c>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="31"/>
+      <c r="AX29" s="94"/>
       <c r="AY29" s="31"/>
       <c r="AZ29" s="31"/>
       <c r="BA29" s="31"/>
@@ -13803,8 +13890,9 @@
       <c r="BN29" s="31"/>
       <c r="BO29" s="31"/>
       <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
     </row>
-    <row r="30" spans="1:68" s="3" customFormat="1" ht="272">
+    <row r="30" spans="1:69" s="3" customFormat="1" ht="272">
       <c r="A30" s="29" t="s">
         <v>28</v>
       </c>
@@ -13890,37 +13978,37 @@
       <c r="AC30" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="AD30" s="2" t="s">
+      <c r="AD30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AF30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="AG30" s="2" t="s">
+      <c r="AH30" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="AH30" s="2" t="s">
+      <c r="AI30" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI30" s="2" t="s">
+      <c r="AJ30" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="AJ30" s="2" t="s">
+      <c r="AK30" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="AK30" s="2" t="s">
+      <c r="AL30" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="AL30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="21" t="s">
-        <v>1718</v>
-      </c>
+      <c r="AM30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN30" s="11"/>
       <c r="AO30" s="21" t="s">
         <v>1718</v>
       </c>
@@ -13928,27 +14016,29 @@
         <v>1718</v>
       </c>
       <c r="AQ30" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR30" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR30" s="21" t="s">
+      <c r="AS30" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS30" s="21">
+      <c r="AT30" s="21">
         <v>5</v>
       </c>
-      <c r="AT30" s="21" t="s">
+      <c r="AU30" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU30" s="21" t="s">
+      <c r="AV30" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AV30" s="21" t="s">
+      <c r="AW30" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AW30" s="94" t="s">
+      <c r="AX30" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX30" s="31"/>
       <c r="AY30" s="31"/>
       <c r="AZ30" s="31"/>
       <c r="BA30" s="31"/>
@@ -13967,8 +14057,9 @@
       <c r="BN30" s="31"/>
       <c r="BO30" s="31"/>
       <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
     </row>
-    <row r="31" spans="1:68" s="4" customFormat="1" ht="404">
+    <row r="31" spans="1:69" s="4" customFormat="1" ht="404">
       <c r="A31" s="29" t="s">
         <v>29</v>
       </c>
@@ -14054,63 +14145,65 @@
       <c r="AC31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AD31" s="2" t="s">
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AG31" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="AG31" s="2" t="s">
+      <c r="AH31" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="AI31" s="2" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="AJ31" s="2" t="s">
+      <c r="AK31" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="AK31" s="2" t="s">
+      <c r="AL31" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="AL31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN31" s="21" t="s">
+      <c r="AM31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO31" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO31" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP31" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AQ31" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR31" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AR31" s="21" t="s">
+      <c r="AS31" s="21" t="s">
         <v>1696</v>
       </c>
-      <c r="AS31" s="21">
+      <c r="AT31" s="21">
         <v>6</v>
       </c>
-      <c r="AT31" s="21" t="s">
+      <c r="AU31" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21" t="s">
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW31" s="94"/>
-      <c r="AX31" s="31"/>
+      <c r="AX31" s="94"/>
       <c r="AY31" s="31"/>
       <c r="AZ31" s="31"/>
       <c r="BA31" s="31"/>
@@ -14129,8 +14222,9 @@
       <c r="BN31" s="31"/>
       <c r="BO31" s="31"/>
       <c r="BP31" s="31"/>
+      <c r="BQ31" s="31"/>
     </row>
-    <row r="32" spans="1:68" s="69" customFormat="1" ht="409.6">
+    <row r="32" spans="1:69" s="69" customFormat="1" ht="409.6">
       <c r="A32" s="65" t="s">
         <v>30</v>
       </c>
@@ -14216,65 +14310,67 @@
       <c r="AC32" s="44" t="s">
         <v>773</v>
       </c>
-      <c r="AD32" s="44" t="s">
+      <c r="AD32" s="44">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="44" t="s">
         <v>774</v>
       </c>
-      <c r="AE32" s="44" t="s">
+      <c r="AF32" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="AF32" s="44" t="s">
+      <c r="AG32" s="44" t="s">
         <v>775</v>
       </c>
-      <c r="AG32" s="44" t="s">
+      <c r="AH32" s="44" t="s">
         <v>776</v>
       </c>
-      <c r="AH32" s="44" t="s">
-        <v>71</v>
-      </c>
       <c r="AI32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ32" s="44" t="s">
         <v>777</v>
       </c>
-      <c r="AJ32" s="44" t="s">
+      <c r="AK32" s="44" t="s">
         <v>778</v>
       </c>
-      <c r="AK32" s="44" t="s">
+      <c r="AL32" s="44" t="s">
         <v>779</v>
       </c>
-      <c r="AL32" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM32" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN32" s="67" t="s">
+      <c r="AM32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN32" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO32" s="67" t="s">
         <v>1728</v>
       </c>
-      <c r="AO32" s="67" t="s">
+      <c r="AP32" s="67" t="s">
         <v>1723</v>
       </c>
-      <c r="AP32" s="67" t="s">
+      <c r="AQ32" s="67" t="s">
         <v>1728</v>
       </c>
-      <c r="AQ32" s="67" t="s">
+      <c r="AR32" s="67" t="s">
         <v>1667</v>
       </c>
-      <c r="AR32" s="67" t="s">
+      <c r="AS32" s="67" t="s">
         <v>1508</v>
       </c>
-      <c r="AS32" s="67">
+      <c r="AT32" s="67">
         <v>8</v>
       </c>
-      <c r="AT32" s="67" t="s">
+      <c r="AU32" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="AU32" s="67"/>
-      <c r="AV32" s="21" t="s">
+      <c r="AV32" s="67"/>
+      <c r="AW32" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW32" s="94" t="s">
+      <c r="AX32" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX32" s="68"/>
       <c r="AY32" s="68"/>
       <c r="AZ32" s="68"/>
       <c r="BA32" s="68"/>
@@ -14293,8 +14389,9 @@
       <c r="BN32" s="68"/>
       <c r="BO32" s="68"/>
       <c r="BP32" s="68"/>
+      <c r="BQ32" s="68"/>
     </row>
-    <row r="33" spans="1:68" s="4" customFormat="1" ht="204">
+    <row r="33" spans="1:69" s="4" customFormat="1" ht="204">
       <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
@@ -14380,63 +14477,65 @@
       <c r="AC33" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="AD33" s="2" t="s">
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="AE33" s="2" t="s">
+      <c r="AF33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF33" s="2" t="s">
+      <c r="AG33" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="AG33" s="2" t="s">
+      <c r="AH33" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AI33" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="AI33" s="2" t="s">
+      <c r="AJ33" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="AJ33" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL33" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="AL33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN33" s="21" t="s">
+      <c r="AM33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO33" s="21" t="s">
         <v>1716</v>
-      </c>
-      <c r="AO33" s="21" t="s">
-        <v>1729</v>
       </c>
       <c r="AP33" s="21" t="s">
         <v>1729</v>
       </c>
       <c r="AQ33" s="21" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AR33" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR33" s="21" t="s">
+      <c r="AS33" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS33" s="21">
+      <c r="AT33" s="21">
         <v>5</v>
       </c>
-      <c r="AT33" s="67" t="s">
+      <c r="AU33" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="AU33" s="67"/>
-      <c r="AV33" s="21" t="s">
+      <c r="AV33" s="67"/>
+      <c r="AW33" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW33" s="94"/>
-      <c r="AX33" s="31"/>
+      <c r="AX33" s="94"/>
       <c r="AY33" s="31"/>
       <c r="AZ33" s="31"/>
       <c r="BA33" s="31"/>
@@ -14455,8 +14554,9 @@
       <c r="BN33" s="31"/>
       <c r="BO33" s="31"/>
       <c r="BP33" s="31"/>
+      <c r="BQ33" s="31"/>
     </row>
-    <row r="34" spans="1:68" s="3" customFormat="1" ht="136">
+    <row r="34" spans="1:69" s="3" customFormat="1" ht="136">
       <c r="A34" s="29" t="s">
         <v>32</v>
       </c>
@@ -14542,67 +14642,69 @@
       <c r="AC34" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="AD34" s="2" t="s">
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="AE34" s="2" t="s">
+      <c r="AF34" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AF34" s="2" t="s">
+      <c r="AG34" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="AG34" s="2" t="s">
+      <c r="AH34" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AI34" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="AI34" s="2" t="s">
+      <c r="AJ34" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="AJ34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL34" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="AL34" s="2" t="s">
+      <c r="AM34" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="AM34" s="52" t="s">
+      <c r="AN34" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="AN34" s="21" t="s">
+      <c r="AO34" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AO34" s="21" t="s">
+      <c r="AP34" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AP34" s="21" t="s">
+      <c r="AQ34" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ34" s="21" t="s">
+      <c r="AR34" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR34" s="21" t="s">
+      <c r="AS34" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS34" s="21">
+      <c r="AT34" s="21">
         <v>6</v>
       </c>
-      <c r="AT34" s="21" t="s">
+      <c r="AU34" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU34" s="21" t="s">
+      <c r="AV34" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV34" s="21" t="s">
+      <c r="AW34" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW34" s="94" t="s">
+      <c r="AX34" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX34" s="31"/>
       <c r="AY34" s="31"/>
       <c r="AZ34" s="31"/>
       <c r="BA34" s="31"/>
@@ -14621,8 +14723,9 @@
       <c r="BN34" s="31"/>
       <c r="BO34" s="31"/>
       <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
     </row>
-    <row r="35" spans="1:68" s="4" customFormat="1" ht="221">
+    <row r="35" spans="1:69" s="4" customFormat="1" ht="221">
       <c r="A35" s="29" t="s">
         <v>33</v>
       </c>
@@ -14708,38 +14811,38 @@
       <c r="AC35" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="AD35" s="2" t="s">
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="AE35" s="2" t="s">
+      <c r="AF35" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="AF35" s="2" t="s">
+      <c r="AG35" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="AG35" s="2" t="s">
+      <c r="AH35" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="AH35" s="2" t="s">
+      <c r="AI35" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="AI35" s="2" t="s">
+      <c r="AJ35" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="AJ35" s="2" t="s">
+      <c r="AK35" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AK35" s="2" t="s">
+      <c r="AL35" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="AL35" s="2" t="s">
+      <c r="AM35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AM35" s="11" t="s">
+      <c r="AN35" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="AN35" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AO35" s="21" t="s">
         <v>1716</v>
@@ -14748,27 +14851,29 @@
         <v>1716</v>
       </c>
       <c r="AQ35" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR35" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR35" s="21" t="s">
+      <c r="AS35" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS35" s="21">
+      <c r="AT35" s="21">
         <v>6</v>
       </c>
-      <c r="AT35" s="21" t="s">
+      <c r="AU35" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU35" s="21" t="s">
+      <c r="AV35" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV35" s="21" t="s">
+      <c r="AW35" s="21" t="s">
         <v>1866</v>
       </c>
-      <c r="AW35" s="94" t="s">
+      <c r="AX35" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX35" s="31"/>
       <c r="AY35" s="31"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="31"/>
@@ -14787,8 +14892,9 @@
       <c r="BN35" s="31"/>
       <c r="BO35" s="31"/>
       <c r="BP35" s="31"/>
+      <c r="BQ35" s="31"/>
     </row>
-    <row r="36" spans="1:68" s="3" customFormat="1" ht="340">
+    <row r="36" spans="1:69" s="3" customFormat="1" ht="340">
       <c r="A36" s="29" t="s">
         <v>34</v>
       </c>
@@ -14874,65 +14980,67 @@
       <c r="AC36" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AD36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="AE36" s="2" t="s">
+      <c r="AF36" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="AF36" s="2" t="s">
+      <c r="AG36" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="AG36" s="2" t="s">
+      <c r="AH36" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="AH36" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="AI36" s="2" t="s">
+      <c r="AJ36" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="AJ36" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="AK36" s="2" t="s">
         <v>864</v>
       </c>
       <c r="AL36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN36" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO36" s="21" t="s">
         <v>1718</v>
-      </c>
-      <c r="AO36" s="21" t="s">
-        <v>1724</v>
       </c>
       <c r="AP36" s="21" t="s">
         <v>1724</v>
       </c>
       <c r="AQ36" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AR36" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AR36" s="21" t="s">
+      <c r="AS36" s="21" t="s">
         <v>1697</v>
       </c>
-      <c r="AS36" s="21">
+      <c r="AT36" s="21">
         <v>0</v>
       </c>
-      <c r="AT36" s="21" t="s">
+      <c r="AU36" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21" t="s">
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW36" s="94" t="s">
+      <c r="AX36" s="94" t="s">
         <v>1867</v>
       </c>
-      <c r="AX36" s="31"/>
       <c r="AY36" s="31"/>
       <c r="AZ36" s="31"/>
       <c r="BA36" s="31"/>
@@ -14951,8 +15059,9 @@
       <c r="BN36" s="31"/>
       <c r="BO36" s="31"/>
       <c r="BP36" s="31"/>
+      <c r="BQ36" s="31"/>
     </row>
-    <row r="37" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="37" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A37" s="29" t="s">
         <v>35</v>
       </c>
@@ -15038,63 +15147,65 @@
       <c r="AC37" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="AE37" s="2" t="s">
+      <c r="AF37" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AG37" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI37" s="2" t="s">
+      <c r="AJ37" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="AJ37" s="38" t="s">
+      <c r="AK37" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="AK37" s="2" t="s">
+      <c r="AL37" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="AL37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN37" s="21" t="s">
+      <c r="AM37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO37" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AO37" s="21" t="s">
+      <c r="AP37" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AP37" s="21" t="s">
+      <c r="AQ37" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ37" s="21" t="s">
+      <c r="AR37" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR37" s="21" t="s">
+      <c r="AS37" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AS37" s="21">
+      <c r="AT37" s="21">
         <v>6</v>
       </c>
-      <c r="AT37" s="21" t="s">
+      <c r="AU37" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21" t="s">
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW37" s="94"/>
-      <c r="AX37" s="31"/>
+      <c r="AX37" s="94"/>
       <c r="AY37" s="31"/>
       <c r="AZ37" s="31"/>
       <c r="BA37" s="31"/>
@@ -15113,8 +15224,9 @@
       <c r="BN37" s="31"/>
       <c r="BO37" s="31"/>
       <c r="BP37" s="31"/>
+      <c r="BQ37" s="31"/>
     </row>
-    <row r="38" spans="1:68" s="3" customFormat="1" ht="221">
+    <row r="38" spans="1:69" s="3" customFormat="1" ht="221">
       <c r="A38" s="29" t="s">
         <v>36</v>
       </c>
@@ -15200,38 +15312,38 @@
       <c r="AC38" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="AD38" s="2" t="s">
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="AE38" s="2" t="s">
+      <c r="AF38" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="AI38" s="2" t="s">
+      <c r="AJ38" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="AJ38" s="2" t="s">
+      <c r="AK38" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="AK38" s="2" t="s">
+      <c r="AL38" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="AL38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM38" s="11" t="s">
+      <c r="AM38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN38" s="11" t="s">
         <v>904</v>
-      </c>
-      <c r="AN38" s="21" t="s">
-        <v>1730</v>
       </c>
       <c r="AO38" s="21" t="s">
         <v>1730</v>
@@ -15240,27 +15352,29 @@
         <v>1730</v>
       </c>
       <c r="AQ38" s="21" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AR38" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AR38" s="21" t="s">
+      <c r="AS38" s="21" t="s">
         <v>1698</v>
       </c>
-      <c r="AS38" s="21">
+      <c r="AT38" s="21">
         <v>0</v>
       </c>
-      <c r="AT38" s="21" t="s">
+      <c r="AU38" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU38" s="21" t="s">
+      <c r="AV38" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV38" s="21" t="s">
+      <c r="AW38" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW38" s="94" t="s">
+      <c r="AX38" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX38" s="31"/>
       <c r="AY38" s="31"/>
       <c r="AZ38" s="31"/>
       <c r="BA38" s="31"/>
@@ -15279,8 +15393,9 @@
       <c r="BN38" s="31"/>
       <c r="BO38" s="31"/>
       <c r="BP38" s="31"/>
+      <c r="BQ38" s="31"/>
     </row>
-    <row r="39" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="39" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A39" s="29" t="s">
         <v>37</v>
       </c>
@@ -15366,37 +15481,37 @@
       <c r="AC39" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="AD39" s="2" t="s">
+      <c r="AD39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AF39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="AI39" s="2" t="s">
+      <c r="AJ39" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AK39" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="AK39" s="2" t="s">
+      <c r="AL39" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="AL39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="21" t="s">
-        <v>1731</v>
-      </c>
+      <c r="AM39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN39" s="11"/>
       <c r="AO39" s="21" t="s">
         <v>1731</v>
       </c>
@@ -15404,27 +15519,29 @@
         <v>1731</v>
       </c>
       <c r="AQ39" s="21" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AR39" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR39" s="21" t="s">
+      <c r="AS39" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS39" s="21">
+      <c r="AT39" s="21">
         <v>8</v>
       </c>
-      <c r="AT39" s="21" t="s">
+      <c r="AU39" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU39" s="21" t="s">
+      <c r="AV39" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV39" s="21" t="s">
+      <c r="AW39" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW39" s="94" t="s">
+      <c r="AX39" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX39" s="31"/>
       <c r="AY39" s="31"/>
       <c r="AZ39" s="31"/>
       <c r="BA39" s="31"/>
@@ -15443,8 +15560,9 @@
       <c r="BN39" s="31"/>
       <c r="BO39" s="31"/>
       <c r="BP39" s="31"/>
+      <c r="BQ39" s="31"/>
     </row>
-    <row r="40" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="40" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A40" s="29" t="s">
         <v>38</v>
       </c>
@@ -15530,38 +15648,36 @@
       <c r="AC40" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="AD40" s="2" t="s">
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AF40" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="AF40" s="2" t="s">
+      <c r="AG40" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="AG40" s="2" t="s">
+      <c r="AH40" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="AH40" s="2" t="s">
+      <c r="AI40" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="AI40" s="2" t="s">
+      <c r="AJ40" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="AJ40" s="2" t="s">
+      <c r="AK40" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="AK40" s="2" t="s">
+      <c r="AL40" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="AL40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN40" s="21" t="s">
-        <v>1716</v>
+      <c r="AM40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN40" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO40" s="21" t="s">
         <v>1716</v>
@@ -15570,25 +15686,27 @@
         <v>1716</v>
       </c>
       <c r="AQ40" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR40" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AR40" s="21" t="s">
+      <c r="AS40" s="21" t="s">
         <v>1699</v>
       </c>
-      <c r="AS40" s="21">
+      <c r="AT40" s="21">
         <v>5</v>
       </c>
-      <c r="AT40" s="21" t="s">
+      <c r="AU40" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21" t="s">
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW40" s="94" t="s">
+      <c r="AX40" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX40" s="31"/>
       <c r="AY40" s="31"/>
       <c r="AZ40" s="31"/>
       <c r="BA40" s="31"/>
@@ -15607,8 +15725,9 @@
       <c r="BN40" s="31"/>
       <c r="BO40" s="31"/>
       <c r="BP40" s="31"/>
+      <c r="BQ40" s="31"/>
     </row>
-    <row r="41" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="41" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A41" s="29" t="s">
         <v>39</v>
       </c>
@@ -15694,65 +15813,67 @@
       <c r="AC41" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="AD41" s="2" t="s">
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="AE41" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="AG41" s="18" t="s">
+      <c r="AH41" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="AH41" s="2" t="s">
+      <c r="AI41" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="AI41" s="2" t="s">
+      <c r="AJ41" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="AJ41" s="2" t="s">
+      <c r="AK41" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="AK41" s="2" t="s">
+      <c r="AL41" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="AL41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM41" s="11"/>
-      <c r="AN41" s="21" t="s">
-        <v>1671</v>
-      </c>
+      <c r="AM41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN41" s="11"/>
       <c r="AO41" s="21" t="s">
         <v>1671</v>
       </c>
       <c r="AP41" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AQ41" s="21" t="s">
         <v>1732</v>
       </c>
-      <c r="AQ41" s="21" t="s">
+      <c r="AR41" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR41" s="21" t="s">
+      <c r="AS41" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AS41" s="21">
+      <c r="AT41" s="21">
         <v>4</v>
       </c>
-      <c r="AT41" s="21" t="s">
+      <c r="AU41" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU41" s="21" t="s">
+      <c r="AV41" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV41" s="21" t="s">
+      <c r="AW41" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW41" s="94" t="s">
+      <c r="AX41" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX41" s="31"/>
       <c r="AY41" s="31"/>
       <c r="AZ41" s="31"/>
       <c r="BA41" s="31"/>
@@ -15771,8 +15892,9 @@
       <c r="BN41" s="31"/>
       <c r="BO41" s="31"/>
       <c r="BP41" s="31"/>
+      <c r="BQ41" s="31"/>
     </row>
-    <row r="42" spans="1:68" s="70" customFormat="1" ht="372">
+    <row r="42" spans="1:69" s="70" customFormat="1" ht="372">
       <c r="A42" s="29" t="s">
         <v>40</v>
       </c>
@@ -15858,67 +15980,69 @@
       <c r="AC42" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="AD42" s="2" t="s">
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AF42" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AG42" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="AG42" s="2" t="s">
+      <c r="AH42" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="AH42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AI42" s="2" t="s">
+      <c r="AJ42" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="AJ42" s="2" t="s">
+      <c r="AK42" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="AK42" s="2" t="s">
+      <c r="AL42" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AL42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM42" s="11" t="s">
+      <c r="AM42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN42" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AN42" s="21" t="s">
+      <c r="AO42" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO42" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP42" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AQ42" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR42" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR42" s="21" t="s">
+      <c r="AS42" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS42" s="21">
+      <c r="AT42" s="21">
         <v>6</v>
       </c>
-      <c r="AT42" s="21" t="s">
+      <c r="AU42" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU42" s="21" t="s">
+      <c r="AV42" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV42" s="21" t="s">
+      <c r="AW42" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW42" s="94" t="s">
+      <c r="AX42" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX42" s="31"/>
       <c r="AY42" s="31"/>
       <c r="AZ42" s="31"/>
       <c r="BA42" s="31"/>
@@ -15937,8 +16061,9 @@
       <c r="BN42" s="31"/>
       <c r="BO42" s="31"/>
       <c r="BP42" s="31"/>
+      <c r="BQ42" s="31"/>
     </row>
-    <row r="43" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="43" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A43" s="29" t="s">
         <v>41</v>
       </c>
@@ -16024,38 +16149,38 @@
       <c r="AC43" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="AD43" s="2" t="s">
+      <c r="AD43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AF43" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AG43" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="AH43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI43" s="2" t="s">
+      <c r="AJ43" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="AJ43" s="2" t="s">
+      <c r="AK43" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="AK43" s="2" t="s">
+      <c r="AL43" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="AL43" s="2" t="s">
+      <c r="AM43" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="AM43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN43" s="21" t="s">
-        <v>1724</v>
+      <c r="AN43" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO43" s="21" t="s">
         <v>1724</v>
@@ -16064,27 +16189,29 @@
         <v>1724</v>
       </c>
       <c r="AQ43" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AR43" s="21" t="s">
         <v>1668</v>
       </c>
-      <c r="AR43" s="21" t="s">
+      <c r="AS43" s="21" t="s">
         <v>1700</v>
       </c>
-      <c r="AS43" s="21">
+      <c r="AT43" s="21">
         <v>5</v>
       </c>
-      <c r="AT43" s="21" t="s">
+      <c r="AU43" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU43" s="21" t="s">
+      <c r="AV43" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV43" s="21" t="s">
+      <c r="AW43" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW43" s="94" t="s">
+      <c r="AX43" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AX43" s="31"/>
       <c r="AY43" s="31"/>
       <c r="AZ43" s="31"/>
       <c r="BA43" s="31"/>
@@ -16103,8 +16230,9 @@
       <c r="BN43" s="31"/>
       <c r="BO43" s="31"/>
       <c r="BP43" s="31"/>
+      <c r="BQ43" s="31"/>
     </row>
-    <row r="44" spans="1:68" s="3" customFormat="1" ht="356">
+    <row r="44" spans="1:69" s="3" customFormat="1" ht="356">
       <c r="A44" s="29" t="s">
         <v>42</v>
       </c>
@@ -16190,38 +16318,38 @@
       <c r="AC44" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="AD44" s="2" t="s">
+      <c r="AD44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="AE44" s="2" t="s">
+      <c r="AF44" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF44" s="2" t="s">
+      <c r="AG44" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="AG44" s="2" t="s">
+      <c r="AH44" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="AH44" s="2" t="s">
+      <c r="AI44" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI44" s="2" t="s">
+      <c r="AJ44" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="AJ44" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL44" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="AL44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN44" s="21" t="s">
-        <v>1716</v>
+      <c r="AM44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN44" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO44" s="21" t="s">
         <v>1716</v>
@@ -16230,27 +16358,29 @@
         <v>1716</v>
       </c>
       <c r="AQ44" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR44" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR44" s="21" t="s">
+      <c r="AS44" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AS44" s="21">
+      <c r="AT44" s="21">
         <v>7</v>
       </c>
-      <c r="AT44" s="21" t="s">
+      <c r="AU44" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU44" s="21" t="s">
+      <c r="AV44" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV44" s="21" t="s">
+      <c r="AW44" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW44" s="94" t="s">
+      <c r="AX44" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX44" s="31"/>
       <c r="AY44" s="31"/>
       <c r="AZ44" s="31"/>
       <c r="BA44" s="31"/>
@@ -16269,8 +16399,9 @@
       <c r="BN44" s="31"/>
       <c r="BO44" s="31"/>
       <c r="BP44" s="31"/>
+      <c r="BQ44" s="31"/>
     </row>
-    <row r="45" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="45" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A45" s="29" t="s">
         <v>43</v>
       </c>
@@ -16356,65 +16487,67 @@
       <c r="AC45" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="AD45" s="2" t="s">
+      <c r="AD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="AE45" s="2" t="s">
+      <c r="AF45" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AF45" s="2" t="s">
+      <c r="AG45" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="AG45" s="2" t="s">
+      <c r="AH45" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="AH45" s="2" t="s">
+      <c r="AI45" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="AI45" s="2" t="s">
+      <c r="AJ45" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="AJ45" s="2" t="s">
+      <c r="AK45" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AK45" s="2" t="s">
+      <c r="AL45" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="AL45" s="2" t="s">
+      <c r="AM45" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="AM45" s="11"/>
-      <c r="AN45" s="21" t="s">
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="21" t="s">
         <v>1727</v>
-      </c>
-      <c r="AO45" s="21" t="s">
-        <v>1724</v>
       </c>
       <c r="AP45" s="21" t="s">
         <v>1724</v>
       </c>
       <c r="AQ45" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AR45" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR45" s="21" t="s">
+      <c r="AS45" s="21" t="s">
         <v>1672</v>
       </c>
-      <c r="AS45" s="21">
+      <c r="AT45" s="21">
         <v>9</v>
       </c>
-      <c r="AT45" s="21" t="s">
+      <c r="AU45" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU45" s="21" t="s">
+      <c r="AV45" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV45" s="21" t="s">
+      <c r="AW45" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW45" s="94" t="s">
+      <c r="AX45" s="94" t="s">
         <v>1868</v>
       </c>
-      <c r="AX45" s="31"/>
       <c r="AY45" s="31"/>
       <c r="AZ45" s="31"/>
       <c r="BA45" s="31"/>
@@ -16433,8 +16566,9 @@
       <c r="BN45" s="31"/>
       <c r="BO45" s="31"/>
       <c r="BP45" s="31"/>
+      <c r="BQ45" s="31"/>
     </row>
-    <row r="46" spans="1:68" s="3" customFormat="1" ht="340">
+    <row r="46" spans="1:69" s="3" customFormat="1" ht="340">
       <c r="A46" s="29" t="s">
         <v>44</v>
       </c>
@@ -16520,67 +16654,69 @@
       <c r="AC46" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="AD46" s="2" t="s">
+      <c r="AD46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="AE46" s="2" t="s">
+      <c r="AF46" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="AF46" s="2" t="s">
+      <c r="AG46" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AH46" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="AH46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="AI46" s="2" t="s">
+      <c r="AJ46" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="AJ46" s="2" t="s">
+      <c r="AK46" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="AK46" s="2" t="s">
+      <c r="AL46" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="AL46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN46" s="21" t="s">
+      <c r="AM46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO46" s="21" t="s">
         <v>1716</v>
-      </c>
-      <c r="AO46" s="21" t="s">
-        <v>1733</v>
       </c>
       <c r="AP46" s="21" t="s">
         <v>1733</v>
       </c>
       <c r="AQ46" s="21" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AR46" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR46" s="21" t="s">
+      <c r="AS46" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AS46" s="21">
+      <c r="AT46" s="21">
         <v>4</v>
       </c>
-      <c r="AT46" s="21" t="s">
+      <c r="AU46" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU46" s="21" t="s">
+      <c r="AV46" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV46" s="21" t="s">
+      <c r="AW46" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW46" s="94" t="s">
+      <c r="AX46" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX46" s="31"/>
       <c r="AY46" s="31"/>
       <c r="AZ46" s="31"/>
       <c r="BA46" s="31"/>
@@ -16599,8 +16735,9 @@
       <c r="BN46" s="31"/>
       <c r="BO46" s="31"/>
       <c r="BP46" s="31"/>
+      <c r="BQ46" s="31"/>
     </row>
-    <row r="47" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="47" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A47" s="29" t="s">
         <v>45</v>
       </c>
@@ -16684,38 +16821,38 @@
       <c r="AC47" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="AD47" s="2" t="s">
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="AE47" s="2" t="s">
+      <c r="AF47" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="AF47" s="2" t="s">
+      <c r="AG47" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="AH47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="AI47" s="2" t="s">
+      <c r="AJ47" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="AJ47" s="2" t="s">
+      <c r="AK47" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="AK47" s="2" t="s">
+      <c r="AL47" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="AL47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN47" s="21" t="s">
-        <v>1716</v>
+      <c r="AM47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN47" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO47" s="21" t="s">
         <v>1716</v>
@@ -16724,23 +16861,25 @@
         <v>1716</v>
       </c>
       <c r="AQ47" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR47" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR47" s="21" t="s">
+      <c r="AS47" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS47" s="21">
+      <c r="AT47" s="21">
         <v>8</v>
       </c>
-      <c r="AT47" s="21" t="s">
+      <c r="AU47" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21" t="s">
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21" t="s">
         <v>1677</v>
       </c>
-      <c r="AW47" s="94"/>
-      <c r="AX47" s="31"/>
+      <c r="AX47" s="94"/>
       <c r="AY47" s="31"/>
       <c r="AZ47" s="31"/>
       <c r="BA47" s="31"/>
@@ -16759,8 +16898,9 @@
       <c r="BN47" s="31"/>
       <c r="BO47" s="31"/>
       <c r="BP47" s="31"/>
+      <c r="BQ47" s="31"/>
     </row>
-    <row r="48" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="48" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A48" s="29" t="s">
         <v>46</v>
       </c>
@@ -16846,38 +16986,38 @@
       <c r="AC48" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="AD48" s="2" t="s">
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="AE48" s="2" t="s">
+      <c r="AF48" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="AF48" s="2" t="s">
+      <c r="AG48" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AH48" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="AH48" s="2" t="s">
+      <c r="AI48" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="AI48" s="2" t="s">
-        <v>1110</v>
       </c>
       <c r="AJ48" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="AK48" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AL48" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="AL48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM48" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN48" s="21" t="s">
-        <v>1718</v>
+      <c r="AM48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN48" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO48" s="21" t="s">
         <v>1718</v>
@@ -16886,25 +17026,27 @@
         <v>1718</v>
       </c>
       <c r="AQ48" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR48" s="21" t="s">
         <v>1681</v>
       </c>
-      <c r="AR48" s="21" t="s">
+      <c r="AS48" s="21" t="s">
         <v>1701</v>
       </c>
-      <c r="AS48" s="21">
+      <c r="AT48" s="21">
         <v>6</v>
       </c>
-      <c r="AT48" s="21" t="s">
+      <c r="AU48" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU48" s="21" t="s">
+      <c r="AV48" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV48" s="21" t="s">
+      <c r="AW48" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AW48" s="94"/>
-      <c r="AX48" s="31"/>
+      <c r="AX48" s="94"/>
       <c r="AY48" s="31"/>
       <c r="AZ48" s="31"/>
       <c r="BA48" s="31"/>
@@ -16923,8 +17065,9 @@
       <c r="BN48" s="31"/>
       <c r="BO48" s="31"/>
       <c r="BP48" s="31"/>
+      <c r="BQ48" s="31"/>
     </row>
-    <row r="49" spans="1:68" s="4" customFormat="1" ht="323">
+    <row r="49" spans="1:69" s="4" customFormat="1" ht="323">
       <c r="A49" s="29" t="s">
         <v>47</v>
       </c>
@@ -17010,37 +17153,37 @@
       <c r="AC49" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="AD49" s="2" t="s">
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="AE49" s="2" t="s">
+      <c r="AF49" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="AF49" s="2" t="s">
+      <c r="AG49" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="AG49" s="2" t="s">
+      <c r="AH49" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="AH49" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="AI49" s="2" t="s">
+      <c r="AJ49" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="AJ49" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL49" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="AL49" s="2" t="s">
+      <c r="AM49" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="21" t="s">
-        <v>1718</v>
-      </c>
+      <c r="AN49" s="52"/>
       <c r="AO49" s="21" t="s">
         <v>1718</v>
       </c>
@@ -17048,27 +17191,29 @@
         <v>1718</v>
       </c>
       <c r="AQ49" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR49" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR49" s="21" t="s">
+      <c r="AS49" s="21" t="s">
         <v>1691</v>
       </c>
-      <c r="AS49" s="21">
+      <c r="AT49" s="21">
         <v>5</v>
       </c>
-      <c r="AT49" s="21" t="s">
+      <c r="AU49" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU49" s="21" t="s">
+      <c r="AV49" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV49" s="21" t="s">
+      <c r="AW49" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW49" s="94" t="s">
+      <c r="AX49" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX49" s="31"/>
       <c r="AY49" s="31"/>
       <c r="AZ49" s="31"/>
       <c r="BA49" s="31"/>
@@ -17087,8 +17232,9 @@
       <c r="BN49" s="31"/>
       <c r="BO49" s="31"/>
       <c r="BP49" s="31"/>
+      <c r="BQ49" s="31"/>
     </row>
-    <row r="50" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="50" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A50" s="29" t="s">
         <v>48</v>
       </c>
@@ -17174,38 +17320,38 @@
       <c r="AC50" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="AD50" s="2" t="s">
+      <c r="AD50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="AE50" s="2" t="s">
+      <c r="AF50" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AF50" s="2" t="s">
+      <c r="AG50" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AH50" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI50" s="2" t="s">
+      <c r="AJ50" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="AJ50" s="2" t="s">
+      <c r="AK50" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AK50" s="2" t="s">
+      <c r="AL50" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="AL50" s="2" t="s">
+      <c r="AM50" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="AM50" s="11" t="s">
+      <c r="AN50" s="11" t="s">
         <v>1152</v>
-      </c>
-      <c r="AN50" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AO50" s="21" t="s">
         <v>1716</v>
@@ -17214,25 +17360,27 @@
         <v>1716</v>
       </c>
       <c r="AQ50" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR50" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR50" s="21" t="s">
+      <c r="AS50" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS50" s="21">
+      <c r="AT50" s="21">
         <v>5</v>
       </c>
-      <c r="AT50" s="21" t="s">
+      <c r="AU50" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU50" s="21"/>
-      <c r="AV50" s="21" t="s">
+      <c r="AV50" s="21"/>
+      <c r="AW50" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW50" s="94" t="s">
+      <c r="AX50" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX50" s="31"/>
       <c r="AY50" s="31"/>
       <c r="AZ50" s="31"/>
       <c r="BA50" s="31"/>
@@ -17251,8 +17399,9 @@
       <c r="BN50" s="31"/>
       <c r="BO50" s="31"/>
       <c r="BP50" s="31"/>
+      <c r="BQ50" s="31"/>
     </row>
-    <row r="51" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="51" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A51" s="29" t="s">
         <v>49</v>
       </c>
@@ -17338,38 +17487,38 @@
       <c r="AC51" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="AD51" s="2" t="s">
+      <c r="AD51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="AE51" s="2" t="s">
+      <c r="AF51" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="AF51" s="2" t="s">
+      <c r="AG51" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="AG51" s="2" t="s">
+      <c r="AH51" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="AH51" s="2" t="s">
+      <c r="AI51" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="AI51" s="2" t="s">
+      <c r="AJ51" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="AJ51" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL51" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="AL51" s="2" t="s">
+      <c r="AM51" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="AM51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN51" s="21" t="s">
-        <v>1718</v>
+      <c r="AN51" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO51" s="21" t="s">
         <v>1718</v>
@@ -17378,25 +17527,27 @@
         <v>1718</v>
       </c>
       <c r="AQ51" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR51" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR51" s="21" t="s">
+      <c r="AS51" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS51" s="21">
+      <c r="AT51" s="21">
         <v>6</v>
       </c>
-      <c r="AT51" s="21" t="s">
+      <c r="AU51" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU51" s="21"/>
-      <c r="AV51" s="21" t="s">
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW51" s="94" t="s">
+      <c r="AX51" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX51" s="31"/>
       <c r="AY51" s="31"/>
       <c r="AZ51" s="31"/>
       <c r="BA51" s="31"/>
@@ -17415,8 +17566,9 @@
       <c r="BN51" s="31"/>
       <c r="BO51" s="31"/>
       <c r="BP51" s="31"/>
+      <c r="BQ51" s="31"/>
     </row>
-    <row r="52" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="52" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A52" s="29" t="s">
         <v>50</v>
       </c>
@@ -17502,38 +17654,38 @@
       <c r="AC52" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="AD52" s="2" t="s">
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="AE52" s="2" t="s">
+      <c r="AF52" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="AF52" s="2" t="s">
+      <c r="AG52" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="AG52" s="2" t="s">
+      <c r="AH52" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="AH52" s="2" t="s">
+      <c r="AI52" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="AI52" s="2" t="s">
+      <c r="AJ52" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="AJ52" s="2" t="s">
+      <c r="AK52" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="AK52" s="2" t="s">
+      <c r="AL52" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="AL52" s="2" t="s">
+      <c r="AM52" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="AM52" s="11" t="s">
+      <c r="AN52" s="11" t="s">
         <v>1194</v>
-      </c>
-      <c r="AN52" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AO52" s="21" t="s">
         <v>1716</v>
@@ -17542,23 +17694,25 @@
         <v>1716</v>
       </c>
       <c r="AQ52" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR52" s="21" t="s">
         <v>1759</v>
       </c>
-      <c r="AR52" s="21" t="s">
+      <c r="AS52" s="21" t="s">
         <v>1760</v>
       </c>
-      <c r="AS52" s="21">
+      <c r="AT52" s="21">
         <v>4</v>
       </c>
-      <c r="AT52" s="21" t="s">
+      <c r="AU52" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AU52" s="21"/>
-      <c r="AV52" s="21" t="s">
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AW52" s="94"/>
-      <c r="AX52" s="31"/>
+      <c r="AX52" s="94"/>
       <c r="AY52" s="31"/>
       <c r="AZ52" s="31"/>
       <c r="BA52" s="31"/>
@@ -17577,8 +17731,9 @@
       <c r="BN52" s="31"/>
       <c r="BO52" s="31"/>
       <c r="BP52" s="31"/>
+      <c r="BQ52" s="31"/>
     </row>
-    <row r="53" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="53" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A53" s="29" t="s">
         <v>51</v>
       </c>
@@ -17664,38 +17819,38 @@
       <c r="AC53" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="AD53" s="2" t="s">
+      <c r="AD53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="AE53" s="2" t="s">
+      <c r="AF53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF53" s="2" t="s">
+      <c r="AG53" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="AG53" s="2" t="s">
+      <c r="AH53" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="AH53" s="2" t="s">
+      <c r="AI53" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="AI53" s="2" t="s">
+      <c r="AJ53" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="AJ53" s="2" t="s">
+      <c r="AK53" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="AK53" s="2" t="s">
+      <c r="AL53" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="AL53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM53" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN53" s="21" t="s">
-        <v>1671</v>
+      <c r="AM53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN53" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO53" s="21" t="s">
         <v>1671</v>
@@ -17704,27 +17859,29 @@
         <v>1671</v>
       </c>
       <c r="AQ53" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR53" s="21" t="s">
         <v>1682</v>
       </c>
-      <c r="AR53" s="21" t="s">
+      <c r="AS53" s="21" t="s">
         <v>1702</v>
       </c>
-      <c r="AS53" s="21">
+      <c r="AT53" s="21">
         <v>8</v>
       </c>
-      <c r="AT53" s="21" t="s">
+      <c r="AU53" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU53" s="21" t="s">
+      <c r="AV53" s="21" t="s">
         <v>1873</v>
       </c>
-      <c r="AV53" s="21" t="s">
+      <c r="AW53" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AW53" s="94" t="s">
+      <c r="AX53" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX53" s="31"/>
       <c r="AY53" s="31"/>
       <c r="AZ53" s="31"/>
       <c r="BA53" s="31"/>
@@ -17743,8 +17900,9 @@
       <c r="BN53" s="31"/>
       <c r="BO53" s="31"/>
       <c r="BP53" s="31"/>
+      <c r="BQ53" s="31"/>
     </row>
-    <row r="54" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="54" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A54" s="29" t="s">
         <v>52</v>
       </c>
@@ -17830,38 +17988,38 @@
       <c r="AC54" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="AD54" s="2" t="s">
+      <c r="AD54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="AE54" s="2" t="s">
+      <c r="AF54" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AF54" s="2" t="s">
+      <c r="AG54" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="AG54" s="2" t="s">
+      <c r="AH54" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI54" s="2" t="s">
+      <c r="AJ54" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="AJ54" s="2" t="s">
+      <c r="AK54" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="AK54" s="2" t="s">
+      <c r="AL54" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="AL54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM54" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN54" s="21" t="s">
-        <v>1718</v>
+      <c r="AM54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN54" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO54" s="21" t="s">
         <v>1718</v>
@@ -17870,27 +18028,29 @@
         <v>1718</v>
       </c>
       <c r="AQ54" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR54" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR54" s="21" t="s">
+      <c r="AS54" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS54" s="21">
+      <c r="AT54" s="21">
         <v>6</v>
       </c>
-      <c r="AT54" s="21" t="s">
+      <c r="AU54" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU54" s="21" t="s">
+      <c r="AV54" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV54" s="21" t="s">
+      <c r="AW54" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW54" s="94" t="s">
+      <c r="AX54" s="94" t="s">
         <v>1869</v>
       </c>
-      <c r="AX54" s="31"/>
       <c r="AY54" s="31"/>
       <c r="AZ54" s="31"/>
       <c r="BA54" s="31"/>
@@ -17909,8 +18069,9 @@
       <c r="BN54" s="31"/>
       <c r="BO54" s="31"/>
       <c r="BP54" s="31"/>
+      <c r="BQ54" s="31"/>
     </row>
-    <row r="55" spans="1:68" s="4" customFormat="1" ht="404">
+    <row r="55" spans="1:69" s="4" customFormat="1" ht="404">
       <c r="A55" s="29" t="s">
         <v>53</v>
       </c>
@@ -17996,63 +18157,65 @@
       <c r="AC55" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="AD55" s="2" t="s">
+      <c r="AD55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="AE55" s="2" t="s">
+      <c r="AF55" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF55" s="2" t="s">
+      <c r="AG55" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="AG55" s="2" t="s">
+      <c r="AH55" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="AH55" s="2" t="s">
+      <c r="AI55" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AI55" s="2" t="s">
+      <c r="AJ55" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="AJ55" s="2" t="s">
+      <c r="AK55" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AK55" s="2" t="s">
+      <c r="AL55" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="AL55" s="2" t="s">
+      <c r="AM55" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="21" t="s">
+      <c r="AN55" s="52"/>
+      <c r="AO55" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AO55" s="21" t="s">
+      <c r="AP55" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AP55" s="21" t="s">
+      <c r="AQ55" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AQ55" s="21" t="s">
+      <c r="AR55" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AR55" s="21" t="s">
+      <c r="AS55" s="21" t="s">
         <v>1241</v>
       </c>
-      <c r="AS55" s="21">
+      <c r="AT55" s="21">
         <v>4</v>
       </c>
-      <c r="AT55" s="21" t="s">
+      <c r="AU55" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU55" s="21" t="s">
+      <c r="AV55" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV55" s="21" t="s">
+      <c r="AW55" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW55" s="94"/>
-      <c r="AX55" s="31"/>
+      <c r="AX55" s="94"/>
       <c r="AY55" s="31"/>
       <c r="AZ55" s="31"/>
       <c r="BA55" s="31"/>
@@ -18071,8 +18234,9 @@
       <c r="BN55" s="31"/>
       <c r="BO55" s="31"/>
       <c r="BP55" s="31"/>
+      <c r="BQ55" s="31"/>
     </row>
-    <row r="56" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="56" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A56" s="29" t="s">
         <v>54</v>
       </c>
@@ -18158,38 +18322,38 @@
       <c r="AC56" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="AD56" s="2" t="s">
+      <c r="AD56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="AE56" s="2" t="s">
+      <c r="AF56" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AF56" s="2" t="s">
+      <c r="AG56" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="AG56" s="2" t="s">
+      <c r="AH56" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="AH56" s="2" t="s">
-        <v>1281</v>
       </c>
       <c r="AI56" s="2" t="s">
         <v>1281</v>
       </c>
       <c r="AJ56" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AK56" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="AK56" s="2" t="s">
+      <c r="AL56" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="AL56" s="2" t="s">
+      <c r="AM56" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="AM56" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN56" s="21" t="s">
-        <v>1726</v>
+      <c r="AN56" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO56" s="21" t="s">
         <v>1726</v>
@@ -18198,27 +18362,29 @@
         <v>1726</v>
       </c>
       <c r="AQ56" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AR56" s="21" t="s">
         <v>1668</v>
       </c>
-      <c r="AR56" s="21" t="s">
+      <c r="AS56" s="21" t="s">
         <v>1700</v>
       </c>
-      <c r="AS56" s="21">
+      <c r="AT56" s="21">
         <v>6</v>
       </c>
-      <c r="AT56" s="21" t="s">
+      <c r="AU56" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU56" s="21" t="s">
+      <c r="AV56" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV56" s="21" t="s">
+      <c r="AW56" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW56" s="94" t="s">
+      <c r="AX56" s="94" t="s">
         <v>1870</v>
       </c>
-      <c r="AX56" s="31"/>
       <c r="AY56" s="31"/>
       <c r="AZ56" s="31"/>
       <c r="BA56" s="31"/>
@@ -18237,8 +18403,9 @@
       <c r="BN56" s="31"/>
       <c r="BO56" s="31"/>
       <c r="BP56" s="31"/>
+      <c r="BQ56" s="31"/>
     </row>
-    <row r="57" spans="1:68" s="90" customFormat="1" ht="255">
+    <row r="57" spans="1:69" s="90" customFormat="1" ht="255">
       <c r="A57" s="84" t="s">
         <v>55</v>
       </c>
@@ -18324,36 +18491,36 @@
       <c r="AC57" s="86" t="s">
         <v>1290</v>
       </c>
-      <c r="AD57" s="86" t="s">
+      <c r="AD57" s="86">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="86" t="s">
         <v>1291</v>
       </c>
-      <c r="AE57" s="86" t="s">
+      <c r="AF57" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="AF57" s="86" t="s">
+      <c r="AG57" s="86" t="s">
         <v>1292</v>
       </c>
-      <c r="AG57" s="86" t="s">
+      <c r="AH57" s="86" t="s">
         <v>1293</v>
       </c>
-      <c r="AH57" s="86" t="s">
+      <c r="AI57" s="86" t="s">
         <v>1294</v>
       </c>
-      <c r="AI57" s="86" t="s">
+      <c r="AJ57" s="86" t="s">
         <v>1775</v>
       </c>
-      <c r="AJ57" s="86" t="s">
+      <c r="AK57" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="AK57" s="91" t="s">
+      <c r="AL57" s="91" t="s">
         <v>1295</v>
       </c>
-      <c r="AL57" s="86"/>
-      <c r="AM57" s="86" t="s">
-        <v>71</v>
-      </c>
+      <c r="AM57" s="86"/>
       <c r="AN57" s="86" t="s">
-        <v>1671</v>
+        <v>71</v>
       </c>
       <c r="AO57" s="86" t="s">
         <v>1671</v>
@@ -18362,26 +18529,29 @@
         <v>1671</v>
       </c>
       <c r="AQ57" s="86" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR57" s="86" t="s">
         <v>1667</v>
       </c>
-      <c r="AR57" s="86" t="s">
+      <c r="AS57" s="86" t="s">
         <v>1508</v>
       </c>
-      <c r="AS57" s="86">
+      <c r="AT57" s="86">
         <v>5</v>
       </c>
-      <c r="AT57" s="86" t="s">
+      <c r="AU57" s="86" t="s">
         <v>970</v>
       </c>
-      <c r="AU57" s="86"/>
-      <c r="AV57" s="86" t="s">
+      <c r="AV57" s="86"/>
+      <c r="AW57" s="86" t="s">
         <v>1742</v>
       </c>
-      <c r="AW57" s="89" t="s">
+      <c r="AX57" s="89" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="58" spans="1:68" s="3" customFormat="1" ht="306">
+    <row r="58" spans="1:69" s="3" customFormat="1" ht="306">
       <c r="A58" s="29" t="s">
         <v>56</v>
       </c>
@@ -18467,63 +18637,65 @@
       <c r="AC58" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="AD58" s="2" t="s">
+      <c r="AD58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="AE58" s="2" t="s">
+      <c r="AF58" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="AF58" s="2" t="s">
+      <c r="AG58" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="AG58" s="2" t="s">
+      <c r="AH58" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="AH58" s="2" t="s">
+      <c r="AI58" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="AI58" s="2" t="s">
+      <c r="AJ58" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="AJ58" s="2" t="s">
+      <c r="AK58" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="AK58" s="2" t="s">
+      <c r="AL58" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="AL58" s="2" t="s">
+      <c r="AM58" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="AM58" s="11" t="s">
+      <c r="AN58" s="11" t="s">
         <v>1324</v>
       </c>
-      <c r="AN58" s="21" t="s">
+      <c r="AO58" s="21" t="s">
         <v>1734</v>
-      </c>
-      <c r="AO58" s="21" t="s">
-        <v>1735</v>
       </c>
       <c r="AP58" s="21" t="s">
         <v>1735</v>
       </c>
       <c r="AQ58" s="21" t="s">
+        <v>1735</v>
+      </c>
+      <c r="AR58" s="21" t="s">
         <v>1703</v>
       </c>
-      <c r="AR58" s="21" t="s">
+      <c r="AS58" s="21" t="s">
         <v>1704</v>
       </c>
-      <c r="AS58" s="21">
+      <c r="AT58" s="21">
         <v>4</v>
       </c>
-      <c r="AT58" s="21" t="s">
+      <c r="AU58" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AU58" s="21"/>
-      <c r="AV58" s="21" t="s">
+      <c r="AV58" s="21"/>
+      <c r="AW58" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW58" s="94"/>
-      <c r="AX58" s="31"/>
+      <c r="AX58" s="94"/>
       <c r="AY58" s="31"/>
       <c r="AZ58" s="31"/>
       <c r="BA58" s="31"/>
@@ -18542,8 +18714,9 @@
       <c r="BN58" s="31"/>
       <c r="BO58" s="31"/>
       <c r="BP58" s="31"/>
+      <c r="BQ58" s="31"/>
     </row>
-    <row r="59" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="59" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A59" s="29" t="s">
         <v>57</v>
       </c>
@@ -18629,65 +18802,67 @@
       <c r="AC59" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="AD59" s="2" t="s">
+      <c r="AD59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="AE59" s="2" t="s">
+      <c r="AF59" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AF59" s="2" t="s">
+      <c r="AG59" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="AG59" s="2" t="s">
+      <c r="AH59" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="AH59" s="2" t="s">
+      <c r="AI59" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="AI59" s="2" t="s">
+      <c r="AJ59" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="AJ59" s="2" t="s">
+      <c r="AK59" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="AK59" s="2" t="s">
+      <c r="AL59" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="AL59" s="2" t="s">
+      <c r="AM59" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="AM59" s="11" t="s">
+      <c r="AN59" s="11" t="s">
         <v>1347</v>
       </c>
-      <c r="AN59" s="21" t="s">
+      <c r="AO59" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO59" s="21" t="s">
-        <v>1736</v>
       </c>
       <c r="AP59" s="21" t="s">
         <v>1736</v>
       </c>
       <c r="AQ59" s="21" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AR59" s="21" t="s">
         <v>1705</v>
       </c>
-      <c r="AR59" s="21" t="s">
+      <c r="AS59" s="21" t="s">
         <v>1706</v>
       </c>
-      <c r="AS59" s="21">
+      <c r="AT59" s="21">
         <v>2</v>
       </c>
-      <c r="AT59" s="21" t="s">
+      <c r="AU59" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AU59" s="21"/>
-      <c r="AV59" s="21" t="s">
+      <c r="AV59" s="21"/>
+      <c r="AW59" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW59" s="94" t="s">
+      <c r="AX59" s="94" t="s">
         <v>1871</v>
       </c>
-      <c r="AX59" s="31"/>
       <c r="AY59" s="31"/>
       <c r="AZ59" s="31"/>
       <c r="BA59" s="31"/>
@@ -18706,8 +18881,9 @@
       <c r="BN59" s="31"/>
       <c r="BO59" s="31"/>
       <c r="BP59" s="31"/>
+      <c r="BQ59" s="31"/>
     </row>
-    <row r="60" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="60" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A60" s="29" t="s">
         <v>58</v>
       </c>
@@ -18793,63 +18969,65 @@
       <c r="AC60" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="AD60" s="2" t="s">
+      <c r="AD60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="AE60" s="2" t="s">
+      <c r="AF60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF60" s="2" t="s">
+      <c r="AG60" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="AG60" s="2" t="s">
+      <c r="AH60" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="AH60" s="2" t="s">
+      <c r="AI60" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI60" s="2" t="s">
+      <c r="AJ60" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="AJ60" s="2" t="s">
+      <c r="AK60" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="AK60" s="2" t="s">
+      <c r="AL60" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="AL60" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN60" s="21" t="s">
+      <c r="AM60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO60" s="21" t="s">
         <v>1734</v>
       </c>
-      <c r="AO60" s="21" t="s">
+      <c r="AP60" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AP60" s="21" t="s">
+      <c r="AQ60" s="21" t="s">
         <v>1734</v>
       </c>
-      <c r="AQ60" s="21" t="s">
+      <c r="AR60" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AR60" s="21" t="s">
+      <c r="AS60" s="21" t="s">
         <v>1707</v>
       </c>
-      <c r="AS60" s="21">
+      <c r="AT60" s="21">
         <v>4</v>
       </c>
-      <c r="AT60" s="21" t="s">
+      <c r="AU60" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU60" s="21"/>
-      <c r="AV60" s="21" t="s">
+      <c r="AV60" s="21"/>
+      <c r="AW60" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AW60" s="94"/>
-      <c r="AX60" s="31"/>
+      <c r="AX60" s="94"/>
       <c r="AY60" s="31"/>
       <c r="AZ60" s="31"/>
       <c r="BA60" s="31"/>
@@ -18868,8 +19046,9 @@
       <c r="BN60" s="31"/>
       <c r="BO60" s="31"/>
       <c r="BP60" s="31"/>
+      <c r="BQ60" s="31"/>
     </row>
-    <row r="61" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="61" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A61" s="29" t="s">
         <v>59</v>
       </c>
@@ -18955,38 +19134,38 @@
       <c r="AC61" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="AD61" s="2" t="s">
+      <c r="AD61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="AE61" s="2" t="s">
+      <c r="AF61" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="AF61" s="2" t="s">
+      <c r="AG61" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="AG61" s="2" t="s">
+      <c r="AH61" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="AH61" s="2" t="s">
+      <c r="AI61" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="AI61" s="2" t="s">
+      <c r="AJ61" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="AJ61" s="2" t="s">
+      <c r="AK61" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="AK61" s="2" t="s">
+      <c r="AL61" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="AL61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM61" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN61" s="21" t="s">
-        <v>1671</v>
+      <c r="AM61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN61" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO61" s="21" t="s">
         <v>1671</v>
@@ -18995,25 +19174,27 @@
         <v>1671</v>
       </c>
       <c r="AQ61" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR61" s="21" t="s">
         <v>1709</v>
       </c>
-      <c r="AR61" s="21" t="s">
+      <c r="AS61" s="21" t="s">
         <v>1708</v>
       </c>
-      <c r="AS61" s="21">
+      <c r="AT61" s="21">
         <v>5</v>
       </c>
-      <c r="AT61" s="21" t="s">
+      <c r="AU61" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AU61" s="21"/>
-      <c r="AV61" s="21" t="s">
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW61" s="94" t="s">
+      <c r="AX61" s="94" t="s">
         <v>1872</v>
       </c>
-      <c r="AX61" s="31"/>
       <c r="AY61" s="31"/>
       <c r="AZ61" s="31"/>
       <c r="BA61" s="31"/>
@@ -19032,8 +19213,9 @@
       <c r="BN61" s="31"/>
       <c r="BO61" s="31"/>
       <c r="BP61" s="31"/>
+      <c r="BQ61" s="31"/>
     </row>
-    <row r="62" spans="1:68" s="72" customFormat="1" ht="409.6">
+    <row r="62" spans="1:69" s="72" customFormat="1" ht="409.6">
       <c r="A62" s="29" t="s">
         <v>60</v>
       </c>
@@ -19119,67 +19301,69 @@
       <c r="AC62" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="AD62" s="2" t="s">
+      <c r="AD62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="AE62" s="2" t="s">
+      <c r="AF62" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="AF62" s="2" t="s">
+      <c r="AG62" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="AG62" s="2" t="s">
+      <c r="AH62" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="AH62" s="2" t="s">
+      <c r="AI62" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="AI62" s="2" t="s">
+      <c r="AJ62" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="AJ62" s="2" t="s">
+      <c r="AK62" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="AK62" s="2" t="s">
+      <c r="AL62" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AL62" s="2" t="s">
+      <c r="AM62" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="AM62" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN62" s="21" t="s">
+      <c r="AN62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO62" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO62" s="21" t="s">
-        <v>1737</v>
       </c>
       <c r="AP62" s="21" t="s">
         <v>1737</v>
       </c>
       <c r="AQ62" s="21" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AR62" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AR62" s="21" t="s">
+      <c r="AS62" s="21" t="s">
         <v>1398</v>
       </c>
-      <c r="AS62" s="21">
+      <c r="AT62" s="21">
         <v>6</v>
       </c>
-      <c r="AT62" s="21" t="s">
+      <c r="AU62" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU62" s="21" t="s">
+      <c r="AV62" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV62" s="21" t="s">
+      <c r="AW62" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW62" s="94" t="s">
+      <c r="AX62" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX62" s="31"/>
       <c r="AY62" s="31"/>
       <c r="AZ62" s="31"/>
       <c r="BA62" s="31"/>
@@ -19198,8 +19382,9 @@
       <c r="BN62" s="31"/>
       <c r="BO62" s="31"/>
       <c r="BP62" s="31"/>
+      <c r="BQ62" s="31"/>
     </row>
-    <row r="63" spans="1:68" s="4" customFormat="1" ht="68">
+    <row r="63" spans="1:69" s="4" customFormat="1" ht="68">
       <c r="A63" s="29" t="s">
         <v>61</v>
       </c>
@@ -19285,38 +19470,38 @@
       <c r="AC63" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="AD63" s="2" t="s">
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="AE63" s="2" t="s">
+      <c r="AF63" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF63" s="2" t="s">
+      <c r="AG63" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="AG63" s="2" t="s">
+      <c r="AH63" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="AH63" s="2" t="s">
+      <c r="AI63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI63" s="2" t="s">
+      <c r="AJ63" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="AJ63" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL63" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="AL63" s="2" t="s">
+      <c r="AM63" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="AM63" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN63" s="21" t="s">
-        <v>1718</v>
+      <c r="AN63" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO63" s="21" t="s">
         <v>1718</v>
@@ -19325,25 +19510,27 @@
         <v>1718</v>
       </c>
       <c r="AQ63" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR63" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR63" s="21" t="s">
+      <c r="AS63" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AS63" s="21">
+      <c r="AT63" s="21">
         <v>0</v>
       </c>
-      <c r="AT63" s="21" t="s">
+      <c r="AU63" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU63" s="21"/>
-      <c r="AV63" s="21" t="s">
+      <c r="AV63" s="21"/>
+      <c r="AW63" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW63" s="94" t="s">
+      <c r="AX63" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX63" s="31"/>
       <c r="AY63" s="31"/>
       <c r="AZ63" s="31"/>
       <c r="BA63" s="31"/>
@@ -19362,8 +19549,9 @@
       <c r="BN63" s="31"/>
       <c r="BO63" s="31"/>
       <c r="BP63" s="31"/>
+      <c r="BQ63" s="31"/>
     </row>
-    <row r="64" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="64" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A64" s="29" t="s">
         <v>62</v>
       </c>
@@ -19449,65 +19637,67 @@
       <c r="AC64" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="AD64" s="2" t="s">
+      <c r="AD64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="AE64" s="2" t="s">
+      <c r="AF64" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF64" s="2" t="s">
+      <c r="AG64" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="AG64" s="2" t="s">
+      <c r="AH64" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="AH64" s="2" t="s">
+      <c r="AI64" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI64" s="2" t="s">
+      <c r="AJ64" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="AJ64" s="2" t="s">
+      <c r="AK64" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="AK64" s="2" t="s">
+      <c r="AL64" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="AL64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM64" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN64" s="21" t="s">
+      <c r="AM64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO64" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AO64" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP64" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AQ64" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR64" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="AR64" s="21" t="s">
+      <c r="AS64" s="21" t="s">
         <v>1710</v>
       </c>
-      <c r="AS64" s="21">
+      <c r="AT64" s="21">
         <v>5</v>
       </c>
-      <c r="AT64" s="21" t="s">
+      <c r="AU64" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AU64" s="21" t="s">
+      <c r="AV64" s="21" t="s">
         <v>1873</v>
       </c>
-      <c r="AV64" s="21" t="s">
+      <c r="AW64" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW64" s="94"/>
-      <c r="AX64" s="31"/>
+      <c r="AX64" s="94"/>
       <c r="AY64" s="31"/>
       <c r="AZ64" s="31"/>
       <c r="BA64" s="31"/>
@@ -19526,8 +19716,9 @@
       <c r="BN64" s="31"/>
       <c r="BO64" s="31"/>
       <c r="BP64" s="31"/>
+      <c r="BQ64" s="31"/>
     </row>
-    <row r="65" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="65" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A65" s="29" t="s">
         <v>1874</v>
       </c>
@@ -19613,38 +19804,38 @@
       <c r="AC65" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="AD65" s="2" t="s">
+      <c r="AD65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="AE65" s="2" t="s">
+      <c r="AF65" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="AF65" s="2" t="s">
+      <c r="AG65" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="AG65" s="2" t="s">
+      <c r="AH65" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="AH65" s="2" t="s">
+      <c r="AI65" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="AI65" s="2" t="s">
+      <c r="AJ65" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="AJ65" s="2" t="s">
+      <c r="AK65" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="AK65" s="2" t="s">
+      <c r="AL65" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AL65" s="2" t="s">
+      <c r="AM65" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="AM65" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN65" s="21" t="s">
-        <v>1726</v>
+      <c r="AN65" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO65" s="21" t="s">
         <v>1726</v>
@@ -19653,25 +19844,27 @@
         <v>1726</v>
       </c>
       <c r="AQ65" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AR65" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR65" s="21" t="s">
+      <c r="AS65" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS65" s="21">
+      <c r="AT65" s="21">
         <v>6</v>
       </c>
-      <c r="AT65" s="21" t="s">
+      <c r="AU65" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU65" s="21" t="s">
+      <c r="AV65" s="21" t="s">
         <v>1873</v>
       </c>
-      <c r="AV65" s="21" t="s">
+      <c r="AW65" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW65" s="94"/>
-      <c r="AX65" s="31"/>
+      <c r="AX65" s="94"/>
       <c r="AY65" s="31"/>
       <c r="AZ65" s="31"/>
       <c r="BA65" s="31"/>
@@ -19690,8 +19883,9 @@
       <c r="BN65" s="31"/>
       <c r="BO65" s="31"/>
       <c r="BP65" s="31"/>
+      <c r="BQ65" s="31"/>
     </row>
-    <row r="66" spans="1:68" s="3" customFormat="1" ht="187">
+    <row r="66" spans="1:69" s="3" customFormat="1" ht="187">
       <c r="A66" s="29" t="s">
         <v>63</v>
       </c>
@@ -19777,38 +19971,38 @@
       <c r="AC66" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="AD66" s="2" t="s">
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="AE66" s="2" t="s">
+      <c r="AF66" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AF66" s="2" t="s">
+      <c r="AG66" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="AG66" s="2" t="s">
+      <c r="AH66" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="AH66" s="2" t="s">
+      <c r="AI66" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="AI66" s="2" t="s">
+      <c r="AJ66" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="AJ66" s="2" t="s">
+      <c r="AK66" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="AK66" s="2" t="s">
+      <c r="AL66" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="AL66" s="2" t="s">
+      <c r="AM66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AM66" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN66" s="21" t="s">
-        <v>1738</v>
+      <c r="AN66" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO66" s="21" t="s">
         <v>1738</v>
@@ -19817,27 +20011,29 @@
         <v>1738</v>
       </c>
       <c r="AQ66" s="21" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AR66" s="21" t="s">
         <v>1682</v>
       </c>
-      <c r="AR66" s="21" t="s">
+      <c r="AS66" s="21" t="s">
         <v>1711</v>
       </c>
-      <c r="AS66" s="21">
+      <c r="AT66" s="21">
         <v>6</v>
       </c>
-      <c r="AT66" s="21" t="s">
+      <c r="AU66" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU66" s="21" t="s">
+      <c r="AV66" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV66" s="21" t="s">
+      <c r="AW66" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AW66" s="94" t="s">
+      <c r="AX66" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX66" s="31"/>
       <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
       <c r="BA66" s="31"/>
@@ -19856,8 +20052,9 @@
       <c r="BN66" s="31"/>
       <c r="BO66" s="31"/>
       <c r="BP66" s="31"/>
+      <c r="BQ66" s="31"/>
     </row>
-    <row r="67" spans="1:68" s="4" customFormat="1" ht="238">
+    <row r="67" spans="1:69" s="4" customFormat="1" ht="238">
       <c r="A67" s="29" t="s">
         <v>64</v>
       </c>
@@ -19943,38 +20140,38 @@
       <c r="AC67" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="AD67" s="2" t="s">
+      <c r="AD67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="AE67" s="2" t="s">
+      <c r="AF67" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="AF67" s="2" t="s">
+      <c r="AG67" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="AG67" s="2" t="s">
+      <c r="AH67" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="AH67" s="2" t="s">
+      <c r="AI67" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="AI67" s="2" t="s">
+      <c r="AJ67" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="AJ67" s="2" t="s">
+      <c r="AK67" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="AK67" s="2" t="s">
+      <c r="AL67" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="AL67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM67" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN67" s="21" t="s">
-        <v>1718</v>
+      <c r="AM67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN67" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO67" s="21" t="s">
         <v>1718</v>
@@ -19983,27 +20180,29 @@
         <v>1718</v>
       </c>
       <c r="AQ67" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AR67" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR67" s="21" t="s">
+      <c r="AS67" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS67" s="21">
+      <c r="AT67" s="21">
         <v>8</v>
       </c>
-      <c r="AT67" s="21" t="s">
+      <c r="AU67" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU67" s="21" t="s">
+      <c r="AV67" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV67" s="21" t="s">
+      <c r="AW67" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AW67" s="94" t="s">
+      <c r="AX67" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX67" s="31"/>
       <c r="AY67" s="31"/>
       <c r="AZ67" s="31"/>
       <c r="BA67" s="31"/>
@@ -20022,8 +20221,9 @@
       <c r="BN67" s="31"/>
       <c r="BO67" s="31"/>
       <c r="BP67" s="31"/>
+      <c r="BQ67" s="31"/>
     </row>
-    <row r="68" spans="1:68" s="3" customFormat="1" ht="388">
+    <row r="68" spans="1:69" s="3" customFormat="1" ht="388">
       <c r="A68" s="29" t="s">
         <v>65</v>
       </c>
@@ -20109,67 +20309,69 @@
       <c r="AC68" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="AD68" s="2" t="s">
+      <c r="AD68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE68" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="AE68" s="2" t="s">
+      <c r="AF68" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="AF68" s="2" t="s">
+      <c r="AG68" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="AG68" s="2" t="s">
+      <c r="AH68" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="AH68" s="2" t="s">
+      <c r="AI68" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="AI68" s="2" t="s">
+      <c r="AJ68" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="AJ68" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL68" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="AL68" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM68" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN68" s="21" t="s">
+      <c r="AM68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN68" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO68" s="21" t="s">
         <v>1739</v>
-      </c>
-      <c r="AO68" s="21" t="s">
-        <v>1726</v>
       </c>
       <c r="AP68" s="21" t="s">
         <v>1726</v>
       </c>
       <c r="AQ68" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AR68" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR68" s="21" t="s">
+      <c r="AS68" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS68" s="21">
+      <c r="AT68" s="21">
         <v>8</v>
       </c>
-      <c r="AT68" s="21" t="s">
+      <c r="AU68" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU68" s="21" t="s">
+      <c r="AV68" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AV68" s="21" t="s">
+      <c r="AW68" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AW68" s="94" t="s">
+      <c r="AX68" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX68" s="31"/>
       <c r="AY68" s="31"/>
       <c r="AZ68" s="31"/>
       <c r="BA68" s="31"/>
@@ -20188,8 +20390,9 @@
       <c r="BN68" s="31"/>
       <c r="BO68" s="31"/>
       <c r="BP68" s="31"/>
+      <c r="BQ68" s="31"/>
     </row>
-    <row r="69" spans="1:68" s="4" customFormat="1" ht="409.6">
+    <row r="69" spans="1:69" s="4" customFormat="1" ht="409.6">
       <c r="A69" s="29" t="s">
         <v>66</v>
       </c>
@@ -20275,38 +20478,38 @@
       <c r="AC69" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="AD69" s="2" t="s">
+      <c r="AD69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="AE69" s="2" t="s">
+      <c r="AF69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF69" s="2" t="s">
+      <c r="AG69" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="AG69" s="2" t="s">
+      <c r="AH69" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="AH69" s="2" t="s">
+      <c r="AI69" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="AI69" s="2" t="s">
+      <c r="AJ69" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="AJ69" s="2" t="s">
+      <c r="AK69" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AK69" s="2" t="s">
+      <c r="AL69" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="AL69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM69" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN69" s="21" t="s">
-        <v>1716</v>
+      <c r="AM69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN69" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO69" s="21" t="s">
         <v>1716</v>
@@ -20315,27 +20518,29 @@
         <v>1716</v>
       </c>
       <c r="AQ69" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR69" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AR69" s="21" t="s">
+      <c r="AS69" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AS69" s="21">
+      <c r="AT69" s="21">
         <v>5</v>
       </c>
-      <c r="AT69" s="21" t="s">
+      <c r="AU69" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU69" s="21" t="s">
+      <c r="AV69" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AV69" s="21" t="s">
+      <c r="AW69" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AW69" s="94" t="s">
+      <c r="AX69" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX69" s="31"/>
       <c r="AY69" s="31"/>
       <c r="AZ69" s="31"/>
       <c r="BA69" s="31"/>
@@ -20354,8 +20559,9 @@
       <c r="BN69" s="31"/>
       <c r="BO69" s="31"/>
       <c r="BP69" s="31"/>
+      <c r="BQ69" s="31"/>
     </row>
-    <row r="70" spans="1:68" s="3" customFormat="1" ht="409.6">
+    <row r="70" spans="1:69" s="3" customFormat="1" ht="409.6">
       <c r="A70" s="29" t="s">
         <v>67</v>
       </c>
@@ -20441,38 +20647,38 @@
       <c r="AC70" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="AD70" s="2" t="s">
+      <c r="AD70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="AE70" s="2" t="s">
+      <c r="AF70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF70" s="2" t="s">
+      <c r="AG70" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="AG70" s="2" t="s">
+      <c r="AH70" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="AH70" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AI70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ70" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="AJ70" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AK70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL70" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="AL70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM70" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN70" s="21" t="s">
-        <v>1728</v>
+      <c r="AM70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN70" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO70" s="21" t="s">
         <v>1728</v>
@@ -20481,27 +20687,29 @@
         <v>1728</v>
       </c>
       <c r="AQ70" s="21" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AR70" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AR70" s="21" t="s">
+      <c r="AS70" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AS70" s="21">
+      <c r="AT70" s="21">
         <v>5</v>
       </c>
-      <c r="AT70" s="21" t="s">
+      <c r="AU70" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AU70" s="21" t="s">
+      <c r="AV70" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AV70" s="21" t="s">
+      <c r="AW70" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AW70" s="94" t="s">
+      <c r="AX70" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AX70" s="31"/>
       <c r="AY70" s="31"/>
       <c r="AZ70" s="31"/>
       <c r="BA70" s="31"/>
@@ -20520,8 +20728,9 @@
       <c r="BN70" s="31"/>
       <c r="BO70" s="31"/>
       <c r="BP70" s="31"/>
+      <c r="BQ70" s="31"/>
     </row>
-    <row r="71" spans="1:68" s="4" customFormat="1" ht="306">
+    <row r="71" spans="1:69" s="4" customFormat="1" ht="306">
       <c r="A71" s="29" t="s">
         <v>68</v>
       </c>
@@ -20607,38 +20816,38 @@
       <c r="AC71" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="AD71" s="2" t="s">
+      <c r="AD71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="AE71" s="2" t="s">
+      <c r="AF71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF71" s="2" t="s">
+      <c r="AG71" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="AG71" s="2" t="s">
+      <c r="AH71" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="AH71" s="2" t="s">
+      <c r="AI71" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="AI71" s="2" t="s">
+      <c r="AJ71" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="AJ71" s="2" t="s">
+      <c r="AK71" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="AK71" s="2" t="s">
+      <c r="AL71" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="AL71" s="2" t="s">
+      <c r="AM71" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="AM71" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN71" s="21" t="s">
-        <v>1716</v>
+      <c r="AN71" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AO71" s="21" t="s">
         <v>1716</v>
@@ -20647,25 +20856,27 @@
         <v>1716</v>
       </c>
       <c r="AQ71" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR71" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AR71" s="21" t="s">
+      <c r="AS71" s="21" t="s">
         <v>1712</v>
       </c>
-      <c r="AS71" s="21">
+      <c r="AT71" s="21">
         <v>4</v>
       </c>
-      <c r="AT71" s="21" t="s">
+      <c r="AU71" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AU71" s="21" t="s">
+      <c r="AV71" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AV71" s="21" t="s">
+      <c r="AW71" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AW71" s="94"/>
-      <c r="AX71" s="31"/>
+      <c r="AX71" s="94"/>
       <c r="AY71" s="31"/>
       <c r="AZ71" s="31"/>
       <c r="BA71" s="31"/>
@@ -20684,8 +20895,9 @@
       <c r="BN71" s="31"/>
       <c r="BO71" s="31"/>
       <c r="BP71" s="31"/>
+      <c r="BQ71" s="31"/>
     </row>
-    <row r="72" spans="1:68" s="3" customFormat="1" ht="409.6" thickBot="1">
+    <row r="72" spans="1:69" s="3" customFormat="1" ht="409.6" thickBot="1">
       <c r="A72" s="73" t="s">
         <v>69</v>
       </c>
@@ -20771,38 +20983,38 @@
       <c r="AC72" s="78" t="s">
         <v>1608</v>
       </c>
-      <c r="AD72" s="78" t="s">
+      <c r="AD72" s="78">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="78" t="s">
         <v>1609</v>
       </c>
-      <c r="AE72" s="78" t="s">
+      <c r="AF72" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="AF72" s="78" t="s">
+      <c r="AG72" s="78" t="s">
         <v>1610</v>
       </c>
-      <c r="AG72" s="78" t="s">
+      <c r="AH72" s="78" t="s">
         <v>1611</v>
       </c>
-      <c r="AH72" s="78" t="s">
+      <c r="AI72" s="78" t="s">
         <v>1612</v>
       </c>
-      <c r="AI72" s="78" t="s">
+      <c r="AJ72" s="78" t="s">
         <v>1613</v>
       </c>
-      <c r="AJ72" s="78" t="s">
+      <c r="AK72" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="AK72" s="78" t="s">
+      <c r="AL72" s="78" t="s">
         <v>1614</v>
       </c>
-      <c r="AL72" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM72" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN72" s="79" t="s">
-        <v>1726</v>
+      <c r="AM72" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN72" s="75" t="s">
+        <v>71</v>
       </c>
       <c r="AO72" s="79" t="s">
         <v>1726</v>
@@ -20811,27 +21023,29 @@
         <v>1726</v>
       </c>
       <c r="AQ72" s="79" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AR72" s="79" t="s">
         <v>1667</v>
       </c>
-      <c r="AR72" s="79" t="s">
+      <c r="AS72" s="79" t="s">
         <v>1508</v>
       </c>
-      <c r="AS72" s="79">
+      <c r="AT72" s="79">
         <v>5</v>
       </c>
-      <c r="AT72" s="79" t="s">
+      <c r="AU72" s="79" t="s">
         <v>970</v>
       </c>
-      <c r="AU72" s="79" t="s">
+      <c r="AV72" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="AV72" s="79" t="s">
+      <c r="AW72" s="79" t="s">
         <v>1855</v>
       </c>
-      <c r="AW72" s="96" t="s">
+      <c r="AX72" s="96" t="s">
         <v>1857</v>
       </c>
-      <c r="AX72" s="31"/>
       <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
       <c r="BA72" s="31"/>
@@ -20850,14 +21064,15 @@
       <c r="BN72" s="31"/>
       <c r="BO72" s="31"/>
       <c r="BP72" s="31"/>
+      <c r="BQ72" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BP72" xr:uid="{62CCF830-4A99-4042-BE90-52CFFDF00F36}"/>
+  <autoFilter ref="A2:BQ72" xr:uid="{62CCF830-4A99-4042-BE90-52CFFDF00F36}"/>
   <mergeCells count="5">
-    <mergeCell ref="AN1:AV1"/>
+    <mergeCell ref="AO1:AW1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="J1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B5 B10 B55:B59 B29:B32 B44:B46 B51:B53 B7:B8 B34:B37 B39:B41 B64 B48:B49 B72 B67:B68 B13:B26">

--- a/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
+++ b/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poldrack/Dropbox/code/narps/ImageAnalyses/metadata_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08BEA89-03EE-EF49-B7C8-25DEA73E20CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6973F700-4CF9-B745-85A5-6E671ABB94A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8038,7 +8038,7 @@
     <t>p&lt;0.01</t>
   </si>
   <si>
-    <t>MovementReg</t>
+    <t>movement_modeling</t>
   </si>
 </sst>
 </file>
@@ -9035,7 +9035,7 @@
   <dimension ref="A1:BQ72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD73" sqref="AD73"/>
     </sheetView>
   </sheetViews>
@@ -15648,7 +15648,9 @@
       <c r="AC40" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="AD40" s="2"/>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
       <c r="AE40" s="2" t="s">
         <v>943</v>
       </c>

--- a/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
+++ b/ImageAnalyses/metadata_files/analysis_pipelines_for_analysis.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poldrack/Dropbox/code/narps/ImageAnalyses/metadata_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotembot/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6973F700-4CF9-B745-85A5-6E671ABB94A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D207042F-FD85-2246-A690-12C121D15B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33780" yWindow="1600" windowWidth="27940" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__Fieldmark__1618_5564194761" localSheetId="0">Sheet1!$AK$37</definedName>
+    <definedName name="__Fieldmark__1618_5564194761" localSheetId="0">Sheet1!$AL$37</definedName>
     <definedName name="__Fieldmark__494_9667639611" localSheetId="0">Sheet1!$F$44</definedName>
     <definedName name="__Fieldmark__603_94325256" localSheetId="0">Sheet1!$C$61</definedName>
     <definedName name="__Fieldmark__638_748692601" localSheetId="0">Sheet1!$F$43</definedName>
-    <definedName name="__Fieldmark__828_14068559291" localSheetId="0">Sheet1!$AH$5</definedName>
+    <definedName name="__Fieldmark__828_14068559291" localSheetId="0">Sheet1!$AI$5</definedName>
     <definedName name="__Fieldmark__973_5564194761" localSheetId="0">Sheet1!$S$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BQ$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BR$72</definedName>
     <definedName name="Text111" localSheetId="0">Sheet1!$L$5</definedName>
     <definedName name="Text121" localSheetId="0">Sheet1!$M$5</definedName>
     <definedName name="Text131" localSheetId="0">Sheet1!$N$5</definedName>
@@ -41,14 +41,14 @@
     <definedName name="Text261" localSheetId="0">Sheet1!$AB$5</definedName>
     <definedName name="Text27" localSheetId="0">Sheet1!$AC$5</definedName>
     <definedName name="Text271" localSheetId="0">Sheet1!$AC$9</definedName>
-    <definedName name="Text281" localSheetId="0">Sheet1!$AE$5</definedName>
-    <definedName name="Text291" localSheetId="0">Sheet1!$AF$5</definedName>
-    <definedName name="Text301" localSheetId="0">Sheet1!$AG$5</definedName>
-    <definedName name="Text321" localSheetId="0">Sheet1!$AI$5</definedName>
-    <definedName name="Text331" localSheetId="0">Sheet1!$AJ$5</definedName>
-    <definedName name="Text341" localSheetId="0">Sheet1!$AK$5</definedName>
-    <definedName name="Text351" localSheetId="0">Sheet1!$AL$5</definedName>
-    <definedName name="Text371" localSheetId="0">Sheet1!$AN$5</definedName>
+    <definedName name="Text281" localSheetId="0">Sheet1!$AF$5</definedName>
+    <definedName name="Text291" localSheetId="0">Sheet1!$AG$5</definedName>
+    <definedName name="Text301" localSheetId="0">Sheet1!$AH$5</definedName>
+    <definedName name="Text321" localSheetId="0">Sheet1!$AJ$5</definedName>
+    <definedName name="Text331" localSheetId="0">Sheet1!$AK$5</definedName>
+    <definedName name="Text341" localSheetId="0">Sheet1!$AL$5</definedName>
+    <definedName name="Text351" localSheetId="0">Sheet1!$AM$5</definedName>
+    <definedName name="Text371" localSheetId="0">Sheet1!$AO$5</definedName>
     <definedName name="Text51" localSheetId="0">Sheet1!$I$5</definedName>
     <definedName name="Text71" localSheetId="0">Sheet1!$F$5</definedName>
     <definedName name="Text81" localSheetId="0">Sheet1!$K$5</definedName>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="1877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="1882">
   <si>
     <t>teamID</t>
   </si>
@@ -8039,6 +8039,21 @@
   </si>
   <si>
     <t>movement_modeling</t>
+  </si>
+  <si>
+    <t>RT_modeling</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>onset</t>
+  </si>
+  <si>
+    <t>pm</t>
   </si>
 </sst>
 </file>
@@ -8388,7 +8403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8698,6 +8713,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9032,11 +9050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ72"/>
+  <dimension ref="A1:BR72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD73" sqref="AD73"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -9067,33 +9085,33 @@
     <col min="25" max="26" width="30.5" style="15" customWidth="1"/>
     <col min="27" max="27" width="27.6640625" style="4" customWidth="1"/>
     <col min="28" max="28" width="27.5" style="4" customWidth="1"/>
-    <col min="29" max="30" width="75.1640625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="62.83203125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="21.1640625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="85.6640625" style="4" customWidth="1"/>
-    <col min="34" max="34" width="81.5" style="4" customWidth="1"/>
-    <col min="35" max="35" width="33.5" style="4" customWidth="1"/>
-    <col min="36" max="36" width="33" style="4" customWidth="1"/>
-    <col min="37" max="38" width="32.33203125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="49.1640625" style="4" customWidth="1"/>
-    <col min="40" max="40" width="48.83203125" style="80" customWidth="1"/>
-    <col min="41" max="41" width="26.1640625" style="82" customWidth="1"/>
-    <col min="42" max="42" width="29.1640625" style="82" customWidth="1"/>
-    <col min="43" max="43" width="30.83203125" style="82" customWidth="1"/>
-    <col min="44" max="44" width="17.83203125" style="82" customWidth="1"/>
-    <col min="45" max="45" width="24.83203125" style="82" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.83203125" style="82" customWidth="1"/>
-    <col min="47" max="48" width="17.83203125" style="82" customWidth="1"/>
-    <col min="49" max="49" width="18.83203125" style="82" customWidth="1"/>
-    <col min="50" max="50" width="19.33203125" style="82" customWidth="1"/>
-    <col min="51" max="51" width="10.83203125" style="31"/>
-    <col min="52" max="52" width="12.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="54" max="69" width="10.83203125" style="31"/>
-    <col min="70" max="16384" width="10.83203125" style="83"/>
+    <col min="29" max="31" width="75.1640625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="62.83203125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="21.1640625" style="4" customWidth="1"/>
+    <col min="34" max="34" width="85.6640625" style="4" customWidth="1"/>
+    <col min="35" max="35" width="81.5" style="4" customWidth="1"/>
+    <col min="36" max="36" width="33.5" style="4" customWidth="1"/>
+    <col min="37" max="37" width="33" style="4" customWidth="1"/>
+    <col min="38" max="39" width="32.33203125" style="4" customWidth="1"/>
+    <col min="40" max="40" width="49.1640625" style="4" customWidth="1"/>
+    <col min="41" max="41" width="48.83203125" style="80" customWidth="1"/>
+    <col min="42" max="42" width="26.1640625" style="82" customWidth="1"/>
+    <col min="43" max="43" width="29.1640625" style="82" customWidth="1"/>
+    <col min="44" max="44" width="30.83203125" style="82" customWidth="1"/>
+    <col min="45" max="45" width="17.83203125" style="82" customWidth="1"/>
+    <col min="46" max="46" width="24.83203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.83203125" style="82" customWidth="1"/>
+    <col min="48" max="49" width="17.83203125" style="82" customWidth="1"/>
+    <col min="50" max="50" width="18.83203125" style="82" customWidth="1"/>
+    <col min="51" max="51" width="19.33203125" style="82" customWidth="1"/>
+    <col min="52" max="52" width="10.83203125" style="31"/>
+    <col min="53" max="53" width="12.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="55" max="70" width="10.83203125" style="31"/>
+    <col min="71" max="16384" width="10.83203125" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="22" customFormat="1" ht="34" customHeight="1">
+    <row r="1" spans="1:70" s="22" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="100" t="s">
         <v>1848</v>
       </c>
@@ -9141,13 +9159,13 @@
       <c r="AK1" s="102"/>
       <c r="AL1" s="102"/>
       <c r="AM1" s="102"/>
-      <c r="AN1" s="97" t="s">
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="97" t="s">
         <v>1848</v>
       </c>
-      <c r="AO1" s="98" t="s">
+      <c r="AP1" s="98" t="s">
         <v>1850</v>
       </c>
-      <c r="AP1" s="98"/>
       <c r="AQ1" s="98"/>
       <c r="AR1" s="98"/>
       <c r="AS1" s="98"/>
@@ -9155,8 +9173,8 @@
       <c r="AU1" s="98"/>
       <c r="AV1" s="98"/>
       <c r="AW1" s="98"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="23"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="92"/>
       <c r="AZ1" s="23"/>
       <c r="BA1" s="23"/>
       <c r="BB1" s="23"/>
@@ -9175,8 +9193,9 @@
       <c r="BO1" s="23"/>
       <c r="BP1" s="23"/>
       <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
     </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" ht="40">
+    <row r="2" spans="1:70" s="1" customFormat="1" ht="40">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -9265,69 +9284,71 @@
         <v>104</v>
       </c>
       <c r="AD2" s="17" t="s">
+        <v>1877</v>
+      </c>
+      <c r="AE2" s="17" t="s">
         <v>1876</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AH2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AI2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AM2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AN2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>1740</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AP2" s="19" t="s">
         <v>1719</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>1720</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AR2" s="19" t="s">
         <v>1721</v>
       </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AS2" s="19" t="s">
         <v>1685</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AT2" s="19" t="s">
         <v>1686</v>
       </c>
-      <c r="AT2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>1684</v>
       </c>
-      <c r="AU2" s="19" t="s">
+      <c r="AV2" s="19" t="s">
         <v>1714</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="AW2" s="19" t="s">
         <v>1854</v>
       </c>
-      <c r="AW2" s="19" t="s">
+      <c r="AX2" s="19" t="s">
         <v>1713</v>
       </c>
-      <c r="AX2" s="93" t="s">
+      <c r="AY2" s="93" t="s">
         <v>1856</v>
       </c>
-      <c r="AY2" s="24"/>
       <c r="AZ2" s="24"/>
       <c r="BA2" s="24"/>
       <c r="BB2" s="24"/>
@@ -9346,8 +9367,9 @@
       <c r="BO2" s="24"/>
       <c r="BP2" s="24"/>
       <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
     </row>
-    <row r="3" spans="1:69" s="4" customFormat="1" ht="221">
+    <row r="3" spans="1:70" s="4" customFormat="1" ht="221">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -9435,41 +9457,41 @@
       <c r="AC3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE3" s="2">
         <v>0</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="21" t="s">
-        <v>1717</v>
+      <c r="AN3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP3" s="21" t="s">
         <v>1717</v>
@@ -9478,27 +9500,29 @@
         <v>1717</v>
       </c>
       <c r="AR3" s="21" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AS3" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS3" s="21" t="s">
+      <c r="AT3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AT3" s="21">
+      <c r="AU3" s="21">
         <v>5</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="AW3" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AW3" s="21" t="s">
+      <c r="AX3" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX3" s="94" t="s">
+      <c r="AY3" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY3" s="31"/>
       <c r="AZ3" s="31"/>
       <c r="BA3" s="31"/>
       <c r="BB3" s="31"/>
@@ -9517,8 +9541,9 @@
       <c r="BO3" s="31"/>
       <c r="BP3" s="31"/>
       <c r="BQ3" s="31"/>
+      <c r="BR3" s="31"/>
     </row>
-    <row r="4" spans="1:69" s="3" customFormat="1" ht="281" customHeight="1">
+    <row r="4" spans="1:70" s="3" customFormat="1" ht="281" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -9606,70 +9631,72 @@
       <c r="AC4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE4" s="2">
         <v>1</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AI4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AM4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO4" s="21" t="s">
+      <c r="AN4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AP4" s="21" t="s">
+      <c r="AQ4" s="21" t="s">
         <v>1717</v>
       </c>
-      <c r="AQ4" s="21" t="s">
+      <c r="AR4" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR4" s="21" t="s">
+      <c r="AS4" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS4" s="21" t="s">
+      <c r="AT4" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AT4" s="21">
+      <c r="AU4" s="21">
         <v>5</v>
       </c>
-      <c r="AU4" s="21" t="s">
+      <c r="AV4" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV4" s="21" t="s">
+      <c r="AW4" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW4" s="21" t="s">
+      <c r="AX4" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX4" s="94" t="s">
+      <c r="AY4" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY4" s="31"/>
       <c r="AZ4" s="31"/>
       <c r="BA4" s="31"/>
       <c r="BB4" s="31"/>
@@ -9688,8 +9715,9 @@
       <c r="BO4" s="31"/>
       <c r="BP4" s="31"/>
       <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
     </row>
-    <row r="5" spans="1:69" s="4" customFormat="1" ht="272">
+    <row r="5" spans="1:70" s="4" customFormat="1" ht="272">
       <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
@@ -9777,68 +9805,70 @@
       <c r="AC5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE5" s="7">
         <v>1</v>
       </c>
-      <c r="AE5" s="38" t="s">
+      <c r="AF5" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AF5" s="39" t="s">
+      <c r="AG5" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AH5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AI5" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AL5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AM5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="40" t="s">
-        <v>1716</v>
-      </c>
+      <c r="AO5" s="25"/>
       <c r="AP5" s="40" t="s">
         <v>1716</v>
       </c>
       <c r="AQ5" s="40" t="s">
         <v>1716</v>
       </c>
-      <c r="AR5" s="21" t="s">
+      <c r="AR5" s="40" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS5" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS5" s="21" t="s">
+      <c r="AT5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AT5" s="40">
+      <c r="AU5" s="40">
         <v>5</v>
       </c>
-      <c r="AU5" s="41" t="s">
+      <c r="AV5" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="AV5" s="21" t="s">
+      <c r="AW5" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AW5" s="21" t="s">
+      <c r="AX5" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX5" s="94" t="s">
+      <c r="AY5" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY5" s="31"/>
       <c r="AZ5" s="31"/>
       <c r="BA5" s="31"/>
       <c r="BB5" s="31"/>
@@ -9857,8 +9887,9 @@
       <c r="BO5" s="31"/>
       <c r="BP5" s="31"/>
       <c r="BQ5" s="31"/>
+      <c r="BR5" s="31"/>
     </row>
-    <row r="6" spans="1:69" s="3" customFormat="1" ht="255">
+    <row r="6" spans="1:70" s="3" customFormat="1" ht="255">
       <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
@@ -9946,68 +9977,70 @@
       <c r="AC6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE6" s="2">
         <v>1</v>
       </c>
-      <c r="AE6" s="44" t="s">
+      <c r="AF6" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AI6" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AM6" s="44" t="s">
+      <c r="AN6" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="20" t="s">
-        <v>1671</v>
-      </c>
+      <c r="AO6" s="45"/>
       <c r="AP6" s="20" t="s">
         <v>1671</v>
       </c>
       <c r="AQ6" s="20" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR6" s="20" t="s">
         <v>1716</v>
       </c>
-      <c r="AR6" s="21" t="s">
+      <c r="AS6" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS6" s="21" t="s">
+      <c r="AT6" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT6" s="21">
+      <c r="AU6" s="21">
         <v>5</v>
       </c>
-      <c r="AU6" s="21" t="s">
+      <c r="AV6" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV6" s="21" t="s">
+      <c r="AW6" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW6" s="21" t="s">
+      <c r="AX6" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AX6" s="94" t="s">
+      <c r="AY6" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY6" s="31"/>
       <c r="AZ6" s="31"/>
       <c r="BA6" s="31"/>
       <c r="BB6" s="31"/>
@@ -10026,8 +10059,9 @@
       <c r="BO6" s="31"/>
       <c r="BP6" s="31"/>
       <c r="BQ6" s="31"/>
+      <c r="BR6" s="31"/>
     </row>
-    <row r="7" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="7" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
@@ -10115,70 +10149,72 @@
       <c r="AC7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE7" s="2">
         <v>1</v>
       </c>
-      <c r="AE7" s="44" t="s">
+      <c r="AF7" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AH7" s="5" t="s">
         <v>1665</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AI7" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AI7" s="32" t="s">
+      <c r="AJ7" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AK7" s="32" t="s">
+      <c r="AL7" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AM7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO7" s="21" t="s">
+      <c r="AN7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP7" s="21" t="s">
         <v>1718</v>
-      </c>
-      <c r="AP7" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AQ7" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AR7" s="21" t="s">
-        <v>1666</v>
+        <v>1716</v>
       </c>
       <c r="AS7" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AT7" s="21">
+      <c r="AT7" s="21" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AU7" s="21">
         <v>5</v>
       </c>
-      <c r="AU7" s="21" t="s">
+      <c r="AV7" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV7" s="21" t="s">
+      <c r="AW7" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW7" s="21" t="s">
+      <c r="AX7" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX7" s="94" t="s">
+      <c r="AY7" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY7" s="31"/>
       <c r="AZ7" s="31"/>
       <c r="BA7" s="31"/>
       <c r="BB7" s="31"/>
@@ -10197,8 +10233,9 @@
       <c r="BO7" s="31"/>
       <c r="BP7" s="31"/>
       <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
     </row>
-    <row r="8" spans="1:69" s="3" customFormat="1" ht="404">
+    <row r="8" spans="1:70" s="3" customFormat="1" ht="404">
       <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
@@ -10286,70 +10323,72 @@
       <c r="AC8" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE8" s="18">
         <v>0</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AM8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO8" s="21" t="s">
+      <c r="AN8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP8" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP8" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AQ8" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AR8" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS8" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS8" s="21" t="s">
+      <c r="AT8" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT8" s="21">
+      <c r="AU8" s="21">
         <v>8</v>
       </c>
-      <c r="AU8" s="21" t="s">
+      <c r="AV8" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV8" s="21" t="s">
+      <c r="AW8" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW8" s="21" t="s">
+      <c r="AX8" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX8" s="94" t="s">
+      <c r="AY8" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY8" s="31"/>
       <c r="AZ8" s="31"/>
       <c r="BA8" s="31"/>
       <c r="BB8" s="31"/>
@@ -10368,8 +10407,9 @@
       <c r="BO8" s="31"/>
       <c r="BP8" s="31"/>
       <c r="BQ8" s="31"/>
+      <c r="BR8" s="31"/>
     </row>
-    <row r="9" spans="1:69" s="4" customFormat="1" ht="255">
+    <row r="9" spans="1:70" s="4" customFormat="1" ht="255">
       <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
@@ -10457,41 +10497,41 @@
       <c r="AC9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE9" s="2">
         <v>0</v>
       </c>
-      <c r="AE9" s="44" t="s">
+      <c r="AF9" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="AF9" s="32" t="s">
+      <c r="AG9" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AH9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AH9" s="5" t="s">
+      <c r="AI9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AI9" s="32" t="s">
+      <c r="AJ9" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AM9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO9" s="21" t="s">
-        <v>1716</v>
+      <c r="AN9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP9" s="21" t="s">
         <v>1716</v>
@@ -10500,25 +10540,27 @@
         <v>1716</v>
       </c>
       <c r="AR9" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS9" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS9" s="21" t="s">
+      <c r="AT9" s="21" t="s">
         <v>1689</v>
       </c>
-      <c r="AT9" s="21">
+      <c r="AU9" s="21">
         <v>6</v>
       </c>
-      <c r="AU9" s="21" t="s">
+      <c r="AV9" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21" t="s">
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX9" s="94" t="s">
+      <c r="AY9" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY9" s="31"/>
       <c r="AZ9" s="31"/>
       <c r="BA9" s="31"/>
       <c r="BB9" s="31"/>
@@ -10537,8 +10579,9 @@
       <c r="BO9" s="31"/>
       <c r="BP9" s="31"/>
       <c r="BQ9" s="31"/>
+      <c r="BR9" s="31"/>
     </row>
-    <row r="10" spans="1:69" s="3" customFormat="1" ht="408" customHeight="1">
+    <row r="10" spans="1:70" s="3" customFormat="1" ht="408" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
@@ -10626,68 +10669,70 @@
       <c r="AC10" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AE10" s="2">
         <v>0</v>
       </c>
-      <c r="AE10" s="51" t="s">
+      <c r="AF10" s="51" t="s">
         <v>1662</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AG10" s="5" t="s">
+      <c r="AH10" s="5" t="s">
         <v>1661</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AM10" s="44" t="s">
+      <c r="AN10" s="44" t="s">
         <v>1663</v>
       </c>
-      <c r="AN10" s="52" t="s">
+      <c r="AO10" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="AO10" s="21" t="s">
+      <c r="AP10" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP10" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AQ10" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AR10" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS10" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS10" s="21" t="s">
+      <c r="AT10" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AT10" s="21">
+      <c r="AU10" s="21">
         <v>4</v>
       </c>
-      <c r="AU10" s="21" t="s">
+      <c r="AV10" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21" t="s">
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX10" s="94" t="s">
+      <c r="AY10" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY10" s="31"/>
       <c r="AZ10" s="31"/>
       <c r="BA10" s="31"/>
       <c r="BB10" s="31"/>
@@ -10706,8 +10751,9 @@
       <c r="BO10" s="31"/>
       <c r="BP10" s="31"/>
       <c r="BQ10" s="31"/>
+      <c r="BR10" s="31"/>
     </row>
-    <row r="11" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="11" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
@@ -10795,41 +10841,41 @@
       <c r="AC11" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE11" s="2">
         <v>1</v>
       </c>
-      <c r="AE11" s="44" t="s">
+      <c r="AF11" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AG11" s="32" t="s">
+      <c r="AH11" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AM11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO11" s="21" t="s">
-        <v>1671</v>
+      <c r="AN11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO11" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP11" s="21" t="s">
         <v>1671</v>
@@ -10838,27 +10884,29 @@
         <v>1671</v>
       </c>
       <c r="AR11" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AS11" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS11" s="21" t="s">
+      <c r="AT11" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT11" s="21">
+      <c r="AU11" s="21">
         <v>8</v>
       </c>
-      <c r="AU11" s="21" t="s">
+      <c r="AV11" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV11" s="21" t="s">
+      <c r="AW11" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW11" s="21" t="s">
+      <c r="AX11" s="21" t="s">
         <v>1860</v>
       </c>
-      <c r="AX11" s="94" t="s">
+      <c r="AY11" s="94" t="s">
         <v>1859</v>
       </c>
-      <c r="AY11" s="31"/>
       <c r="AZ11" s="31"/>
       <c r="BA11" s="31"/>
       <c r="BB11" s="31"/>
@@ -10877,8 +10925,9 @@
       <c r="BO11" s="31"/>
       <c r="BP11" s="31"/>
       <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
     </row>
-    <row r="12" spans="1:69" s="3" customFormat="1" ht="136">
+    <row r="12" spans="1:70" s="3" customFormat="1" ht="136">
       <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
@@ -10966,70 +11015,72 @@
       <c r="AC12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE12" s="2">
         <v>1</v>
       </c>
-      <c r="AE12" s="44" t="s">
+      <c r="AF12" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="AF12" s="55" t="s">
+      <c r="AG12" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AL12" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AN12" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="AN12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO12" s="21" t="s">
+      <c r="AO12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP12" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP12" s="21" t="s">
-        <v>1722</v>
       </c>
       <c r="AQ12" s="21" t="s">
         <v>1722</v>
       </c>
       <c r="AR12" s="21" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AS12" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS12" s="21" t="s">
+      <c r="AT12" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT12" s="21">
+      <c r="AU12" s="21">
         <v>6</v>
       </c>
-      <c r="AU12" s="21" t="s">
+      <c r="AV12" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV12" s="21" t="s">
+      <c r="AW12" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW12" s="21" t="s">
+      <c r="AX12" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX12" s="94" t="s">
+      <c r="AY12" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AY12" s="31"/>
       <c r="AZ12" s="31"/>
       <c r="BA12" s="31"/>
       <c r="BB12" s="31"/>
@@ -11048,8 +11099,9 @@
       <c r="BO12" s="31"/>
       <c r="BP12" s="31"/>
       <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
     </row>
-    <row r="13" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="13" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
@@ -11137,70 +11189,72 @@
       <c r="AC13" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE13" s="2">
         <v>1</v>
       </c>
-      <c r="AE13" s="44" t="s">
+      <c r="AF13" s="44" t="s">
         <v>1656</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AG13" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="AG13" s="5" t="s">
+      <c r="AH13" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AI13" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AI13" s="5" t="s">
+      <c r="AJ13" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AK13" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AL13" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AM13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AM13" s="44" t="s">
+      <c r="AN13" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="AN13" s="52" t="s">
+      <c r="AO13" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="AO13" s="21" t="s">
+      <c r="AP13" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AP13" s="21" t="s">
+      <c r="AQ13" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ13" s="21" t="s">
+      <c r="AR13" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR13" s="56" t="s">
+      <c r="AS13" s="56" t="s">
         <v>1668</v>
       </c>
-      <c r="AS13" s="56" t="s">
+      <c r="AT13" s="56" t="s">
         <v>1690</v>
       </c>
-      <c r="AT13" s="21">
+      <c r="AU13" s="21">
         <v>5</v>
       </c>
-      <c r="AU13" s="21" t="s">
+      <c r="AV13" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV13" s="21" t="s">
+      <c r="AW13" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW13" s="21" t="s">
+      <c r="AX13" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AX13" s="94" t="s">
+      <c r="AY13" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY13" s="31"/>
       <c r="AZ13" s="31"/>
       <c r="BA13" s="31"/>
       <c r="BB13" s="31"/>
@@ -11219,8 +11273,9 @@
       <c r="BO13" s="31"/>
       <c r="BP13" s="31"/>
       <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
     </row>
-    <row r="14" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="14" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
@@ -11306,41 +11361,41 @@
       <c r="AC14" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AE14" s="2">
         <v>1</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AF14" s="32" t="s">
+      <c r="AG14" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AK14" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AL14" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AL14" s="2" t="s">
+      <c r="AM14" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AM14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN14" s="11" t="s">
+      <c r="AN14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO14" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="AO14" s="21" t="s">
-        <v>1671</v>
       </c>
       <c r="AP14" s="21" t="s">
         <v>1671</v>
@@ -11349,23 +11404,25 @@
         <v>1671</v>
       </c>
       <c r="AR14" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AS14" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AS14" s="21" t="s">
+      <c r="AT14" s="21" t="s">
         <v>1693</v>
       </c>
-      <c r="AT14" s="21">
+      <c r="AU14" s="21">
         <v>4</v>
       </c>
-      <c r="AU14" s="21" t="s">
+      <c r="AV14" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="57" t="s">
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="57" t="s">
         <v>1855</v>
       </c>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="31"/>
+      <c r="AY14" s="95"/>
       <c r="AZ14" s="31"/>
       <c r="BA14" s="31"/>
       <c r="BB14" s="31"/>
@@ -11384,8 +11441,9 @@
       <c r="BO14" s="31"/>
       <c r="BP14" s="31"/>
       <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
     </row>
-    <row r="15" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="15" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
@@ -11471,41 +11529,41 @@
       <c r="AC15" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE15" s="2">
         <v>1</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AH15" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="AK15" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AL15" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AL15" s="2" t="s">
+      <c r="AM15" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="AM15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO15" s="21" t="s">
-        <v>1724</v>
+      <c r="AN15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP15" s="21" t="s">
         <v>1724</v>
@@ -11514,27 +11572,29 @@
         <v>1724</v>
       </c>
       <c r="AR15" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AS15" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS15" s="21" t="s">
+      <c r="AT15" s="21" t="s">
         <v>1691</v>
       </c>
-      <c r="AT15" s="21">
+      <c r="AU15" s="21">
         <v>5</v>
       </c>
-      <c r="AU15" s="21" t="s">
+      <c r="AV15" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV15" s="21" t="s">
+      <c r="AW15" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW15" s="57" t="s">
+      <c r="AX15" s="57" t="s">
         <v>1855</v>
       </c>
-      <c r="AX15" s="94" t="s">
+      <c r="AY15" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY15" s="31"/>
       <c r="AZ15" s="31"/>
       <c r="BA15" s="31"/>
       <c r="BB15" s="31"/>
@@ -11553,8 +11613,9 @@
       <c r="BO15" s="31"/>
       <c r="BP15" s="31"/>
       <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
     </row>
-    <row r="16" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="16" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A16" s="29" t="s">
         <v>14</v>
       </c>
@@ -11640,41 +11701,41 @@
       <c r="AC16" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE16" s="2">
         <v>1</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AK16" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AL16" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AM16" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AN16" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="AN16" s="11" t="s">
+      <c r="AO16" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="AO16" s="21" t="s">
-        <v>1718</v>
       </c>
       <c r="AP16" s="21" t="s">
         <v>1718</v>
@@ -11683,27 +11744,29 @@
         <v>1718</v>
       </c>
       <c r="AR16" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS16" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AS16" s="21" t="s">
+      <c r="AT16" s="21" t="s">
         <v>1692</v>
       </c>
-      <c r="AT16" s="21">
+      <c r="AU16" s="21">
         <v>4</v>
       </c>
-      <c r="AU16" s="21" t="s">
+      <c r="AV16" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV16" s="21" t="s">
+      <c r="AW16" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW16" s="21" t="s">
+      <c r="AX16" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX16" s="94" t="s">
+      <c r="AY16" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY16" s="31"/>
       <c r="AZ16" s="31"/>
       <c r="BA16" s="31"/>
       <c r="BB16" s="31"/>
@@ -11722,8 +11785,9 @@
       <c r="BO16" s="31"/>
       <c r="BP16" s="31"/>
       <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
     </row>
-    <row r="17" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="17" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A17" s="29" t="s">
         <v>15</v>
       </c>
@@ -11809,40 +11873,40 @@
       <c r="AC17" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE17" s="2">
         <v>0</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AK17" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AK17" s="2" t="s">
+      <c r="AL17" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AL17" s="2" t="s">
+      <c r="AM17" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AM17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="21" t="s">
-        <v>1716</v>
-      </c>
+      <c r="AN17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO17" s="11"/>
       <c r="AP17" s="21" t="s">
         <v>1716</v>
       </c>
@@ -11850,23 +11914,25 @@
         <v>1716</v>
       </c>
       <c r="AR17" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS17" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS17" s="21" t="s">
+      <c r="AT17" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AT17" s="21">
+      <c r="AU17" s="21">
         <v>0</v>
       </c>
-      <c r="AU17" s="21" t="s">
+      <c r="AV17" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21" t="s">
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="31"/>
+      <c r="AY17" s="94"/>
       <c r="AZ17" s="31"/>
       <c r="BA17" s="31"/>
       <c r="BB17" s="31"/>
@@ -11885,8 +11951,9 @@
       <c r="BO17" s="31"/>
       <c r="BP17" s="31"/>
       <c r="BQ17" s="31"/>
+      <c r="BR17" s="31"/>
     </row>
-    <row r="18" spans="1:69" s="3" customFormat="1" ht="255">
+    <row r="18" spans="1:70" s="3" customFormat="1" ht="255">
       <c r="A18" s="29" t="s">
         <v>16</v>
       </c>
@@ -11972,68 +12039,70 @@
       <c r="AC18" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AE18" s="2">
         <v>0</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AF18" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AF18" s="32" t="s">
+      <c r="AG18" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AG18" s="2" t="s">
+      <c r="AH18" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="AK18" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AL18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AL18" s="2" t="s">
+      <c r="AM18" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AM18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="21" t="s">
+      <c r="AN18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AP18" s="21" t="s">
+      <c r="AQ18" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ18" s="21" t="s">
+      <c r="AR18" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR18" s="21" t="s">
+      <c r="AS18" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS18" s="21" t="s">
+      <c r="AT18" s="21" t="s">
         <v>1694</v>
       </c>
-      <c r="AT18" s="21">
+      <c r="AU18" s="21">
         <v>5</v>
       </c>
-      <c r="AU18" s="21" t="s">
+      <c r="AV18" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV18" s="21" t="s">
+      <c r="AW18" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW18" s="21" t="s">
+      <c r="AX18" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX18" s="94" t="s">
+      <c r="AY18" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AY18" s="31"/>
       <c r="AZ18" s="31"/>
       <c r="BA18" s="31"/>
       <c r="BB18" s="31"/>
@@ -12052,8 +12121,9 @@
       <c r="BO18" s="31"/>
       <c r="BP18" s="31"/>
       <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
     </row>
-    <row r="19" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="19" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
@@ -12139,70 +12209,72 @@
       <c r="AC19" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE19" s="2">
         <v>1</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="AI19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="AK19" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="AK19" s="2" t="s">
+      <c r="AL19" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AM19" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="AM19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO19" s="21" t="s">
+      <c r="AN19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP19" s="21" t="s">
         <v>1724</v>
       </c>
-      <c r="AP19" s="21" t="s">
+      <c r="AQ19" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ19" s="21" t="s">
+      <c r="AR19" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR19" s="21" t="s">
+      <c r="AS19" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS19" s="21" t="s">
+      <c r="AT19" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AT19" s="21">
+      <c r="AU19" s="21">
         <v>4</v>
       </c>
-      <c r="AU19" s="21" t="s">
+      <c r="AV19" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV19" s="21" t="s">
+      <c r="AW19" s="21" t="s">
         <v>1863</v>
       </c>
-      <c r="AW19" s="21" t="s">
+      <c r="AX19" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX19" s="94" t="s">
+      <c r="AY19" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY19" s="31"/>
       <c r="AZ19" s="31"/>
       <c r="BA19" s="31"/>
       <c r="BB19" s="31"/>
@@ -12221,8 +12293,9 @@
       <c r="BO19" s="31"/>
       <c r="BP19" s="31"/>
       <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
     </row>
-    <row r="20" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="20" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
@@ -12308,41 +12381,41 @@
       <c r="AC20" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AE20" s="104">
         <v>0</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AG20" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AH20" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AI20" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AI20" s="2" t="s">
+      <c r="AJ20" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AJ20" s="2" t="s">
+      <c r="AK20" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AK20" s="2" t="s">
+      <c r="AL20" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AL20" s="2" t="s">
+      <c r="AM20" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AN20" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO20" s="21" t="s">
-        <v>1718</v>
+      <c r="AO20" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP20" s="21" t="s">
         <v>1718</v>
@@ -12351,23 +12424,25 @@
         <v>1718</v>
       </c>
       <c r="AR20" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS20" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS20" s="21" t="s">
+      <c r="AT20" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT20" s="21">
+      <c r="AU20" s="21">
         <v>4</v>
       </c>
-      <c r="AU20" s="21" t="s">
+      <c r="AV20" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21" t="s">
+      <c r="AW20" s="21"/>
+      <c r="AX20" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX20" s="94"/>
-      <c r="AY20" s="31"/>
+      <c r="AY20" s="94"/>
       <c r="AZ20" s="31"/>
       <c r="BA20" s="31"/>
       <c r="BB20" s="31"/>
@@ -12386,8 +12461,9 @@
       <c r="BO20" s="31"/>
       <c r="BP20" s="31"/>
       <c r="BQ20" s="31"/>
+      <c r="BR20" s="31"/>
     </row>
-    <row r="21" spans="1:69" s="4" customFormat="1" ht="136">
+    <row r="21" spans="1:70" s="4" customFormat="1" ht="136">
       <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
@@ -12473,41 +12549,41 @@
       <c r="AC21" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE21" s="2">
         <v>0</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AG21" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="AH21" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AJ21" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AK21" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="AK21" s="2" t="s">
+      <c r="AL21" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="AL21" s="2" t="s">
+      <c r="AM21" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="AM21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO21" s="21" t="s">
-        <v>1671</v>
+      <c r="AN21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO21" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP21" s="21" t="s">
         <v>1671</v>
@@ -12516,27 +12592,29 @@
         <v>1671</v>
       </c>
       <c r="AR21" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AS21" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS21" s="21" t="s">
+      <c r="AT21" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AT21" s="21">
+      <c r="AU21" s="21">
         <v>5</v>
       </c>
-      <c r="AU21" s="21" t="s">
+      <c r="AV21" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV21" s="21" t="s">
+      <c r="AW21" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AW21" s="21" t="s">
+      <c r="AX21" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX21" s="94" t="s">
+      <c r="AY21" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY21" s="31"/>
       <c r="AZ21" s="31"/>
       <c r="BA21" s="31"/>
       <c r="BB21" s="31"/>
@@ -12555,8 +12633,9 @@
       <c r="BO21" s="31"/>
       <c r="BP21" s="31"/>
       <c r="BQ21" s="31"/>
+      <c r="BR21" s="31"/>
     </row>
-    <row r="22" spans="1:69" s="3" customFormat="1" ht="340">
+    <row r="22" spans="1:70" s="3" customFormat="1" ht="340">
       <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
@@ -12642,41 +12721,41 @@
       <c r="AC22" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AE22" s="2">
         <v>1</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AG22" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AG22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="AI22" s="2" t="s">
+      <c r="AJ22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ22" s="2" t="s">
+      <c r="AK22" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="AK22" s="2" t="s">
+      <c r="AL22" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="AL22" s="2" t="s">
+      <c r="AM22" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AM22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN22" s="60" t="s">
+      <c r="AN22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO22" s="60" t="s">
         <v>557</v>
-      </c>
-      <c r="AO22" s="21" t="s">
-        <v>1727</v>
       </c>
       <c r="AP22" s="21" t="s">
         <v>1727</v>
@@ -12685,27 +12764,29 @@
         <v>1727</v>
       </c>
       <c r="AR22" s="21" t="s">
+        <v>1727</v>
+      </c>
+      <c r="AS22" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS22" s="21" t="s">
+      <c r="AT22" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT22" s="21">
+      <c r="AU22" s="21">
         <v>8</v>
       </c>
-      <c r="AU22" s="21" t="s">
+      <c r="AV22" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AV22" s="21" t="s">
+      <c r="AW22" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW22" s="21" t="s">
+      <c r="AX22" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX22" s="94" t="s">
+      <c r="AY22" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY22" s="31"/>
       <c r="AZ22" s="31"/>
       <c r="BA22" s="31"/>
       <c r="BB22" s="31"/>
@@ -12724,8 +12805,9 @@
       <c r="BO22" s="31"/>
       <c r="BP22" s="31"/>
       <c r="BQ22" s="31"/>
+      <c r="BR22" s="31"/>
     </row>
-    <row r="23" spans="1:69" s="4" customFormat="1" ht="323">
+    <row r="23" spans="1:70" s="4" customFormat="1" ht="323">
       <c r="A23" s="29" t="s">
         <v>21</v>
       </c>
@@ -12811,70 +12893,72 @@
       <c r="AC23" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE23" s="2">
         <v>1</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AG23" s="2" t="s">
+      <c r="AH23" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="AI23" s="2" t="s">
+      <c r="AJ23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ23" s="2" t="s">
+      <c r="AK23" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="AK23" s="2" t="s">
+      <c r="AL23" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AL23" s="2" t="s">
+      <c r="AM23" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="AM23" s="2" t="s">
+      <c r="AN23" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO23" s="21" t="s">
+      <c r="AO23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP23" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP23" s="21" t="s">
-        <v>1725</v>
       </c>
       <c r="AQ23" s="21" t="s">
         <v>1725</v>
       </c>
       <c r="AR23" s="21" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AS23" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS23" s="21" t="s">
+      <c r="AT23" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT23" s="21">
+      <c r="AU23" s="21">
         <v>8</v>
       </c>
-      <c r="AU23" s="21" t="s">
+      <c r="AV23" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV23" s="21" t="s">
+      <c r="AW23" s="21" t="s">
         <v>1864</v>
       </c>
-      <c r="AW23" s="21" t="s">
+      <c r="AX23" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AX23" s="94" t="s">
+      <c r="AY23" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY23" s="31"/>
       <c r="AZ23" s="31"/>
       <c r="BA23" s="31"/>
       <c r="BB23" s="31"/>
@@ -12893,8 +12977,9 @@
       <c r="BO23" s="31"/>
       <c r="BP23" s="31"/>
       <c r="BQ23" s="31"/>
+      <c r="BR23" s="31"/>
     </row>
-    <row r="24" spans="1:69" s="3" customFormat="1" ht="372">
+    <row r="24" spans="1:70" s="3" customFormat="1" ht="372">
       <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
@@ -12980,41 +13065,41 @@
       <c r="AC24" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE24" s="2">
         <v>1</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AF24" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="AF24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG24" s="2" t="s">
+      <c r="AH24" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="AH24" s="2" t="s">
+      <c r="AI24" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="AI24" s="2" t="s">
+      <c r="AJ24" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="AJ24" s="2" t="s">
+      <c r="AK24" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="AK24" s="2" t="s">
+      <c r="AL24" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="AL24" s="2" t="s">
+      <c r="AM24" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="AM24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO24" s="21" t="s">
-        <v>1726</v>
+      <c r="AN24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO24" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP24" s="21" t="s">
         <v>1726</v>
@@ -13023,25 +13108,27 @@
         <v>1726</v>
       </c>
       <c r="AR24" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AS24" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS24" s="21" t="s">
+      <c r="AT24" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="AT24" s="21">
+      <c r="AU24" s="21">
         <v>5</v>
       </c>
-      <c r="AU24" s="21" t="s">
+      <c r="AV24" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21" t="s">
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX24" s="94" t="s">
+      <c r="AY24" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY24" s="31"/>
       <c r="AZ24" s="31"/>
       <c r="BA24" s="31"/>
       <c r="BB24" s="31"/>
@@ -13060,8 +13147,9 @@
       <c r="BO24" s="31"/>
       <c r="BP24" s="31"/>
       <c r="BQ24" s="31"/>
+      <c r="BR24" s="31"/>
     </row>
-    <row r="25" spans="1:69" s="4" customFormat="1" ht="294" customHeight="1">
+    <row r="25" spans="1:70" s="4" customFormat="1" ht="294" customHeight="1">
       <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
@@ -13147,70 +13235,72 @@
       <c r="AC25" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE25" s="2">
         <v>1</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="AF25" s="2" t="s">
+      <c r="AG25" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AG25" s="2" t="s">
+      <c r="AH25" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="AH25" s="2" t="s">
+      <c r="AI25" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="AI25" s="2" t="s">
+      <c r="AJ25" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="AJ25" s="2" t="s">
+      <c r="AK25" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="AK25" s="2" t="s">
+      <c r="AL25" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AL25" s="2" t="s">
+      <c r="AM25" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="AM25" s="2" t="s">
+      <c r="AN25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AN25" s="11" t="s">
+      <c r="AO25" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="AO25" s="64" t="s">
+      <c r="AP25" s="64" t="s">
         <v>1853</v>
-      </c>
-      <c r="AP25" s="64" t="s">
-        <v>1741</v>
       </c>
       <c r="AQ25" s="64" t="s">
         <v>1741</v>
       </c>
-      <c r="AR25" s="21" t="s">
+      <c r="AR25" s="64" t="s">
+        <v>1741</v>
+      </c>
+      <c r="AS25" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS25" s="21" t="s">
+      <c r="AT25" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT25" s="21">
+      <c r="AU25" s="21">
         <v>4</v>
       </c>
-      <c r="AU25" s="21" t="s">
+      <c r="AV25" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV25" s="21" t="s">
+      <c r="AW25" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW25" s="21" t="s">
+      <c r="AX25" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AX25" s="94" t="s">
+      <c r="AY25" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY25" s="31"/>
       <c r="AZ25" s="31"/>
       <c r="BA25" s="31"/>
       <c r="BB25" s="31"/>
@@ -13229,8 +13319,9 @@
       <c r="BO25" s="31"/>
       <c r="BP25" s="31"/>
       <c r="BQ25" s="31"/>
+      <c r="BR25" s="31"/>
     </row>
-    <row r="26" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="26" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A26" s="29" t="s">
         <v>24</v>
       </c>
@@ -13316,64 +13407,66 @@
       <c r="AC26" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AF26" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="AF26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="AG26" s="2" t="s">
+      <c r="AH26" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="AH26" s="2" t="s">
+      <c r="AI26" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="AI26" s="2" t="s">
+      <c r="AJ26" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="AJ26" s="2" t="s">
+      <c r="AK26" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="AK26" s="2" t="s">
+      <c r="AL26" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AL26" s="2" t="s">
+      <c r="AM26" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="AM26" s="2" t="s">
+      <c r="AN26" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="21" t="s">
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="21" t="s">
         <v>1717</v>
       </c>
-      <c r="AP26" s="21" t="s">
+      <c r="AQ26" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ26" s="21" t="s">
+      <c r="AR26" s="21" t="s">
         <v>1716</v>
-      </c>
-      <c r="AR26" s="21" t="s">
-        <v>1671</v>
       </c>
       <c r="AS26" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AT26" s="21">
+      <c r="AT26" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AU26" s="21">
         <v>2</v>
       </c>
-      <c r="AU26" s="21" t="s">
+      <c r="AV26" s="21" t="s">
         <v>1679</v>
       </c>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21" t="s">
+      <c r="AW26" s="21"/>
+      <c r="AX26" s="21" t="s">
         <v>1679</v>
       </c>
-      <c r="AX26" s="94"/>
-      <c r="AY26" s="31"/>
+      <c r="AY26" s="94"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="31"/>
@@ -13392,8 +13485,9 @@
       <c r="BO26" s="31"/>
       <c r="BP26" s="31"/>
       <c r="BQ26" s="31"/>
+      <c r="BR26" s="31"/>
     </row>
-    <row r="27" spans="1:69" s="4" customFormat="1" ht="170">
+    <row r="27" spans="1:70" s="4" customFormat="1" ht="170">
       <c r="A27" s="29" t="s">
         <v>25</v>
       </c>
@@ -13479,41 +13573,41 @@
       <c r="AC27" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE27" s="2">
         <v>1</v>
       </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AF27" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AG27" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="AG27" s="2" t="s">
+      <c r="AH27" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="AI27" s="2" t="s">
+      <c r="AJ27" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="AJ27" s="2" t="s">
+      <c r="AK27" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="AK27" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AM27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AN27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO27" s="21" t="s">
-        <v>1718</v>
+      <c r="AN27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP27" s="21" t="s">
         <v>1718</v>
@@ -13522,25 +13616,27 @@
         <v>1718</v>
       </c>
       <c r="AR27" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS27" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AS27" s="21" t="s">
+      <c r="AT27" s="21" t="s">
         <v>1695</v>
       </c>
-      <c r="AT27" s="21">
+      <c r="AU27" s="21">
         <v>4</v>
       </c>
-      <c r="AU27" s="21" t="s">
+      <c r="AV27" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21" t="s">
+      <c r="AW27" s="21"/>
+      <c r="AX27" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AX27" s="94" t="s">
+      <c r="AY27" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY27" s="31"/>
       <c r="AZ27" s="31"/>
       <c r="BA27" s="31"/>
       <c r="BB27" s="31"/>
@@ -13559,8 +13655,9 @@
       <c r="BO27" s="31"/>
       <c r="BP27" s="31"/>
       <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
     </row>
-    <row r="28" spans="1:69" s="3" customFormat="1" ht="356">
+    <row r="28" spans="1:70" s="3" customFormat="1" ht="356">
       <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
@@ -13646,68 +13743,70 @@
       <c r="AC28" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE28" s="2">
         <v>1</v>
       </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AF28" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="AF28" s="2" t="s">
+      <c r="AG28" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="AG28" s="2" t="s">
+      <c r="AH28" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AH28" s="2" t="s">
+      <c r="AI28" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="AI28" s="2" t="s">
+      <c r="AJ28" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="AJ28" s="2" t="s">
+      <c r="AK28" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="AK28" s="2" t="s">
+      <c r="AL28" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="AL28" s="2" t="s">
+      <c r="AM28" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="AM28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO28" s="21" t="s">
+      <c r="AN28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP28" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AP28" s="21" t="s">
+      <c r="AQ28" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AQ28" s="21" t="s">
+      <c r="AR28" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR28" s="21" t="s">
+      <c r="AS28" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS28" s="21" t="s">
+      <c r="AT28" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AT28" s="21">
+      <c r="AU28" s="21">
         <v>5</v>
       </c>
-      <c r="AU28" s="21" t="s">
+      <c r="AV28" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21" t="s">
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX28" s="94" t="s">
+      <c r="AY28" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY28" s="31"/>
       <c r="AZ28" s="31"/>
       <c r="BA28" s="31"/>
       <c r="BB28" s="31"/>
@@ -13726,8 +13825,9 @@
       <c r="BO28" s="31"/>
       <c r="BP28" s="31"/>
       <c r="BQ28" s="31"/>
+      <c r="BR28" s="31"/>
     </row>
-    <row r="29" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="29" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
@@ -13813,40 +13913,40 @@
       <c r="AC29" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE29" s="2">
         <v>0</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AF29" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="AF29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="AG29" s="2" t="s">
+      <c r="AH29" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="AH29" s="2" t="s">
+      <c r="AI29" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="AI29" s="2" t="s">
+      <c r="AJ29" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="AJ29" s="2" t="s">
+      <c r="AK29" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="AK29" s="2" t="s">
+      <c r="AL29" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="AL29" s="2" t="s">
+      <c r="AM29" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="AM29" s="2" t="s">
+      <c r="AN29" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="21" t="s">
-        <v>1726</v>
-      </c>
+      <c r="AO29" s="11"/>
       <c r="AP29" s="21" t="s">
         <v>1726</v>
       </c>
@@ -13854,25 +13954,27 @@
         <v>1726</v>
       </c>
       <c r="AR29" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AS29" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS29" s="21" t="s">
+      <c r="AT29" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT29" s="21">
+      <c r="AU29" s="21">
         <v>6</v>
       </c>
-      <c r="AU29" s="21" t="s">
+      <c r="AV29" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV29" s="21" t="s">
+      <c r="AW29" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW29" s="21" t="s">
+      <c r="AX29" s="21" t="s">
         <v>1677</v>
       </c>
-      <c r="AX29" s="94"/>
-      <c r="AY29" s="31"/>
+      <c r="AY29" s="94"/>
       <c r="AZ29" s="31"/>
       <c r="BA29" s="31"/>
       <c r="BB29" s="31"/>
@@ -13891,8 +13993,9 @@
       <c r="BO29" s="31"/>
       <c r="BP29" s="31"/>
       <c r="BQ29" s="31"/>
+      <c r="BR29" s="31"/>
     </row>
-    <row r="30" spans="1:69" s="3" customFormat="1" ht="272">
+    <row r="30" spans="1:70" s="3" customFormat="1" ht="272">
       <c r="A30" s="29" t="s">
         <v>28</v>
       </c>
@@ -13978,40 +14081,40 @@
       <c r="AC30" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE30" s="2">
         <v>1</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AF30" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG30" s="2" t="s">
+      <c r="AH30" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="AH30" s="2" t="s">
+      <c r="AI30" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="AI30" s="2" t="s">
+      <c r="AJ30" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ30" s="2" t="s">
+      <c r="AK30" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="AK30" s="2" t="s">
+      <c r="AL30" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="AL30" s="2" t="s">
+      <c r="AM30" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="AM30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="21" t="s">
-        <v>1718</v>
-      </c>
+      <c r="AN30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO30" s="11"/>
       <c r="AP30" s="21" t="s">
         <v>1718</v>
       </c>
@@ -14019,27 +14122,29 @@
         <v>1718</v>
       </c>
       <c r="AR30" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS30" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS30" s="21" t="s">
+      <c r="AT30" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AT30" s="21">
+      <c r="AU30" s="21">
         <v>5</v>
       </c>
-      <c r="AU30" s="21" t="s">
+      <c r="AV30" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV30" s="21" t="s">
+      <c r="AW30" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AW30" s="21" t="s">
+      <c r="AX30" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AX30" s="94" t="s">
+      <c r="AY30" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY30" s="31"/>
       <c r="AZ30" s="31"/>
       <c r="BA30" s="31"/>
       <c r="BB30" s="31"/>
@@ -14058,8 +14163,9 @@
       <c r="BO30" s="31"/>
       <c r="BP30" s="31"/>
       <c r="BQ30" s="31"/>
+      <c r="BR30" s="31"/>
     </row>
-    <row r="31" spans="1:69" s="4" customFormat="1" ht="404">
+    <row r="31" spans="1:70" s="4" customFormat="1" ht="404">
       <c r="A31" s="29" t="s">
         <v>29</v>
       </c>
@@ -14145,66 +14251,68 @@
       <c r="AC31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AE31" s="2">
         <v>1</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AG31" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="AG31" s="2" t="s">
+      <c r="AH31" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="AI31" s="2" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="AJ31" s="2" t="s">
+      <c r="AK31" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="AK31" s="2" t="s">
+      <c r="AL31" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="AL31" s="2" t="s">
+      <c r="AM31" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="AM31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO31" s="21" t="s">
+      <c r="AN31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP31" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP31" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AQ31" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AR31" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS31" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AS31" s="21" t="s">
+      <c r="AT31" s="21" t="s">
         <v>1696</v>
       </c>
-      <c r="AT31" s="21">
+      <c r="AU31" s="21">
         <v>6</v>
       </c>
-      <c r="AU31" s="21" t="s">
+      <c r="AV31" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21" t="s">
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX31" s="94"/>
-      <c r="AY31" s="31"/>
+      <c r="AY31" s="94"/>
       <c r="AZ31" s="31"/>
       <c r="BA31" s="31"/>
       <c r="BB31" s="31"/>
@@ -14223,8 +14331,9 @@
       <c r="BO31" s="31"/>
       <c r="BP31" s="31"/>
       <c r="BQ31" s="31"/>
+      <c r="BR31" s="31"/>
     </row>
-    <row r="32" spans="1:69" s="69" customFormat="1" ht="409.6">
+    <row r="32" spans="1:70" s="69" customFormat="1" ht="409.6">
       <c r="A32" s="65" t="s">
         <v>30</v>
       </c>
@@ -14310,68 +14419,70 @@
       <c r="AC32" s="44" t="s">
         <v>773</v>
       </c>
-      <c r="AD32" s="44">
+      <c r="AD32" s="44" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AE32" s="44">
         <v>1</v>
       </c>
-      <c r="AE32" s="44" t="s">
+      <c r="AF32" s="44" t="s">
         <v>774</v>
       </c>
-      <c r="AF32" s="44" t="s">
+      <c r="AG32" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="AG32" s="44" t="s">
+      <c r="AH32" s="44" t="s">
         <v>775</v>
       </c>
-      <c r="AH32" s="44" t="s">
+      <c r="AI32" s="44" t="s">
         <v>776</v>
       </c>
-      <c r="AI32" s="44" t="s">
-        <v>71</v>
-      </c>
       <c r="AJ32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK32" s="44" t="s">
         <v>777</v>
       </c>
-      <c r="AK32" s="44" t="s">
+      <c r="AL32" s="44" t="s">
         <v>778</v>
       </c>
-      <c r="AL32" s="44" t="s">
+      <c r="AM32" s="44" t="s">
         <v>779</v>
       </c>
-      <c r="AM32" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN32" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO32" s="67" t="s">
+      <c r="AN32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO32" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP32" s="67" t="s">
         <v>1728</v>
       </c>
-      <c r="AP32" s="67" t="s">
+      <c r="AQ32" s="67" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ32" s="67" t="s">
+      <c r="AR32" s="67" t="s">
         <v>1728</v>
       </c>
-      <c r="AR32" s="67" t="s">
+      <c r="AS32" s="67" t="s">
         <v>1667</v>
       </c>
-      <c r="AS32" s="67" t="s">
+      <c r="AT32" s="67" t="s">
         <v>1508</v>
       </c>
-      <c r="AT32" s="67">
+      <c r="AU32" s="67">
         <v>8</v>
       </c>
-      <c r="AU32" s="67" t="s">
+      <c r="AV32" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="21" t="s">
+      <c r="AW32" s="67"/>
+      <c r="AX32" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AX32" s="94" t="s">
+      <c r="AY32" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY32" s="68"/>
       <c r="AZ32" s="68"/>
       <c r="BA32" s="68"/>
       <c r="BB32" s="68"/>
@@ -14390,8 +14501,9 @@
       <c r="BO32" s="68"/>
       <c r="BP32" s="68"/>
       <c r="BQ32" s="68"/>
+      <c r="BR32" s="68"/>
     </row>
-    <row r="33" spans="1:69" s="4" customFormat="1" ht="204">
+    <row r="33" spans="1:70" s="4" customFormat="1" ht="204">
       <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
@@ -14477,66 +14589,68 @@
       <c r="AC33" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AE33" s="2">
         <v>1</v>
       </c>
-      <c r="AE33" s="2" t="s">
+      <c r="AF33" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="AF33" s="2" t="s">
+      <c r="AG33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG33" s="2" t="s">
+      <c r="AH33" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AI33" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="AI33" s="2" t="s">
+      <c r="AJ33" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="AJ33" s="2" t="s">
+      <c r="AK33" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="AK33" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM33" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="AM33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO33" s="21" t="s">
+      <c r="AN33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP33" s="21" t="s">
         <v>1716</v>
-      </c>
-      <c r="AP33" s="21" t="s">
-        <v>1729</v>
       </c>
       <c r="AQ33" s="21" t="s">
         <v>1729</v>
       </c>
       <c r="AR33" s="21" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AS33" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS33" s="21" t="s">
+      <c r="AT33" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT33" s="21">
+      <c r="AU33" s="21">
         <v>5</v>
       </c>
-      <c r="AU33" s="67" t="s">
+      <c r="AV33" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="21" t="s">
+      <c r="AW33" s="67"/>
+      <c r="AX33" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AX33" s="94"/>
-      <c r="AY33" s="31"/>
+      <c r="AY33" s="94"/>
       <c r="AZ33" s="31"/>
       <c r="BA33" s="31"/>
       <c r="BB33" s="31"/>
@@ -14555,8 +14669,9 @@
       <c r="BO33" s="31"/>
       <c r="BP33" s="31"/>
       <c r="BQ33" s="31"/>
+      <c r="BR33" s="31"/>
     </row>
-    <row r="34" spans="1:69" s="3" customFormat="1" ht="136">
+    <row r="34" spans="1:70" s="3" customFormat="1" ht="136">
       <c r="A34" s="29" t="s">
         <v>32</v>
       </c>
@@ -14642,70 +14757,72 @@
       <c r="AC34" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE34" s="2">
         <v>1</v>
       </c>
-      <c r="AE34" s="2" t="s">
+      <c r="AF34" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="AF34" s="2" t="s">
+      <c r="AG34" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AG34" s="2" t="s">
+      <c r="AH34" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AI34" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="AI34" s="2" t="s">
+      <c r="AJ34" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="AJ34" s="2" t="s">
+      <c r="AK34" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="AK34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM34" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="AM34" s="2" t="s">
+      <c r="AN34" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="AN34" s="52" t="s">
+      <c r="AO34" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="AO34" s="21" t="s">
+      <c r="AP34" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AP34" s="21" t="s">
+      <c r="AQ34" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ34" s="21" t="s">
+      <c r="AR34" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR34" s="21" t="s">
+      <c r="AS34" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS34" s="21" t="s">
+      <c r="AT34" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT34" s="21">
+      <c r="AU34" s="21">
         <v>6</v>
       </c>
-      <c r="AU34" s="21" t="s">
+      <c r="AV34" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV34" s="21" t="s">
+      <c r="AW34" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW34" s="21" t="s">
+      <c r="AX34" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX34" s="94" t="s">
+      <c r="AY34" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AY34" s="31"/>
       <c r="AZ34" s="31"/>
       <c r="BA34" s="31"/>
       <c r="BB34" s="31"/>
@@ -14724,8 +14841,9 @@
       <c r="BO34" s="31"/>
       <c r="BP34" s="31"/>
       <c r="BQ34" s="31"/>
+      <c r="BR34" s="31"/>
     </row>
-    <row r="35" spans="1:69" s="4" customFormat="1" ht="221">
+    <row r="35" spans="1:70" s="4" customFormat="1" ht="221">
       <c r="A35" s="29" t="s">
         <v>33</v>
       </c>
@@ -14811,41 +14929,41 @@
       <c r="AC35" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE35" s="2">
         <v>1</v>
       </c>
-      <c r="AE35" s="2" t="s">
+      <c r="AF35" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="AF35" s="2" t="s">
+      <c r="AG35" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="AG35" s="2" t="s">
+      <c r="AH35" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="AH35" s="2" t="s">
+      <c r="AI35" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="AI35" s="2" t="s">
+      <c r="AJ35" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="AJ35" s="2" t="s">
+      <c r="AK35" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="AK35" s="2" t="s">
+      <c r="AL35" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AL35" s="2" t="s">
+      <c r="AM35" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="AM35" s="2" t="s">
+      <c r="AN35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AN35" s="11" t="s">
+      <c r="AO35" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="AO35" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP35" s="21" t="s">
         <v>1716</v>
@@ -14854,27 +14972,29 @@
         <v>1716</v>
       </c>
       <c r="AR35" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS35" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS35" s="21" t="s">
+      <c r="AT35" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT35" s="21">
+      <c r="AU35" s="21">
         <v>6</v>
       </c>
-      <c r="AU35" s="21" t="s">
+      <c r="AV35" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV35" s="21" t="s">
+      <c r="AW35" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW35" s="21" t="s">
+      <c r="AX35" s="21" t="s">
         <v>1866</v>
       </c>
-      <c r="AX35" s="94" t="s">
+      <c r="AY35" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AY35" s="31"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="31"/>
       <c r="BB35" s="31"/>
@@ -14893,8 +15013,9 @@
       <c r="BO35" s="31"/>
       <c r="BP35" s="31"/>
       <c r="BQ35" s="31"/>
+      <c r="BR35" s="31"/>
     </row>
-    <row r="36" spans="1:69" s="3" customFormat="1" ht="340">
+    <row r="36" spans="1:70" s="3" customFormat="1" ht="340">
       <c r="A36" s="29" t="s">
         <v>34</v>
       </c>
@@ -14980,68 +15101,70 @@
       <c r="AC36" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE36" s="2">
         <v>1</v>
       </c>
-      <c r="AE36" s="2" t="s">
+      <c r="AF36" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="AF36" s="2" t="s">
+      <c r="AG36" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="AG36" s="2" t="s">
+      <c r="AH36" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="AH36" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="AI36" s="2" t="s">
+      <c r="AJ36" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="AJ36" s="2" t="s">
+      <c r="AK36" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="AK36" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="AL36" s="2" t="s">
         <v>864</v>
       </c>
       <c r="AM36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO36" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP36" s="21" t="s">
         <v>1718</v>
-      </c>
-      <c r="AP36" s="21" t="s">
-        <v>1724</v>
       </c>
       <c r="AQ36" s="21" t="s">
         <v>1724</v>
       </c>
       <c r="AR36" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AS36" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AS36" s="21" t="s">
+      <c r="AT36" s="21" t="s">
         <v>1697</v>
       </c>
-      <c r="AT36" s="21">
+      <c r="AU36" s="21">
         <v>0</v>
       </c>
-      <c r="AU36" s="21" t="s">
+      <c r="AV36" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21" t="s">
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AX36" s="94" t="s">
+      <c r="AY36" s="94" t="s">
         <v>1867</v>
       </c>
-      <c r="AY36" s="31"/>
       <c r="AZ36" s="31"/>
       <c r="BA36" s="31"/>
       <c r="BB36" s="31"/>
@@ -15060,8 +15183,9 @@
       <c r="BO36" s="31"/>
       <c r="BP36" s="31"/>
       <c r="BQ36" s="31"/>
+      <c r="BR36" s="31"/>
     </row>
-    <row r="37" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="37" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A37" s="29" t="s">
         <v>35</v>
       </c>
@@ -15147,66 +15271,68 @@
       <c r="AC37" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AE37" s="2">
         <v>1</v>
       </c>
-      <c r="AE37" s="2" t="s">
+      <c r="AF37" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AG37" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="AI37" s="2" t="s">
+      <c r="AJ37" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ37" s="2" t="s">
+      <c r="AK37" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="AK37" s="38" t="s">
+      <c r="AL37" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="AL37" s="2" t="s">
+      <c r="AM37" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="AM37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO37" s="21" t="s">
+      <c r="AN37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP37" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AP37" s="21" t="s">
+      <c r="AQ37" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ37" s="21" t="s">
+      <c r="AR37" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR37" s="21" t="s">
+      <c r="AS37" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS37" s="21" t="s">
+      <c r="AT37" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AT37" s="21">
+      <c r="AU37" s="21">
         <v>6</v>
       </c>
-      <c r="AU37" s="21" t="s">
+      <c r="AV37" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21" t="s">
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX37" s="94"/>
-      <c r="AY37" s="31"/>
+      <c r="AY37" s="94"/>
       <c r="AZ37" s="31"/>
       <c r="BA37" s="31"/>
       <c r="BB37" s="31"/>
@@ -15225,8 +15351,9 @@
       <c r="BO37" s="31"/>
       <c r="BP37" s="31"/>
       <c r="BQ37" s="31"/>
+      <c r="BR37" s="31"/>
     </row>
-    <row r="38" spans="1:69" s="3" customFormat="1" ht="221">
+    <row r="38" spans="1:70" s="3" customFormat="1" ht="221">
       <c r="A38" s="29" t="s">
         <v>36</v>
       </c>
@@ -15312,41 +15439,41 @@
       <c r="AC38" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE38" s="2">
         <v>1</v>
       </c>
-      <c r="AE38" s="2" t="s">
+      <c r="AF38" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="AI38" s="2" t="s">
+      <c r="AJ38" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="AJ38" s="2" t="s">
+      <c r="AK38" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="AK38" s="2" t="s">
+      <c r="AL38" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="AL38" s="2" t="s">
+      <c r="AM38" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="AM38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN38" s="11" t="s">
+      <c r="AN38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO38" s="11" t="s">
         <v>904</v>
-      </c>
-      <c r="AO38" s="21" t="s">
-        <v>1730</v>
       </c>
       <c r="AP38" s="21" t="s">
         <v>1730</v>
@@ -15355,27 +15482,29 @@
         <v>1730</v>
       </c>
       <c r="AR38" s="21" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AS38" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AS38" s="21" t="s">
+      <c r="AT38" s="21" t="s">
         <v>1698</v>
       </c>
-      <c r="AT38" s="21">
+      <c r="AU38" s="21">
         <v>0</v>
       </c>
-      <c r="AU38" s="21" t="s">
+      <c r="AV38" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV38" s="21" t="s">
+      <c r="AW38" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW38" s="21" t="s">
+      <c r="AX38" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AX38" s="94" t="s">
+      <c r="AY38" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY38" s="31"/>
       <c r="AZ38" s="31"/>
       <c r="BA38" s="31"/>
       <c r="BB38" s="31"/>
@@ -15394,8 +15523,9 @@
       <c r="BO38" s="31"/>
       <c r="BP38" s="31"/>
       <c r="BQ38" s="31"/>
+      <c r="BR38" s="31"/>
     </row>
-    <row r="39" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="39" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A39" s="29" t="s">
         <v>37</v>
       </c>
@@ -15481,40 +15611,40 @@
       <c r="AC39" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AD39" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE39" s="2">
         <v>1</v>
       </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AF39" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="AI39" s="2" t="s">
+      <c r="AJ39" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AK39" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="AK39" s="2" t="s">
+      <c r="AL39" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="AL39" s="2" t="s">
+      <c r="AM39" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="AM39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN39" s="11"/>
-      <c r="AO39" s="21" t="s">
-        <v>1731</v>
-      </c>
+      <c r="AN39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO39" s="11"/>
       <c r="AP39" s="21" t="s">
         <v>1731</v>
       </c>
@@ -15522,27 +15652,29 @@
         <v>1731</v>
       </c>
       <c r="AR39" s="21" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AS39" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS39" s="21" t="s">
+      <c r="AT39" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT39" s="21">
+      <c r="AU39" s="21">
         <v>8</v>
       </c>
-      <c r="AU39" s="21" t="s">
+      <c r="AV39" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV39" s="21" t="s">
+      <c r="AW39" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW39" s="21" t="s">
+      <c r="AX39" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX39" s="94" t="s">
+      <c r="AY39" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY39" s="31"/>
       <c r="AZ39" s="31"/>
       <c r="BA39" s="31"/>
       <c r="BB39" s="31"/>
@@ -15561,8 +15693,9 @@
       <c r="BO39" s="31"/>
       <c r="BP39" s="31"/>
       <c r="BQ39" s="31"/>
+      <c r="BR39" s="31"/>
     </row>
-    <row r="40" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="40" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A40" s="29" t="s">
         <v>38</v>
       </c>
@@ -15648,41 +15781,41 @@
       <c r="AC40" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AD40" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE40" s="2">
         <v>1</v>
       </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AF40" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="AF40" s="2" t="s">
+      <c r="AG40" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="AG40" s="2" t="s">
+      <c r="AH40" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="AH40" s="2" t="s">
+      <c r="AI40" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="AI40" s="2" t="s">
+      <c r="AJ40" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="AJ40" s="2" t="s">
+      <c r="AK40" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="AK40" s="2" t="s">
+      <c r="AL40" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="AL40" s="2" t="s">
+      <c r="AM40" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="AM40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO40" s="21" t="s">
-        <v>1716</v>
+      <c r="AN40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO40" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP40" s="21" t="s">
         <v>1716</v>
@@ -15691,25 +15824,27 @@
         <v>1716</v>
       </c>
       <c r="AR40" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS40" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AS40" s="21" t="s">
+      <c r="AT40" s="21" t="s">
         <v>1699</v>
       </c>
-      <c r="AT40" s="21">
+      <c r="AU40" s="21">
         <v>5</v>
       </c>
-      <c r="AU40" s="21" t="s">
+      <c r="AV40" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21" t="s">
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX40" s="94" t="s">
+      <c r="AY40" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY40" s="31"/>
       <c r="AZ40" s="31"/>
       <c r="BA40" s="31"/>
       <c r="BB40" s="31"/>
@@ -15728,8 +15863,9 @@
       <c r="BO40" s="31"/>
       <c r="BP40" s="31"/>
       <c r="BQ40" s="31"/>
+      <c r="BR40" s="31"/>
     </row>
-    <row r="41" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="41" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A41" s="29" t="s">
         <v>39</v>
       </c>
@@ -15815,68 +15951,70 @@
       <c r="AC41" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE41" s="2">
         <v>0</v>
       </c>
-      <c r="AE41" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="AG41" s="2" t="s">
+      <c r="AH41" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="AH41" s="18" t="s">
+      <c r="AI41" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="AI41" s="2" t="s">
+      <c r="AJ41" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="AJ41" s="2" t="s">
+      <c r="AK41" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="AK41" s="2" t="s">
+      <c r="AL41" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="AL41" s="2" t="s">
+      <c r="AM41" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="AM41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN41" s="11"/>
-      <c r="AO41" s="21" t="s">
-        <v>1671</v>
-      </c>
+      <c r="AN41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO41" s="11"/>
       <c r="AP41" s="21" t="s">
         <v>1671</v>
       </c>
       <c r="AQ41" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AR41" s="21" t="s">
         <v>1732</v>
       </c>
-      <c r="AR41" s="21" t="s">
+      <c r="AS41" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS41" s="21" t="s">
+      <c r="AT41" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AT41" s="21">
+      <c r="AU41" s="21">
         <v>4</v>
       </c>
-      <c r="AU41" s="21" t="s">
+      <c r="AV41" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV41" s="21" t="s">
+      <c r="AW41" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW41" s="21" t="s">
+      <c r="AX41" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX41" s="94" t="s">
+      <c r="AY41" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY41" s="31"/>
       <c r="AZ41" s="31"/>
       <c r="BA41" s="31"/>
       <c r="BB41" s="31"/>
@@ -15895,8 +16033,9 @@
       <c r="BO41" s="31"/>
       <c r="BP41" s="31"/>
       <c r="BQ41" s="31"/>
+      <c r="BR41" s="31"/>
     </row>
-    <row r="42" spans="1:69" s="70" customFormat="1" ht="372">
+    <row r="42" spans="1:70" s="70" customFormat="1" ht="372">
       <c r="A42" s="29" t="s">
         <v>40</v>
       </c>
@@ -15982,70 +16121,72 @@
       <c r="AC42" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE42" s="2">
         <v>0</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AF42" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AG42" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="AG42" s="2" t="s">
+      <c r="AH42" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="AH42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="AI42" s="2" t="s">
+      <c r="AJ42" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AJ42" s="2" t="s">
+      <c r="AK42" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="AK42" s="2" t="s">
+      <c r="AL42" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="AL42" s="2" t="s">
+      <c r="AM42" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AM42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN42" s="11" t="s">
+      <c r="AN42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO42" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AO42" s="21" t="s">
+      <c r="AP42" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP42" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AQ42" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AR42" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS42" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS42" s="21" t="s">
+      <c r="AT42" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT42" s="21">
+      <c r="AU42" s="21">
         <v>6</v>
       </c>
-      <c r="AU42" s="21" t="s">
+      <c r="AV42" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV42" s="21" t="s">
+      <c r="AW42" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW42" s="21" t="s">
+      <c r="AX42" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX42" s="94" t="s">
+      <c r="AY42" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY42" s="31"/>
       <c r="AZ42" s="31"/>
       <c r="BA42" s="31"/>
       <c r="BB42" s="31"/>
@@ -16064,8 +16205,9 @@
       <c r="BO42" s="31"/>
       <c r="BP42" s="31"/>
       <c r="BQ42" s="31"/>
+      <c r="BR42" s="31"/>
     </row>
-    <row r="43" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="43" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A43" s="29" t="s">
         <v>41</v>
       </c>
@@ -16151,41 +16293,41 @@
       <c r="AC43" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE43" s="2">
         <v>1</v>
       </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AF43" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AG43" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="AH43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="AI43" s="2" t="s">
+      <c r="AJ43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ43" s="2" t="s">
+      <c r="AK43" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="AK43" s="2" t="s">
+      <c r="AL43" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="AL43" s="2" t="s">
+      <c r="AM43" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="AM43" s="2" t="s">
+      <c r="AN43" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="AN43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO43" s="21" t="s">
-        <v>1724</v>
+      <c r="AO43" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP43" s="21" t="s">
         <v>1724</v>
@@ -16194,27 +16336,29 @@
         <v>1724</v>
       </c>
       <c r="AR43" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AS43" s="21" t="s">
         <v>1668</v>
       </c>
-      <c r="AS43" s="21" t="s">
+      <c r="AT43" s="21" t="s">
         <v>1700</v>
       </c>
-      <c r="AT43" s="21">
+      <c r="AU43" s="21">
         <v>5</v>
       </c>
-      <c r="AU43" s="21" t="s">
+      <c r="AV43" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV43" s="21" t="s">
+      <c r="AW43" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW43" s="21" t="s">
+      <c r="AX43" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AX43" s="94" t="s">
+      <c r="AY43" s="94" t="s">
         <v>1861</v>
       </c>
-      <c r="AY43" s="31"/>
       <c r="AZ43" s="31"/>
       <c r="BA43" s="31"/>
       <c r="BB43" s="31"/>
@@ -16233,8 +16377,9 @@
       <c r="BO43" s="31"/>
       <c r="BP43" s="31"/>
       <c r="BQ43" s="31"/>
+      <c r="BR43" s="31"/>
     </row>
-    <row r="44" spans="1:69" s="3" customFormat="1" ht="356">
+    <row r="44" spans="1:70" s="3" customFormat="1" ht="356">
       <c r="A44" s="29" t="s">
         <v>42</v>
       </c>
@@ -16320,41 +16465,41 @@
       <c r="AC44" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE44" s="2">
         <v>1</v>
       </c>
-      <c r="AE44" s="2" t="s">
+      <c r="AF44" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="AF44" s="2" t="s">
+      <c r="AG44" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AG44" s="2" t="s">
+      <c r="AH44" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="AH44" s="2" t="s">
+      <c r="AI44" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="AI44" s="2" t="s">
+      <c r="AJ44" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ44" s="2" t="s">
+      <c r="AK44" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="AK44" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM44" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="AM44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO44" s="21" t="s">
-        <v>1716</v>
+      <c r="AN44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP44" s="21" t="s">
         <v>1716</v>
@@ -16363,27 +16508,29 @@
         <v>1716</v>
       </c>
       <c r="AR44" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS44" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS44" s="21" t="s">
+      <c r="AT44" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AT44" s="21">
+      <c r="AU44" s="21">
         <v>7</v>
       </c>
-      <c r="AU44" s="21" t="s">
+      <c r="AV44" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV44" s="21" t="s">
+      <c r="AW44" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW44" s="21" t="s">
+      <c r="AX44" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX44" s="94" t="s">
+      <c r="AY44" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY44" s="31"/>
       <c r="AZ44" s="31"/>
       <c r="BA44" s="31"/>
       <c r="BB44" s="31"/>
@@ -16402,8 +16549,9 @@
       <c r="BO44" s="31"/>
       <c r="BP44" s="31"/>
       <c r="BQ44" s="31"/>
+      <c r="BR44" s="31"/>
     </row>
-    <row r="45" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="45" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A45" s="29" t="s">
         <v>43</v>
       </c>
@@ -16489,68 +16637,70 @@
       <c r="AC45" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE45" s="2">
         <v>0</v>
       </c>
-      <c r="AE45" s="2" t="s">
+      <c r="AF45" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="AF45" s="2" t="s">
+      <c r="AG45" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AG45" s="2" t="s">
+      <c r="AH45" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="AH45" s="2" t="s">
+      <c r="AI45" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="AI45" s="2" t="s">
+      <c r="AJ45" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="AJ45" s="2" t="s">
+      <c r="AK45" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="AK45" s="2" t="s">
+      <c r="AL45" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AL45" s="2" t="s">
+      <c r="AM45" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="AM45" s="2" t="s">
+      <c r="AN45" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="AN45" s="11"/>
-      <c r="AO45" s="21" t="s">
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="21" t="s">
         <v>1727</v>
-      </c>
-      <c r="AP45" s="21" t="s">
-        <v>1724</v>
       </c>
       <c r="AQ45" s="21" t="s">
         <v>1724</v>
       </c>
       <c r="AR45" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AS45" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS45" s="21" t="s">
+      <c r="AT45" s="21" t="s">
         <v>1672</v>
       </c>
-      <c r="AT45" s="21">
+      <c r="AU45" s="21">
         <v>9</v>
       </c>
-      <c r="AU45" s="21" t="s">
+      <c r="AV45" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV45" s="21" t="s">
+      <c r="AW45" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW45" s="21" t="s">
+      <c r="AX45" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AX45" s="94" t="s">
+      <c r="AY45" s="94" t="s">
         <v>1868</v>
       </c>
-      <c r="AY45" s="31"/>
       <c r="AZ45" s="31"/>
       <c r="BA45" s="31"/>
       <c r="BB45" s="31"/>
@@ -16569,8 +16719,9 @@
       <c r="BO45" s="31"/>
       <c r="BP45" s="31"/>
       <c r="BQ45" s="31"/>
+      <c r="BR45" s="31"/>
     </row>
-    <row r="46" spans="1:69" s="3" customFormat="1" ht="340">
+    <row r="46" spans="1:70" s="3" customFormat="1" ht="340">
       <c r="A46" s="29" t="s">
         <v>44</v>
       </c>
@@ -16656,70 +16807,72 @@
       <c r="AC46" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE46" s="2">
         <v>1</v>
       </c>
-      <c r="AE46" s="2" t="s">
+      <c r="AF46" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="AF46" s="2" t="s">
+      <c r="AG46" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AH46" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="AH46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="AI46" s="2" t="s">
+      <c r="AJ46" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="AJ46" s="2" t="s">
+      <c r="AK46" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="AK46" s="2" t="s">
+      <c r="AL46" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="AL46" s="2" t="s">
+      <c r="AM46" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="AM46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO46" s="21" t="s">
+      <c r="AN46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP46" s="21" t="s">
         <v>1716</v>
-      </c>
-      <c r="AP46" s="21" t="s">
-        <v>1733</v>
       </c>
       <c r="AQ46" s="21" t="s">
         <v>1733</v>
       </c>
       <c r="AR46" s="21" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AS46" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS46" s="21" t="s">
+      <c r="AT46" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AT46" s="21">
+      <c r="AU46" s="21">
         <v>4</v>
       </c>
-      <c r="AU46" s="21" t="s">
+      <c r="AV46" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV46" s="21" t="s">
+      <c r="AW46" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW46" s="21" t="s">
+      <c r="AX46" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX46" s="94" t="s">
+      <c r="AY46" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY46" s="31"/>
       <c r="AZ46" s="31"/>
       <c r="BA46" s="31"/>
       <c r="BB46" s="31"/>
@@ -16738,8 +16891,9 @@
       <c r="BO46" s="31"/>
       <c r="BP46" s="31"/>
       <c r="BQ46" s="31"/>
+      <c r="BR46" s="31"/>
     </row>
-    <row r="47" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="47" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A47" s="29" t="s">
         <v>45</v>
       </c>
@@ -16823,41 +16977,41 @@
       <c r="AC47" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE47" s="2">
         <v>1</v>
       </c>
-      <c r="AE47" s="2" t="s">
+      <c r="AF47" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="AF47" s="2" t="s">
+      <c r="AG47" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="AH47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="AI47" s="2" t="s">
+      <c r="AJ47" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="AJ47" s="2" t="s">
+      <c r="AK47" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="AK47" s="2" t="s">
+      <c r="AL47" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="AL47" s="2" t="s">
+      <c r="AM47" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="AM47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO47" s="21" t="s">
-        <v>1716</v>
+      <c r="AN47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP47" s="21" t="s">
         <v>1716</v>
@@ -16866,23 +17020,25 @@
         <v>1716</v>
       </c>
       <c r="AR47" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS47" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS47" s="21" t="s">
+      <c r="AT47" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT47" s="21">
+      <c r="AU47" s="21">
         <v>8</v>
       </c>
-      <c r="AU47" s="21" t="s">
+      <c r="AV47" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21" t="s">
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21" t="s">
         <v>1677</v>
       </c>
-      <c r="AX47" s="94"/>
-      <c r="AY47" s="31"/>
+      <c r="AY47" s="94"/>
       <c r="AZ47" s="31"/>
       <c r="BA47" s="31"/>
       <c r="BB47" s="31"/>
@@ -16901,8 +17057,9 @@
       <c r="BO47" s="31"/>
       <c r="BP47" s="31"/>
       <c r="BQ47" s="31"/>
+      <c r="BR47" s="31"/>
     </row>
-    <row r="48" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="48" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A48" s="29" t="s">
         <v>46</v>
       </c>
@@ -16988,41 +17145,41 @@
       <c r="AC48" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE48" s="2">
         <v>1</v>
       </c>
-      <c r="AE48" s="2" t="s">
+      <c r="AF48" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="AF48" s="2" t="s">
+      <c r="AG48" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AH48" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="AH48" s="2" t="s">
+      <c r="AI48" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="AI48" s="2" t="s">
+      <c r="AJ48" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="AJ48" s="2" t="s">
-        <v>1110</v>
       </c>
       <c r="AK48" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="AL48" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AM48" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="AM48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN48" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO48" s="21" t="s">
-        <v>1718</v>
+      <c r="AN48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO48" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP48" s="21" t="s">
         <v>1718</v>
@@ -17031,25 +17188,27 @@
         <v>1718</v>
       </c>
       <c r="AR48" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS48" s="21" t="s">
         <v>1681</v>
       </c>
-      <c r="AS48" s="21" t="s">
+      <c r="AT48" s="21" t="s">
         <v>1701</v>
       </c>
-      <c r="AT48" s="21">
+      <c r="AU48" s="21">
         <v>6</v>
       </c>
-      <c r="AU48" s="21" t="s">
+      <c r="AV48" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV48" s="21" t="s">
+      <c r="AW48" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW48" s="21" t="s">
+      <c r="AX48" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="AX48" s="94"/>
-      <c r="AY48" s="31"/>
+      <c r="AY48" s="94"/>
       <c r="AZ48" s="31"/>
       <c r="BA48" s="31"/>
       <c r="BB48" s="31"/>
@@ -17068,8 +17227,9 @@
       <c r="BO48" s="31"/>
       <c r="BP48" s="31"/>
       <c r="BQ48" s="31"/>
+      <c r="BR48" s="31"/>
     </row>
-    <row r="49" spans="1:69" s="4" customFormat="1" ht="323">
+    <row r="49" spans="1:70" s="4" customFormat="1" ht="323">
       <c r="A49" s="29" t="s">
         <v>47</v>
       </c>
@@ -17155,40 +17315,40 @@
       <c r="AC49" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE49" s="104">
         <v>0</v>
       </c>
-      <c r="AE49" s="2" t="s">
+      <c r="AF49" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="AF49" s="2" t="s">
+      <c r="AG49" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="AG49" s="2" t="s">
+      <c r="AH49" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="AH49" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="AI49" s="2" t="s">
+      <c r="AJ49" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="AJ49" s="2" t="s">
+      <c r="AK49" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="AK49" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM49" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="AM49" s="2" t="s">
+      <c r="AN49" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="21" t="s">
-        <v>1718</v>
-      </c>
+      <c r="AO49" s="52"/>
       <c r="AP49" s="21" t="s">
         <v>1718</v>
       </c>
@@ -17196,27 +17356,29 @@
         <v>1718</v>
       </c>
       <c r="AR49" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS49" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS49" s="21" t="s">
+      <c r="AT49" s="21" t="s">
         <v>1691</v>
       </c>
-      <c r="AT49" s="21">
+      <c r="AU49" s="21">
         <v>5</v>
       </c>
-      <c r="AU49" s="21" t="s">
+      <c r="AV49" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV49" s="21" t="s">
+      <c r="AW49" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW49" s="21" t="s">
+      <c r="AX49" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX49" s="94" t="s">
+      <c r="AY49" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY49" s="31"/>
       <c r="AZ49" s="31"/>
       <c r="BA49" s="31"/>
       <c r="BB49" s="31"/>
@@ -17235,8 +17397,9 @@
       <c r="BO49" s="31"/>
       <c r="BP49" s="31"/>
       <c r="BQ49" s="31"/>
+      <c r="BR49" s="31"/>
     </row>
-    <row r="50" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="50" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A50" s="29" t="s">
         <v>48</v>
       </c>
@@ -17322,41 +17485,41 @@
       <c r="AC50" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AE50" s="2">
         <v>1</v>
       </c>
-      <c r="AE50" s="2" t="s">
+      <c r="AF50" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="AF50" s="2" t="s">
+      <c r="AG50" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AH50" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="AI50" s="2" t="s">
+      <c r="AJ50" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ50" s="2" t="s">
+      <c r="AK50" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="AK50" s="2" t="s">
+      <c r="AL50" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AL50" s="2" t="s">
+      <c r="AM50" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="AM50" s="2" t="s">
+      <c r="AN50" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="AN50" s="11" t="s">
+      <c r="AO50" s="11" t="s">
         <v>1152</v>
-      </c>
-      <c r="AO50" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP50" s="21" t="s">
         <v>1716</v>
@@ -17365,25 +17528,27 @@
         <v>1716</v>
       </c>
       <c r="AR50" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS50" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS50" s="21" t="s">
+      <c r="AT50" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT50" s="21">
+      <c r="AU50" s="21">
         <v>5</v>
       </c>
-      <c r="AU50" s="21" t="s">
+      <c r="AV50" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="21" t="s">
+      <c r="AW50" s="21"/>
+      <c r="AX50" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AX50" s="94" t="s">
+      <c r="AY50" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY50" s="31"/>
       <c r="AZ50" s="31"/>
       <c r="BA50" s="31"/>
       <c r="BB50" s="31"/>
@@ -17402,8 +17567,9 @@
       <c r="BO50" s="31"/>
       <c r="BP50" s="31"/>
       <c r="BQ50" s="31"/>
+      <c r="BR50" s="31"/>
     </row>
-    <row r="51" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="51" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A51" s="29" t="s">
         <v>49</v>
       </c>
@@ -17489,41 +17655,41 @@
       <c r="AC51" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AE51" s="2">
         <v>1</v>
       </c>
-      <c r="AE51" s="2" t="s">
+      <c r="AF51" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="AF51" s="2" t="s">
+      <c r="AG51" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="AG51" s="2" t="s">
+      <c r="AH51" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="AH51" s="2" t="s">
+      <c r="AI51" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="AI51" s="2" t="s">
+      <c r="AJ51" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="AJ51" s="2" t="s">
+      <c r="AK51" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="AK51" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM51" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="AM51" s="2" t="s">
+      <c r="AN51" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="AN51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO51" s="21" t="s">
-        <v>1718</v>
+      <c r="AO51" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP51" s="21" t="s">
         <v>1718</v>
@@ -17532,25 +17698,27 @@
         <v>1718</v>
       </c>
       <c r="AR51" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS51" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS51" s="21" t="s">
+      <c r="AT51" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT51" s="21">
+      <c r="AU51" s="21">
         <v>6</v>
       </c>
-      <c r="AU51" s="21" t="s">
+      <c r="AV51" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV51" s="21"/>
-      <c r="AW51" s="21" t="s">
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX51" s="94" t="s">
+      <c r="AY51" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY51" s="31"/>
       <c r="AZ51" s="31"/>
       <c r="BA51" s="31"/>
       <c r="BB51" s="31"/>
@@ -17569,8 +17737,9 @@
       <c r="BO51" s="31"/>
       <c r="BP51" s="31"/>
       <c r="BQ51" s="31"/>
+      <c r="BR51" s="31"/>
     </row>
-    <row r="52" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="52" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A52" s="29" t="s">
         <v>50</v>
       </c>
@@ -17656,41 +17825,41 @@
       <c r="AC52" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE52" s="2">
         <v>0</v>
       </c>
-      <c r="AE52" s="2" t="s">
+      <c r="AF52" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="AF52" s="2" t="s">
+      <c r="AG52" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="AG52" s="2" t="s">
+      <c r="AH52" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="AH52" s="2" t="s">
+      <c r="AI52" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="AI52" s="2" t="s">
+      <c r="AJ52" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="AJ52" s="2" t="s">
+      <c r="AK52" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="AK52" s="2" t="s">
+      <c r="AL52" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="AL52" s="2" t="s">
+      <c r="AM52" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="AM52" s="2" t="s">
+      <c r="AN52" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="AN52" s="11" t="s">
+      <c r="AO52" s="11" t="s">
         <v>1194</v>
-      </c>
-      <c r="AO52" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AP52" s="21" t="s">
         <v>1716</v>
@@ -17699,23 +17868,25 @@
         <v>1716</v>
       </c>
       <c r="AR52" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS52" s="21" t="s">
         <v>1759</v>
       </c>
-      <c r="AS52" s="21" t="s">
+      <c r="AT52" s="21" t="s">
         <v>1760</v>
       </c>
-      <c r="AT52" s="21">
+      <c r="AU52" s="21">
         <v>4</v>
       </c>
-      <c r="AU52" s="21" t="s">
+      <c r="AV52" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AV52" s="21"/>
-      <c r="AW52" s="21" t="s">
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AX52" s="94"/>
-      <c r="AY52" s="31"/>
+      <c r="AY52" s="94"/>
       <c r="AZ52" s="31"/>
       <c r="BA52" s="31"/>
       <c r="BB52" s="31"/>
@@ -17734,8 +17905,9 @@
       <c r="BO52" s="31"/>
       <c r="BP52" s="31"/>
       <c r="BQ52" s="31"/>
+      <c r="BR52" s="31"/>
     </row>
-    <row r="53" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="53" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A53" s="29" t="s">
         <v>51</v>
       </c>
@@ -17821,41 +17993,41 @@
       <c r="AC53" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AD53" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="2" t="s">
+      <c r="AF53" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="AF53" s="2" t="s">
+      <c r="AG53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG53" s="2" t="s">
+      <c r="AH53" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="AH53" s="2" t="s">
+      <c r="AI53" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="AI53" s="2" t="s">
+      <c r="AJ53" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="AJ53" s="2" t="s">
+      <c r="AK53" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="AK53" s="2" t="s">
+      <c r="AL53" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="AL53" s="2" t="s">
+      <c r="AM53" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="AM53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN53" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO53" s="21" t="s">
-        <v>1671</v>
+      <c r="AN53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO53" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP53" s="21" t="s">
         <v>1671</v>
@@ -17864,27 +18036,29 @@
         <v>1671</v>
       </c>
       <c r="AR53" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AS53" s="21" t="s">
         <v>1682</v>
       </c>
-      <c r="AS53" s="21" t="s">
+      <c r="AT53" s="21" t="s">
         <v>1702</v>
       </c>
-      <c r="AT53" s="21">
+      <c r="AU53" s="21">
         <v>8</v>
       </c>
-      <c r="AU53" s="21" t="s">
+      <c r="AV53" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV53" s="21" t="s">
+      <c r="AW53" s="21" t="s">
         <v>1873</v>
       </c>
-      <c r="AW53" s="21" t="s">
+      <c r="AX53" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AX53" s="94" t="s">
+      <c r="AY53" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY53" s="31"/>
       <c r="AZ53" s="31"/>
       <c r="BA53" s="31"/>
       <c r="BB53" s="31"/>
@@ -17903,8 +18077,9 @@
       <c r="BO53" s="31"/>
       <c r="BP53" s="31"/>
       <c r="BQ53" s="31"/>
+      <c r="BR53" s="31"/>
     </row>
-    <row r="54" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="54" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A54" s="29" t="s">
         <v>52</v>
       </c>
@@ -17990,41 +18165,41 @@
       <c r="AC54" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE54" s="2">
         <v>1</v>
       </c>
-      <c r="AE54" s="2" t="s">
+      <c r="AF54" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="AF54" s="2" t="s">
+      <c r="AG54" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AG54" s="2" t="s">
+      <c r="AH54" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="AI54" s="2" t="s">
+      <c r="AJ54" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ54" s="2" t="s">
+      <c r="AK54" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="AK54" s="2" t="s">
+      <c r="AL54" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="AL54" s="2" t="s">
+      <c r="AM54" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="AM54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN54" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO54" s="21" t="s">
-        <v>1718</v>
+      <c r="AN54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO54" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP54" s="21" t="s">
         <v>1718</v>
@@ -18033,27 +18208,29 @@
         <v>1718</v>
       </c>
       <c r="AR54" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS54" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS54" s="21" t="s">
+      <c r="AT54" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT54" s="21">
+      <c r="AU54" s="21">
         <v>6</v>
       </c>
-      <c r="AU54" s="21" t="s">
+      <c r="AV54" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV54" s="21" t="s">
+      <c r="AW54" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW54" s="21" t="s">
+      <c r="AX54" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX54" s="94" t="s">
+      <c r="AY54" s="94" t="s">
         <v>1869</v>
       </c>
-      <c r="AY54" s="31"/>
       <c r="AZ54" s="31"/>
       <c r="BA54" s="31"/>
       <c r="BB54" s="31"/>
@@ -18072,8 +18249,9 @@
       <c r="BO54" s="31"/>
       <c r="BP54" s="31"/>
       <c r="BQ54" s="31"/>
+      <c r="BR54" s="31"/>
     </row>
-    <row r="55" spans="1:69" s="4" customFormat="1" ht="404">
+    <row r="55" spans="1:70" s="4" customFormat="1" ht="404">
       <c r="A55" s="29" t="s">
         <v>53</v>
       </c>
@@ -18159,66 +18337,68 @@
       <c r="AC55" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE55" s="2">
         <v>1</v>
       </c>
-      <c r="AE55" s="2" t="s">
+      <c r="AF55" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="AF55" s="2" t="s">
+      <c r="AG55" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AG55" s="2" t="s">
+      <c r="AH55" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="AH55" s="2" t="s">
+      <c r="AI55" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="AI55" s="2" t="s">
+      <c r="AJ55" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AJ55" s="2" t="s">
+      <c r="AK55" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="AK55" s="2" t="s">
+      <c r="AL55" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AL55" s="2" t="s">
+      <c r="AM55" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="AM55" s="2" t="s">
+      <c r="AN55" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="AN55" s="52"/>
-      <c r="AO55" s="21" t="s">
+      <c r="AO55" s="52"/>
+      <c r="AP55" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AP55" s="21" t="s">
+      <c r="AQ55" s="21" t="s">
         <v>1723</v>
       </c>
-      <c r="AQ55" s="21" t="s">
+      <c r="AR55" s="21" t="s">
         <v>1716</v>
       </c>
-      <c r="AR55" s="21" t="s">
+      <c r="AS55" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AS55" s="21" t="s">
+      <c r="AT55" s="21" t="s">
         <v>1241</v>
       </c>
-      <c r="AT55" s="21">
+      <c r="AU55" s="21">
         <v>4</v>
       </c>
-      <c r="AU55" s="21" t="s">
+      <c r="AV55" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV55" s="21" t="s">
+      <c r="AW55" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW55" s="21" t="s">
+      <c r="AX55" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AX55" s="94"/>
-      <c r="AY55" s="31"/>
+      <c r="AY55" s="94"/>
       <c r="AZ55" s="31"/>
       <c r="BA55" s="31"/>
       <c r="BB55" s="31"/>
@@ -18237,8 +18417,9 @@
       <c r="BO55" s="31"/>
       <c r="BP55" s="31"/>
       <c r="BQ55" s="31"/>
+      <c r="BR55" s="31"/>
     </row>
-    <row r="56" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="56" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A56" s="29" t="s">
         <v>54</v>
       </c>
@@ -18324,41 +18505,41 @@
       <c r="AC56" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE56" s="2">
         <v>1</v>
       </c>
-      <c r="AE56" s="2" t="s">
+      <c r="AF56" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="AF56" s="2" t="s">
+      <c r="AG56" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AG56" s="2" t="s">
+      <c r="AH56" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="AH56" s="2" t="s">
+      <c r="AI56" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="AI56" s="2" t="s">
-        <v>1281</v>
       </c>
       <c r="AJ56" s="2" t="s">
         <v>1281</v>
       </c>
       <c r="AK56" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AL56" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="AL56" s="2" t="s">
+      <c r="AM56" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="AM56" s="2" t="s">
+      <c r="AN56" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="AN56" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO56" s="21" t="s">
-        <v>1726</v>
+      <c r="AO56" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP56" s="21" t="s">
         <v>1726</v>
@@ -18367,27 +18548,29 @@
         <v>1726</v>
       </c>
       <c r="AR56" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AS56" s="21" t="s">
         <v>1668</v>
       </c>
-      <c r="AS56" s="21" t="s">
+      <c r="AT56" s="21" t="s">
         <v>1700</v>
       </c>
-      <c r="AT56" s="21">
+      <c r="AU56" s="21">
         <v>6</v>
       </c>
-      <c r="AU56" s="21" t="s">
+      <c r="AV56" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV56" s="21" t="s">
+      <c r="AW56" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW56" s="21" t="s">
+      <c r="AX56" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AX56" s="94" t="s">
+      <c r="AY56" s="94" t="s">
         <v>1870</v>
       </c>
-      <c r="AY56" s="31"/>
       <c r="AZ56" s="31"/>
       <c r="BA56" s="31"/>
       <c r="BB56" s="31"/>
@@ -18406,8 +18589,9 @@
       <c r="BO56" s="31"/>
       <c r="BP56" s="31"/>
       <c r="BQ56" s="31"/>
+      <c r="BR56" s="31"/>
     </row>
-    <row r="57" spans="1:69" s="90" customFormat="1" ht="255">
+    <row r="57" spans="1:70" s="90" customFormat="1" ht="255">
       <c r="A57" s="84" t="s">
         <v>55</v>
       </c>
@@ -18493,39 +18677,39 @@
       <c r="AC57" s="86" t="s">
         <v>1290</v>
       </c>
-      <c r="AD57" s="86">
+      <c r="AD57" s="86" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AE57" s="86">
         <v>0</v>
       </c>
-      <c r="AE57" s="86" t="s">
+      <c r="AF57" s="86" t="s">
         <v>1291</v>
       </c>
-      <c r="AF57" s="86" t="s">
+      <c r="AG57" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="AG57" s="86" t="s">
+      <c r="AH57" s="86" t="s">
         <v>1292</v>
       </c>
-      <c r="AH57" s="86" t="s">
+      <c r="AI57" s="86" t="s">
         <v>1293</v>
       </c>
-      <c r="AI57" s="86" t="s">
+      <c r="AJ57" s="86" t="s">
         <v>1294</v>
       </c>
-      <c r="AJ57" s="86" t="s">
+      <c r="AK57" s="86" t="s">
         <v>1775</v>
       </c>
-      <c r="AK57" s="86" t="s">
+      <c r="AL57" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="AL57" s="91" t="s">
+      <c r="AM57" s="91" t="s">
         <v>1295</v>
       </c>
-      <c r="AM57" s="86"/>
-      <c r="AN57" s="86" t="s">
-        <v>71</v>
-      </c>
+      <c r="AN57" s="86"/>
       <c r="AO57" s="86" t="s">
-        <v>1671</v>
+        <v>71</v>
       </c>
       <c r="AP57" s="86" t="s">
         <v>1671</v>
@@ -18534,26 +18718,29 @@
         <v>1671</v>
       </c>
       <c r="AR57" s="86" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AS57" s="86" t="s">
         <v>1667</v>
       </c>
-      <c r="AS57" s="86" t="s">
+      <c r="AT57" s="86" t="s">
         <v>1508</v>
       </c>
-      <c r="AT57" s="86">
+      <c r="AU57" s="86">
         <v>5</v>
       </c>
-      <c r="AU57" s="86" t="s">
+      <c r="AV57" s="86" t="s">
         <v>970</v>
       </c>
-      <c r="AV57" s="86"/>
-      <c r="AW57" s="86" t="s">
+      <c r="AW57" s="86"/>
+      <c r="AX57" s="86" t="s">
         <v>1742</v>
       </c>
-      <c r="AX57" s="89" t="s">
+      <c r="AY57" s="89" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="58" spans="1:69" s="3" customFormat="1" ht="306">
+    <row r="58" spans="1:70" s="3" customFormat="1" ht="306">
       <c r="A58" s="29" t="s">
         <v>56</v>
       </c>
@@ -18639,66 +18826,68 @@
       <c r="AC58" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE58" s="2">
         <v>1</v>
       </c>
-      <c r="AE58" s="2" t="s">
+      <c r="AF58" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="AF58" s="2" t="s">
+      <c r="AG58" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="AG58" s="2" t="s">
+      <c r="AH58" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="AH58" s="2" t="s">
+      <c r="AI58" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="AI58" s="2" t="s">
+      <c r="AJ58" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="AJ58" s="2" t="s">
+      <c r="AK58" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="AK58" s="2" t="s">
+      <c r="AL58" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="AL58" s="2" t="s">
+      <c r="AM58" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="AM58" s="2" t="s">
+      <c r="AN58" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="AN58" s="11" t="s">
+      <c r="AO58" s="11" t="s">
         <v>1324</v>
       </c>
-      <c r="AO58" s="21" t="s">
+      <c r="AP58" s="21" t="s">
         <v>1734</v>
-      </c>
-      <c r="AP58" s="21" t="s">
-        <v>1735</v>
       </c>
       <c r="AQ58" s="21" t="s">
         <v>1735</v>
       </c>
       <c r="AR58" s="21" t="s">
+        <v>1735</v>
+      </c>
+      <c r="AS58" s="21" t="s">
         <v>1703</v>
       </c>
-      <c r="AS58" s="21" t="s">
+      <c r="AT58" s="21" t="s">
         <v>1704</v>
       </c>
-      <c r="AT58" s="21">
+      <c r="AU58" s="21">
         <v>4</v>
       </c>
-      <c r="AU58" s="21" t="s">
+      <c r="AV58" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AV58" s="21"/>
-      <c r="AW58" s="21" t="s">
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX58" s="94"/>
-      <c r="AY58" s="31"/>
+      <c r="AY58" s="94"/>
       <c r="AZ58" s="31"/>
       <c r="BA58" s="31"/>
       <c r="BB58" s="31"/>
@@ -18717,8 +18906,9 @@
       <c r="BO58" s="31"/>
       <c r="BP58" s="31"/>
       <c r="BQ58" s="31"/>
+      <c r="BR58" s="31"/>
     </row>
-    <row r="59" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="59" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A59" s="29" t="s">
         <v>57</v>
       </c>
@@ -18804,68 +18994,70 @@
       <c r="AC59" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AE59" s="2">
         <v>1</v>
       </c>
-      <c r="AE59" s="2" t="s">
+      <c r="AF59" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="AF59" s="2" t="s">
+      <c r="AG59" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AG59" s="2" t="s">
+      <c r="AH59" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="AH59" s="2" t="s">
+      <c r="AI59" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="AI59" s="2" t="s">
+      <c r="AJ59" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="AJ59" s="2" t="s">
+      <c r="AK59" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="AK59" s="2" t="s">
+      <c r="AL59" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="AL59" s="2" t="s">
+      <c r="AM59" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="AM59" s="2" t="s">
+      <c r="AN59" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="AN59" s="11" t="s">
+      <c r="AO59" s="11" t="s">
         <v>1347</v>
       </c>
-      <c r="AO59" s="21" t="s">
+      <c r="AP59" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP59" s="21" t="s">
-        <v>1736</v>
       </c>
       <c r="AQ59" s="21" t="s">
         <v>1736</v>
       </c>
       <c r="AR59" s="21" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS59" s="21" t="s">
         <v>1705</v>
       </c>
-      <c r="AS59" s="21" t="s">
+      <c r="AT59" s="21" t="s">
         <v>1706</v>
       </c>
-      <c r="AT59" s="21">
+      <c r="AU59" s="21">
         <v>2</v>
       </c>
-      <c r="AU59" s="21" t="s">
+      <c r="AV59" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AV59" s="21"/>
-      <c r="AW59" s="21" t="s">
+      <c r="AW59" s="21"/>
+      <c r="AX59" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX59" s="94" t="s">
+      <c r="AY59" s="94" t="s">
         <v>1871</v>
       </c>
-      <c r="AY59" s="31"/>
       <c r="AZ59" s="31"/>
       <c r="BA59" s="31"/>
       <c r="BB59" s="31"/>
@@ -18884,8 +19076,9 @@
       <c r="BO59" s="31"/>
       <c r="BP59" s="31"/>
       <c r="BQ59" s="31"/>
+      <c r="BR59" s="31"/>
     </row>
-    <row r="60" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="60" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A60" s="29" t="s">
         <v>58</v>
       </c>
@@ -18971,66 +19164,68 @@
       <c r="AC60" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE60" s="2">
         <v>1</v>
       </c>
-      <c r="AE60" s="2" t="s">
+      <c r="AF60" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="AF60" s="2" t="s">
+      <c r="AG60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG60" s="2" t="s">
+      <c r="AH60" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="AH60" s="2" t="s">
+      <c r="AI60" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="AI60" s="2" t="s">
+      <c r="AJ60" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ60" s="2" t="s">
+      <c r="AK60" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="AK60" s="2" t="s">
+      <c r="AL60" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="AL60" s="2" t="s">
+      <c r="AM60" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="AM60" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO60" s="21" t="s">
+      <c r="AN60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP60" s="21" t="s">
         <v>1734</v>
       </c>
-      <c r="AP60" s="21" t="s">
+      <c r="AQ60" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AQ60" s="21" t="s">
+      <c r="AR60" s="21" t="s">
         <v>1734</v>
       </c>
-      <c r="AR60" s="21" t="s">
+      <c r="AS60" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AS60" s="21" t="s">
+      <c r="AT60" s="21" t="s">
         <v>1707</v>
       </c>
-      <c r="AT60" s="21">
+      <c r="AU60" s="21">
         <v>4</v>
       </c>
-      <c r="AU60" s="21" t="s">
+      <c r="AV60" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV60" s="21"/>
-      <c r="AW60" s="21" t="s">
+      <c r="AW60" s="21"/>
+      <c r="AX60" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AX60" s="94"/>
-      <c r="AY60" s="31"/>
+      <c r="AY60" s="94"/>
       <c r="AZ60" s="31"/>
       <c r="BA60" s="31"/>
       <c r="BB60" s="31"/>
@@ -19049,8 +19244,9 @@
       <c r="BO60" s="31"/>
       <c r="BP60" s="31"/>
       <c r="BQ60" s="31"/>
+      <c r="BR60" s="31"/>
     </row>
-    <row r="61" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="61" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A61" s="29" t="s">
         <v>59</v>
       </c>
@@ -19136,41 +19332,41 @@
       <c r="AC61" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE61" s="2">
         <v>1</v>
       </c>
-      <c r="AE61" s="2" t="s">
+      <c r="AF61" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="AF61" s="2" t="s">
+      <c r="AG61" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="AG61" s="2" t="s">
+      <c r="AH61" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="AH61" s="2" t="s">
+      <c r="AI61" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="AI61" s="2" t="s">
+      <c r="AJ61" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="AJ61" s="2" t="s">
+      <c r="AK61" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="AK61" s="2" t="s">
+      <c r="AL61" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="AL61" s="2" t="s">
+      <c r="AM61" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="AM61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN61" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO61" s="21" t="s">
-        <v>1671</v>
+      <c r="AN61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO61" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP61" s="21" t="s">
         <v>1671</v>
@@ -19179,25 +19375,27 @@
         <v>1671</v>
       </c>
       <c r="AR61" s="21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AS61" s="21" t="s">
         <v>1709</v>
       </c>
-      <c r="AS61" s="21" t="s">
+      <c r="AT61" s="21" t="s">
         <v>1708</v>
       </c>
-      <c r="AT61" s="21">
+      <c r="AU61" s="21">
         <v>5</v>
       </c>
-      <c r="AU61" s="21" t="s">
+      <c r="AV61" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="AV61" s="21"/>
-      <c r="AW61" s="21" t="s">
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AX61" s="94" t="s">
+      <c r="AY61" s="94" t="s">
         <v>1872</v>
       </c>
-      <c r="AY61" s="31"/>
       <c r="AZ61" s="31"/>
       <c r="BA61" s="31"/>
       <c r="BB61" s="31"/>
@@ -19216,8 +19414,9 @@
       <c r="BO61" s="31"/>
       <c r="BP61" s="31"/>
       <c r="BQ61" s="31"/>
+      <c r="BR61" s="31"/>
     </row>
-    <row r="62" spans="1:69" s="72" customFormat="1" ht="409.6">
+    <row r="62" spans="1:70" s="72" customFormat="1" ht="409.6">
       <c r="A62" s="29" t="s">
         <v>60</v>
       </c>
@@ -19303,70 +19502,72 @@
       <c r="AC62" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="2" t="s">
+      <c r="AF62" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="AF62" s="2" t="s">
+      <c r="AG62" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="AG62" s="2" t="s">
+      <c r="AH62" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="AH62" s="2" t="s">
+      <c r="AI62" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="AI62" s="2" t="s">
+      <c r="AJ62" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="AJ62" s="2" t="s">
+      <c r="AK62" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="AK62" s="2" t="s">
+      <c r="AL62" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="AL62" s="2" t="s">
+      <c r="AM62" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AM62" s="2" t="s">
+      <c r="AN62" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="AN62" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO62" s="21" t="s">
+      <c r="AO62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP62" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP62" s="21" t="s">
-        <v>1737</v>
       </c>
       <c r="AQ62" s="21" t="s">
         <v>1737</v>
       </c>
       <c r="AR62" s="21" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AS62" s="21" t="s">
         <v>1669</v>
       </c>
-      <c r="AS62" s="21" t="s">
+      <c r="AT62" s="21" t="s">
         <v>1398</v>
       </c>
-      <c r="AT62" s="21">
+      <c r="AU62" s="21">
         <v>6</v>
       </c>
-      <c r="AU62" s="21" t="s">
+      <c r="AV62" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV62" s="21" t="s">
+      <c r="AW62" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW62" s="21" t="s">
+      <c r="AX62" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AX62" s="94" t="s">
+      <c r="AY62" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY62" s="31"/>
       <c r="AZ62" s="31"/>
       <c r="BA62" s="31"/>
       <c r="BB62" s="31"/>
@@ -19385,8 +19586,9 @@
       <c r="BO62" s="31"/>
       <c r="BP62" s="31"/>
       <c r="BQ62" s="31"/>
+      <c r="BR62" s="31"/>
     </row>
-    <row r="63" spans="1:69" s="4" customFormat="1" ht="68">
+    <row r="63" spans="1:70" s="4" customFormat="1" ht="68">
       <c r="A63" s="29" t="s">
         <v>61</v>
       </c>
@@ -19472,41 +19674,41 @@
       <c r="AC63" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE63" s="2">
         <v>0</v>
       </c>
-      <c r="AE63" s="2" t="s">
+      <c r="AF63" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="AF63" s="2" t="s">
+      <c r="AG63" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG63" s="2" t="s">
+      <c r="AH63" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="AH63" s="2" t="s">
+      <c r="AI63" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="AI63" s="2" t="s">
+      <c r="AJ63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ63" s="2" t="s">
+      <c r="AK63" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="AK63" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM63" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="AM63" s="2" t="s">
+      <c r="AN63" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="AN63" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO63" s="21" t="s">
-        <v>1718</v>
+      <c r="AO63" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP63" s="21" t="s">
         <v>1718</v>
@@ -19515,25 +19717,27 @@
         <v>1718</v>
       </c>
       <c r="AR63" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS63" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS63" s="21" t="s">
+      <c r="AT63" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="AT63" s="21">
+      <c r="AU63" s="21">
         <v>0</v>
       </c>
-      <c r="AU63" s="21" t="s">
+      <c r="AV63" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV63" s="21"/>
-      <c r="AW63" s="21" t="s">
+      <c r="AW63" s="21"/>
+      <c r="AX63" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX63" s="94" t="s">
+      <c r="AY63" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY63" s="31"/>
       <c r="AZ63" s="31"/>
       <c r="BA63" s="31"/>
       <c r="BB63" s="31"/>
@@ -19552,8 +19756,9 @@
       <c r="BO63" s="31"/>
       <c r="BP63" s="31"/>
       <c r="BQ63" s="31"/>
+      <c r="BR63" s="31"/>
     </row>
-    <row r="64" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="64" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A64" s="29" t="s">
         <v>62</v>
       </c>
@@ -19639,68 +19844,70 @@
       <c r="AC64" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AE64" s="2">
         <v>1</v>
       </c>
-      <c r="AE64" s="2" t="s">
+      <c r="AF64" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="AF64" s="2" t="s">
+      <c r="AG64" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG64" s="2" t="s">
+      <c r="AH64" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="AH64" s="2" t="s">
+      <c r="AI64" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="AI64" s="2" t="s">
+      <c r="AJ64" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ64" s="2" t="s">
+      <c r="AK64" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="AK64" s="2" t="s">
+      <c r="AL64" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="AL64" s="2" t="s">
+      <c r="AM64" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="AM64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN64" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO64" s="21" t="s">
+      <c r="AN64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP64" s="21" t="s">
         <v>1671</v>
-      </c>
-      <c r="AP64" s="21" t="s">
-        <v>1716</v>
       </c>
       <c r="AQ64" s="21" t="s">
         <v>1716</v>
       </c>
       <c r="AR64" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS64" s="21" t="s">
         <v>1683</v>
       </c>
-      <c r="AS64" s="21" t="s">
+      <c r="AT64" s="21" t="s">
         <v>1710</v>
       </c>
-      <c r="AT64" s="21">
+      <c r="AU64" s="21">
         <v>5</v>
       </c>
-      <c r="AU64" s="21" t="s">
+      <c r="AV64" s="21" t="s">
         <v>1670</v>
       </c>
-      <c r="AV64" s="21" t="s">
+      <c r="AW64" s="21" t="s">
         <v>1873</v>
       </c>
-      <c r="AW64" s="21" t="s">
+      <c r="AX64" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX64" s="94"/>
-      <c r="AY64" s="31"/>
+      <c r="AY64" s="94"/>
       <c r="AZ64" s="31"/>
       <c r="BA64" s="31"/>
       <c r="BB64" s="31"/>
@@ -19719,8 +19926,9 @@
       <c r="BO64" s="31"/>
       <c r="BP64" s="31"/>
       <c r="BQ64" s="31"/>
+      <c r="BR64" s="31"/>
     </row>
-    <row r="65" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="65" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A65" s="29" t="s">
         <v>1874</v>
       </c>
@@ -19806,41 +20014,41 @@
       <c r="AC65" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE65" s="2">
         <v>1</v>
       </c>
-      <c r="AE65" s="2" t="s">
+      <c r="AF65" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="AF65" s="2" t="s">
+      <c r="AG65" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="AG65" s="2" t="s">
+      <c r="AH65" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="AH65" s="2" t="s">
+      <c r="AI65" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="AI65" s="2" t="s">
+      <c r="AJ65" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="AJ65" s="2" t="s">
+      <c r="AK65" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="AK65" s="2" t="s">
+      <c r="AL65" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="AL65" s="2" t="s">
+      <c r="AM65" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AM65" s="2" t="s">
+      <c r="AN65" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="AN65" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO65" s="21" t="s">
-        <v>1726</v>
+      <c r="AO65" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP65" s="21" t="s">
         <v>1726</v>
@@ -19849,25 +20057,27 @@
         <v>1726</v>
       </c>
       <c r="AR65" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AS65" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS65" s="21" t="s">
+      <c r="AT65" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT65" s="21">
+      <c r="AU65" s="21">
         <v>6</v>
       </c>
-      <c r="AU65" s="21" t="s">
+      <c r="AV65" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV65" s="21" t="s">
+      <c r="AW65" s="21" t="s">
         <v>1873</v>
       </c>
-      <c r="AW65" s="21" t="s">
+      <c r="AX65" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX65" s="94"/>
-      <c r="AY65" s="31"/>
+      <c r="AY65" s="94"/>
       <c r="AZ65" s="31"/>
       <c r="BA65" s="31"/>
       <c r="BB65" s="31"/>
@@ -19886,8 +20096,9 @@
       <c r="BO65" s="31"/>
       <c r="BP65" s="31"/>
       <c r="BQ65" s="31"/>
+      <c r="BR65" s="31"/>
     </row>
-    <row r="66" spans="1:69" s="3" customFormat="1" ht="187">
+    <row r="66" spans="1:70" s="3" customFormat="1" ht="187">
       <c r="A66" s="29" t="s">
         <v>63</v>
       </c>
@@ -19973,41 +20184,41 @@
       <c r="AC66" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AE66" s="2">
         <v>0</v>
       </c>
-      <c r="AE66" s="2" t="s">
+      <c r="AF66" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="AF66" s="2" t="s">
+      <c r="AG66" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AG66" s="2" t="s">
+      <c r="AH66" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="AH66" s="2" t="s">
+      <c r="AI66" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="AI66" s="2" t="s">
+      <c r="AJ66" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="AJ66" s="2" t="s">
+      <c r="AK66" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="AK66" s="2" t="s">
+      <c r="AL66" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="AL66" s="2" t="s">
+      <c r="AM66" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="AM66" s="2" t="s">
+      <c r="AN66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AN66" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO66" s="21" t="s">
-        <v>1738</v>
+      <c r="AO66" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP66" s="21" t="s">
         <v>1738</v>
@@ -20016,27 +20227,29 @@
         <v>1738</v>
       </c>
       <c r="AR66" s="21" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AS66" s="21" t="s">
         <v>1682</v>
       </c>
-      <c r="AS66" s="21" t="s">
+      <c r="AT66" s="21" t="s">
         <v>1711</v>
       </c>
-      <c r="AT66" s="21">
+      <c r="AU66" s="21">
         <v>6</v>
       </c>
-      <c r="AU66" s="21" t="s">
+      <c r="AV66" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV66" s="21" t="s">
+      <c r="AW66" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW66" s="21" t="s">
+      <c r="AX66" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="AX66" s="94" t="s">
+      <c r="AY66" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY66" s="31"/>
       <c r="AZ66" s="31"/>
       <c r="BA66" s="31"/>
       <c r="BB66" s="31"/>
@@ -20055,8 +20268,9 @@
       <c r="BO66" s="31"/>
       <c r="BP66" s="31"/>
       <c r="BQ66" s="31"/>
+      <c r="BR66" s="31"/>
     </row>
-    <row r="67" spans="1:69" s="4" customFormat="1" ht="238">
+    <row r="67" spans="1:70" s="4" customFormat="1" ht="238">
       <c r="A67" s="29" t="s">
         <v>64</v>
       </c>
@@ -20142,41 +20356,41 @@
       <c r="AC67" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE67" s="2">
         <v>1</v>
       </c>
-      <c r="AE67" s="2" t="s">
+      <c r="AF67" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="AF67" s="2" t="s">
+      <c r="AG67" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="AG67" s="2" t="s">
+      <c r="AH67" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="AH67" s="2" t="s">
+      <c r="AI67" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="AI67" s="2" t="s">
+      <c r="AJ67" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="AJ67" s="2" t="s">
+      <c r="AK67" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="AK67" s="2" t="s">
+      <c r="AL67" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="AL67" s="2" t="s">
+      <c r="AM67" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="AM67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN67" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO67" s="21" t="s">
-        <v>1718</v>
+      <c r="AN67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO67" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP67" s="21" t="s">
         <v>1718</v>
@@ -20185,27 +20399,29 @@
         <v>1718</v>
       </c>
       <c r="AR67" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AS67" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS67" s="21" t="s">
+      <c r="AT67" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT67" s="21">
+      <c r="AU67" s="21">
         <v>8</v>
       </c>
-      <c r="AU67" s="21" t="s">
+      <c r="AV67" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV67" s="21" t="s">
+      <c r="AW67" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW67" s="21" t="s">
+      <c r="AX67" s="21" t="s">
         <v>1855</v>
       </c>
-      <c r="AX67" s="94" t="s">
+      <c r="AY67" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY67" s="31"/>
       <c r="AZ67" s="31"/>
       <c r="BA67" s="31"/>
       <c r="BB67" s="31"/>
@@ -20224,8 +20440,9 @@
       <c r="BO67" s="31"/>
       <c r="BP67" s="31"/>
       <c r="BQ67" s="31"/>
+      <c r="BR67" s="31"/>
     </row>
-    <row r="68" spans="1:69" s="3" customFormat="1" ht="388">
+    <row r="68" spans="1:70" s="3" customFormat="1" ht="388">
       <c r="A68" s="29" t="s">
         <v>65</v>
       </c>
@@ -20311,70 +20528,72 @@
       <c r="AC68" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE68" s="2">
         <v>1</v>
       </c>
-      <c r="AE68" s="2" t="s">
+      <c r="AF68" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="AF68" s="2" t="s">
+      <c r="AG68" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="AG68" s="2" t="s">
+      <c r="AH68" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="AH68" s="2" t="s">
+      <c r="AI68" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="AI68" s="2" t="s">
+      <c r="AJ68" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="AJ68" s="2" t="s">
+      <c r="AK68" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="AK68" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM68" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="AM68" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN68" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO68" s="21" t="s">
+      <c r="AN68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO68" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP68" s="21" t="s">
         <v>1739</v>
-      </c>
-      <c r="AP68" s="21" t="s">
-        <v>1726</v>
       </c>
       <c r="AQ68" s="21" t="s">
         <v>1726</v>
       </c>
       <c r="AR68" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AS68" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS68" s="21" t="s">
+      <c r="AT68" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT68" s="21">
+      <c r="AU68" s="21">
         <v>8</v>
       </c>
-      <c r="AU68" s="21" t="s">
+      <c r="AV68" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV68" s="21" t="s">
+      <c r="AW68" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="AW68" s="21" t="s">
+      <c r="AX68" s="21" t="s">
         <v>1865</v>
       </c>
-      <c r="AX68" s="94" t="s">
+      <c r="AY68" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY68" s="31"/>
       <c r="AZ68" s="31"/>
       <c r="BA68" s="31"/>
       <c r="BB68" s="31"/>
@@ -20393,8 +20612,9 @@
       <c r="BO68" s="31"/>
       <c r="BP68" s="31"/>
       <c r="BQ68" s="31"/>
+      <c r="BR68" s="31"/>
     </row>
-    <row r="69" spans="1:69" s="4" customFormat="1" ht="409.6">
+    <row r="69" spans="1:70" s="4" customFormat="1" ht="409.6">
       <c r="A69" s="29" t="s">
         <v>66</v>
       </c>
@@ -20480,41 +20700,41 @@
       <c r="AC69" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE69" s="2">
         <v>1</v>
       </c>
-      <c r="AE69" s="2" t="s">
+      <c r="AF69" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="AF69" s="2" t="s">
+      <c r="AG69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG69" s="2" t="s">
+      <c r="AH69" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="AH69" s="2" t="s">
+      <c r="AI69" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="AI69" s="2" t="s">
+      <c r="AJ69" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="AJ69" s="2" t="s">
+      <c r="AK69" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="AK69" s="2" t="s">
+      <c r="AL69" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AL69" s="2" t="s">
+      <c r="AM69" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="AM69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN69" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO69" s="21" t="s">
-        <v>1716</v>
+      <c r="AN69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO69" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP69" s="21" t="s">
         <v>1716</v>
@@ -20523,27 +20743,29 @@
         <v>1716</v>
       </c>
       <c r="AR69" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS69" s="21" t="s">
         <v>1666</v>
       </c>
-      <c r="AS69" s="21" t="s">
+      <c r="AT69" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="AT69" s="21">
+      <c r="AU69" s="21">
         <v>5</v>
       </c>
-      <c r="AU69" s="21" t="s">
+      <c r="AV69" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV69" s="21" t="s">
+      <c r="AW69" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AW69" s="21" t="s">
+      <c r="AX69" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="AX69" s="94" t="s">
+      <c r="AY69" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY69" s="31"/>
       <c r="AZ69" s="31"/>
       <c r="BA69" s="31"/>
       <c r="BB69" s="31"/>
@@ -20562,8 +20784,9 @@
       <c r="BO69" s="31"/>
       <c r="BP69" s="31"/>
       <c r="BQ69" s="31"/>
+      <c r="BR69" s="31"/>
     </row>
-    <row r="70" spans="1:69" s="3" customFormat="1" ht="409.6">
+    <row r="70" spans="1:70" s="3" customFormat="1" ht="409.6">
       <c r="A70" s="29" t="s">
         <v>67</v>
       </c>
@@ -20649,41 +20872,41 @@
       <c r="AC70" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AE70" s="2">
         <v>1</v>
       </c>
-      <c r="AE70" s="2" t="s">
+      <c r="AF70" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="AF70" s="2" t="s">
+      <c r="AG70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG70" s="2" t="s">
+      <c r="AH70" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="AH70" s="2" t="s">
+      <c r="AI70" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="AI70" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AJ70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK70" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="AK70" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AL70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM70" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="AM70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN70" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO70" s="21" t="s">
-        <v>1728</v>
+      <c r="AN70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO70" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP70" s="21" t="s">
         <v>1728</v>
@@ -20692,27 +20915,29 @@
         <v>1728</v>
       </c>
       <c r="AR70" s="21" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AS70" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="AS70" s="21" t="s">
+      <c r="AT70" s="21" t="s">
         <v>1508</v>
       </c>
-      <c r="AT70" s="21">
+      <c r="AU70" s="21">
         <v>5</v>
       </c>
-      <c r="AU70" s="21" t="s">
+      <c r="AV70" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="AV70" s="21" t="s">
+      <c r="AW70" s="21" t="s">
         <v>1862</v>
       </c>
-      <c r="AW70" s="21" t="s">
+      <c r="AX70" s="21" t="s">
         <v>1742</v>
       </c>
-      <c r="AX70" s="94" t="s">
+      <c r="AY70" s="94" t="s">
         <v>1857</v>
       </c>
-      <c r="AY70" s="31"/>
       <c r="AZ70" s="31"/>
       <c r="BA70" s="31"/>
       <c r="BB70" s="31"/>
@@ -20731,8 +20956,9 @@
       <c r="BO70" s="31"/>
       <c r="BP70" s="31"/>
       <c r="BQ70" s="31"/>
+      <c r="BR70" s="31"/>
     </row>
-    <row r="71" spans="1:69" s="4" customFormat="1" ht="306">
+    <row r="71" spans="1:70" s="4" customFormat="1" ht="306">
       <c r="A71" s="29" t="s">
         <v>68</v>
       </c>
@@ -20818,41 +21044,41 @@
       <c r="AC71" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE71" s="2">
         <v>0</v>
       </c>
-      <c r="AE71" s="2" t="s">
+      <c r="AF71" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="AF71" s="2" t="s">
+      <c r="AG71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG71" s="2" t="s">
+      <c r="AH71" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="AH71" s="2" t="s">
+      <c r="AI71" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="AI71" s="2" t="s">
+      <c r="AJ71" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="AJ71" s="2" t="s">
+      <c r="AK71" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="AK71" s="2" t="s">
+      <c r="AL71" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="AL71" s="2" t="s">
+      <c r="AM71" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="AM71" s="2" t="s">
+      <c r="AN71" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="AN71" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO71" s="21" t="s">
-        <v>1716</v>
+      <c r="AO71" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="AP71" s="21" t="s">
         <v>1716</v>
@@ -20861,25 +21087,27 @@
         <v>1716</v>
       </c>
       <c r="AR71" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AS71" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="AS71" s="21" t="s">
+      <c r="AT71" s="21" t="s">
         <v>1712</v>
       </c>
-      <c r="AT71" s="21">
+      <c r="AU71" s="21">
         <v>4</v>
       </c>
-      <c r="AU71" s="21" t="s">
+      <c r="AV71" s="21" t="s">
         <v>1715</v>
       </c>
-      <c r="AV71" s="21" t="s">
+      <c r="AW71" s="21" t="s">
         <v>1875</v>
       </c>
-      <c r="AW71" s="21" t="s">
+      <c r="AX71" s="21" t="s">
         <v>1678</v>
       </c>
-      <c r="AX71" s="94"/>
-      <c r="AY71" s="31"/>
+      <c r="AY71" s="94"/>
       <c r="AZ71" s="31"/>
       <c r="BA71" s="31"/>
       <c r="BB71" s="31"/>
@@ -20898,8 +21126,9 @@
       <c r="BO71" s="31"/>
       <c r="BP71" s="31"/>
       <c r="BQ71" s="31"/>
+      <c r="BR71" s="31"/>
     </row>
-    <row r="72" spans="1:69" s="3" customFormat="1" ht="409.6" thickBot="1">
+    <row r="72" spans="1:70" s="3" customFormat="1" ht="409.6" thickBot="1">
       <c r="A72" s="73" t="s">
         <v>69</v>
       </c>
@@ -20985,41 +21214,41 @@
       <c r="AC72" s="78" t="s">
         <v>1608</v>
       </c>
-      <c r="AD72" s="78">
+      <c r="AD72" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AE72" s="78">
         <v>0</v>
       </c>
-      <c r="AE72" s="78" t="s">
+      <c r="AF72" s="78" t="s">
         <v>1609</v>
       </c>
-      <c r="AF72" s="78" t="s">
+      <c r="AG72" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="AG72" s="78" t="s">
+      <c r="AH72" s="78" t="s">
         <v>1610</v>
       </c>
-      <c r="AH72" s="78" t="s">
+      <c r="AI72" s="78" t="s">
         <v>1611</v>
       </c>
-      <c r="AI72" s="78" t="s">
+      <c r="AJ72" s="78" t="s">
         <v>1612</v>
       </c>
-      <c r="AJ72" s="78" t="s">
+      <c r="AK72" s="78" t="s">
         <v>1613</v>
       </c>
-      <c r="AK72" s="78" t="s">
+      <c r="AL72" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="AL72" s="78" t="s">
+      <c r="AM72" s="78" t="s">
         <v>1614</v>
       </c>
-      <c r="AM72" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN72" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO72" s="79" t="s">
-        <v>1726</v>
+      <c r="AN72" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO72" s="75" t="s">
+        <v>71</v>
       </c>
       <c r="AP72" s="79" t="s">
         <v>1726</v>
@@ -21028,27 +21257,29 @@
         <v>1726</v>
       </c>
       <c r="AR72" s="79" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AS72" s="79" t="s">
         <v>1667</v>
       </c>
-      <c r="AS72" s="79" t="s">
+      <c r="AT72" s="79" t="s">
         <v>1508</v>
       </c>
-      <c r="AT72" s="79">
+      <c r="AU72" s="79">
         <v>5</v>
       </c>
-      <c r="AU72" s="79" t="s">
+      <c r="AV72" s="79" t="s">
         <v>970</v>
       </c>
-      <c r="AV72" s="79" t="s">
+      <c r="AW72" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="AW72" s="79" t="s">
+      <c r="AX72" s="79" t="s">
         <v>1855</v>
       </c>
-      <c r="AX72" s="96" t="s">
+      <c r="AY72" s="96" t="s">
         <v>1857</v>
       </c>
-      <c r="AY72" s="31"/>
       <c r="AZ72" s="31"/>
       <c r="BA72" s="31"/>
       <c r="BB72" s="31"/>
@@ -21067,14 +21298,15 @@
       <c r="BO72" s="31"/>
       <c r="BP72" s="31"/>
       <c r="BQ72" s="31"/>
+      <c r="BR72" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BQ72" xr:uid="{62CCF830-4A99-4042-BE90-52CFFDF00F36}"/>
+  <autoFilter ref="A2:BR72" xr:uid="{62CCF830-4A99-4042-BE90-52CFFDF00F36}"/>
   <mergeCells count="5">
-    <mergeCell ref="AO1:AW1"/>
+    <mergeCell ref="AP1:AX1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="AA1:AM1"/>
+    <mergeCell ref="AA1:AN1"/>
     <mergeCell ref="J1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B5 B10 B55:B59 B29:B32 B44:B46 B51:B53 B7:B8 B34:B37 B39:B41 B64 B48:B49 B72 B67:B68 B13:B26">
